--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{819332EF-2913-4B70-AB05-10A667425B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5F00A7-9D36-4984-9221-DF9D6FE6CC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9B395667-8080-4DAE-89F7-B50939F0A6D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{33F0E47B-C075-4FA1-9696-36CE22CD5066}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{A1F2F8C2-6EB9-4585-9FB9-2D6A674CFDBB}"/>
+    <cellStyle name="Milliers [0] 2 2" xfId="1" xr:uid="{5C4051A0-BFC6-46AC-AD74-64AE465903F5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -323,10 +323,6 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
       <sheetName val="Tables du Contenu"/>
       <sheetName val="Indications"/>
       <sheetName val="MAP"/>
@@ -364,6 +360,10 @@
       <sheetName val="EXT_CALAGE"/>
       <sheetName val="EXT_PREVISION"/>
       <sheetName val="AUI_CNA"/>
+      <sheetName val="pro"/>
+      <sheetName val="ind"/>
+      <sheetName val="VA"/>
+      <sheetName val="conso"/>
       <sheetName val="AUI_IND"/>
       <sheetName val="AUI_ETALONNAGE"/>
       <sheetName val="AUI_RESIDUS"/>
@@ -1722,19 +1722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63CCBA6-C4D0-4A37-B308-806776C307F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3737400C-E653-42E1-B07A-906DBA382808}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>1268339.4477639399</v>
+        <v>2813111.8068729583</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>1181742.0247480848</v>
+        <v>3287367.1300997585</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>1255521.6920803196</v>
+        <v>3662740.8201511893</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>1341359.1348832971</v>
+        <v>3227953.8746803799</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>1418177.9615245394</v>
+        <v>3312469.0678267083</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>1456786.3016296215</v>
+        <v>2956003.0162836676</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>1412661.8168779463</v>
+        <v>2856163.3978679809</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>1448417.6911906502</v>
+        <v>2850467.8224011539</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>1484911.6425653687</v>
+        <v>2604093.326811797</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>1537487.4391951556</v>
+        <v>2535447.5307234181</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>1488682.1449741309</v>
+        <v>2798172.6506881271</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>1501662.42919933</v>
+        <v>2611642.9799922295</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>1593615.797616252</v>
+        <v>2538626.8425992075</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>1625302.9323412769</v>
+        <v>2634261.8727078312</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>1504966.1298186895</v>
+        <v>2829142.0365330572</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>1449487.3038074195</v>
+        <v>3051374.972308469</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>1420710.0361085436</v>
+        <v>3202960.7410026803</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>1491774.0410095686</v>
+        <v>3610021.6490008826</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>1839728.8443069814</v>
+        <v>4151259.4542214484</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>1891618</v>
+        <v>4342123</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>1884039</v>
+        <v>4198234</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>2035994.6198774669</v>
+        <v>4327768.9849505639</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>2151223.5797187076</v>
+        <v>4576163.3169878144</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>2213602.0023530093</v>
+        <v>4846140.9448465919</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>2258851.356632086</v>
+        <v>4993665.023576268</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B374BFE-8BAB-4F90-BBFC-5DAED42150E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C23C91-B4CB-4893-B709-D9C91AF5E88D}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>296815.1286447852</v>
+        <v>673991.94009069167</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>632956.36367052561</v>
+        <v>718269.73282074661</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>626505.23194503936</v>
+        <v>537534.72274806001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>679955.22614140587</v>
+        <v>522163.91703414213</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>276549.71365822741</v>
+        <v>787618.51711440575</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>589740.49581118638</v>
+        <v>839360.98965265614</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>583729.82297385321</v>
+        <v>628156.32657470903</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>633530.4536139745</v>
+        <v>610194.19604593632</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>293815.53432571044</v>
+        <v>877554.0969938268</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>626559.74796782504</v>
+        <v>935204.87307117076</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>620173.81095853727</v>
+        <v>699883.44098080357</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>673083.64300185547</v>
+        <v>679870.27357329766</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>316340.56361062248</v>
+        <v>594625.20264260529</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>674594.22886792955</v>
+        <v>633689.01024709002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>667718.72135830752</v>
+        <v>474236.670246372</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>724684.82469092519</v>
+        <v>460675.8723810612</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>321235.7434833172</v>
+        <v>820401.82962782832</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>685033.16864125268</v>
+        <v>874297.99663945602</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>678051.26679006545</v>
+        <v>654302.29027910368</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>735898.88629397925</v>
+        <v>635592.5159027878</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>326307.65537126985</v>
+        <v>759411.85557014553</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>695848.98830689269</v>
+        <v>809301.29598861211</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>688756.85093018273</v>
+        <v>605660.41958982416</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>747517.81222436635</v>
+        <v>588341.5595345482</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>316424.14867733797</v>
+        <v>720395.90765966917</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>674772.47348816507</v>
+        <v>767722.20161897468</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>667895.14929797756</v>
+        <v>574543.68733336939</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>724876.30449588026</v>
+        <v>558114.61025531346</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>333162.00182239292</v>
+        <v>687663.8361698807</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>710465.83827963448</v>
+        <v>732839.80192666303</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>703224.72503349977</v>
+        <v>548438.59033344733</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>763220.00608660234</v>
+        <v>532755.98851949605</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>334065.98837462143</v>
+        <v>628226.98533439916</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>712393.58382117108</v>
+        <v>669498.25667975214</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>705132.82286922983</v>
+        <v>501035.39567422151</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>765290.89237651567</v>
+        <v>486708.28823950031</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>334989.62702592794</v>
+        <v>611666.4646001904</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>714363.2373383143</v>
+        <v>651849.79518400761</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>707082.40155180008</v>
+        <v>487827.73784936871</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>767406.79843187612</v>
+        <v>473878.30339793669</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>324355.87035826361</v>
+        <v>756038.2212431404</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>691686.81924853066</v>
+        <v>805706.03129395295</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>684637.10296496458</v>
+        <v>602969.81531883555</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>743046.58993203379</v>
+        <v>585727.8930942748</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>366939.75338007737</v>
+        <v>748005.65525200823</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>782496.67746406433</v>
+        <v>797145.76716447505</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>774521.42129979632</v>
+        <v>596563.53228165582</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>840599.34589255904</v>
+        <v>579504.79772432055</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>395516.07430650853</v>
+        <v>662264.69511116785</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>843435.49909105152</v>
+        <v>705772.0683575297</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>834839.15056074434</v>
+        <v>528181.78986607539</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>906063.05337451329</v>
+        <v>513078.43127343233</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>403380.43606246635</v>
+        <v>750358.33004527888</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>860206.20024219714</v>
+        <v>799653.00055208697</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>851438.92365355243</v>
+        <v>598439.8817118092</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>924079.0281688089</v>
+        <v>581327.49294141249</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>381715.25164920161</v>
+        <v>760520.87391476124</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>814005.33303208067</v>
+        <v>810483.17111604044</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>805708.93863581272</v>
+        <v>606544.90474897204</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>874447.61135263159</v>
+        <v>589200.75284004875</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>379497.4362782886</v>
+        <v>845561.24187892547</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>809275.8559367751</v>
+        <v>901110.25245529122</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>801027.66467343329</v>
+        <v>674367.89772105298</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>869366.95674127678</v>
+        <v>655084.34728810389</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>371963.11756702355</v>
+        <v>887474.45769907639</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>793208.96946777613</v>
+        <v>945776.9502866437</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>785124.53293853451</v>
+        <v>707795.31354791403</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>852107.05692912615</v>
+        <v>687555.90613968635</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>455373.53176948422</v>
+        <v>955342.85605200764</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>971081.1443360073</v>
+        <v>1018103.9522169227</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>961183.82322856318</v>
+        <v>761922.99449182686</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>1043186.7613583996</v>
+        <v>740135.80601509369</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>530507.73802252766</v>
+        <v>983492.98152937263</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>1131304.3586793416</v>
+        <v>1048103.395686197</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>1119774.0323277195</v>
+        <v>784373.81176979362</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>1215307.0182907304</v>
+        <v>761944.64215975988</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>530920.11066465639</v>
+        <v>1099515.2516971482</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>1132183.7407015141</v>
+        <v>1171747.7303401865</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>1120644.4516320999</v>
+        <v>876906.07383044087</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>1216251.6970017296</v>
+        <v>851830.94413222466</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>527067.04315789125</v>
+        <v>996468.79170146713</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>1123967.0988841159</v>
+        <v>1061931.64963266</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>1112511.5543534216</v>
+        <v>794722.5238365134</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>1207424.9454818098</v>
+        <v>771997.43279882998</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>561667.63844664965</v>
+        <v>1173486.0635956496</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>1197752.6470628874</v>
+        <v>1250578.0428981089</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>1185545.0755078054</v>
+        <v>935900.66634731786</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>1286689.2865604304</v>
+        <v>909138.58624129777</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>577434.69570488972</v>
+        <v>1249206.7156522898</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>1231375.7958340677</v>
+        <v>1331273.1510835534</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>1218825.5349970728</v>
+        <v>996290.82428317016</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>1322809.0525324726</v>
+        <v>967801.88757536758</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>600234.5949825563</v>
+        <v>1255259.7542722879</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>1279996.4352358978</v>
+        <v>1337723.8431077853</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>1266950.629733644</v>
+        <v>1001118.3574372702</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>1375039.9167075262</v>
+        <v>972491.37741607951</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>612205.1135233345</v>
+        <v>1334414.932188476</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>1305523.4894713617</v>
+        <v>1422079.1077799248</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>1292217.5106003126</v>
+        <v>1064247.6830038731</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>1402462.4294297993</v>
+        <v>1033815.5198808836</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3628C549-5955-4726-AF46-631CACC2F436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F64E89F-072F-454A-9EB2-8CFE81C43AB5}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>842046.0136459457</v>
+        <v>2113724.8535492849</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>784554.00550724822</v>
+        <v>2471528.2579309903</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>833535.92818053206</v>
+        <v>2752196.2126599243</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>890523.68302801903</v>
+        <v>2425737.1983872349</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>941523.43968938245</v>
+        <v>2491235.4768259497</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>967155.51173656737</v>
+        <v>2222014.5977152968</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>937861.12289595732</v>
+        <v>2147633.4029307077</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>961599.3050510356</v>
+        <v>2144690.6219008272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>985826.92634546617</v>
+        <v>1961631.4950033007</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>1020731.3980672939</v>
+        <v>1912882.6883101068</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>988329.75939651066</v>
+        <v>2111466.6228675749</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>996946.9983983424</v>
+        <v>1970377.1605129805</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>1057994.7333110534</v>
+        <v>1914995.6168705798</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>1079032.2982149946</v>
+        <v>1987364.385569605</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>999140.91577197076</v>
+        <v>2133815.6870443793</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>962308.6393832441</v>
+        <v>2303811.8620308354</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>943204.00757087185</v>
+        <v>2417541.8735219291</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>990383.01952440781</v>
+        <v>2723723.5802079216</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>1221389.1305142292</v>
+        <v>3128364.7801220282</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>1255839</v>
+        <v>3274593</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>1262501</v>
+        <v>3055286</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>1363129.367291315</v>
+        <v>3053589.4008705206</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>1354697.4433472296</v>
+        <v>3314032.3314188113</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>1393979.2225446161</v>
+        <v>3509548.6461802069</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>1422474.2544571026</v>
+        <v>3616384.77345696</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E71A26A-B4B2-4343-851B-5264D9069891}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E19E848-2DF9-4D60-A713-1EDD4F2AFD62}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>426293.43411799415</v>
+        <v>699386.95332367369</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>397188.01924083667</v>
+        <v>815838.87216876808</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>421985.76389978762</v>
+        <v>910544.60749126493</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>450835.45185527805</v>
+        <v>802216.67629314505</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>476654.52183515689</v>
+        <v>821233.59100075858</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>489630.78989305423</v>
+        <v>733988.41856837063</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>474800.69398198894</v>
+        <v>708529.99493727344</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>486818.38613961462</v>
+        <v>705777.2005003267</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>499084.7162199025</v>
+        <v>642461.83180849627</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>516756.04112786177</v>
+        <v>622564.84241331136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>500352.38557762018</v>
+        <v>686706.02782055223</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>504715.4308009877</v>
+        <v>641265.81947924884</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>535621.0643051985</v>
+        <v>623631.22572862776</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>546270.6341262823</v>
+        <v>646897.48713822605</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>505825.21404671884</v>
+        <v>695326.34948867769</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>487178.66442417534</v>
+        <v>747563.11027763365</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>477506.02853767184</v>
+        <v>785418.86748075124</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>501391.02148516086</v>
+        <v>886298.06879296096</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>618339.71379275236</v>
+        <v>1022894.6740994203</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>635779</v>
+        <v>1067530</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>621538</v>
+        <v>1142948</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>672865.25258615182</v>
+        <v>1274179.5840800432</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>796526.13637147797</v>
+        <v>1262130.9855690033</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>819622.77980839321</v>
+        <v>1336592.2986663848</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>836377.10217498336</v>
+        <v>1377280.250119308</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5F00A7-9D36-4984-9221-DF9D6FE6CC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{819332EF-2913-4B70-AB05-10A667425B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{33F0E47B-C075-4FA1-9696-36CE22CD5066}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9B395667-8080-4DAE-89F7-B50939F0A6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2" xfId="1" xr:uid="{5C4051A0-BFC6-46AC-AD74-64AE465903F5}"/>
+    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{A1F2F8C2-6EB9-4585-9FB9-2D6A674CFDBB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -323,6 +323,10 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="pro"/>
+      <sheetName val="ind"/>
+      <sheetName val="VA"/>
+      <sheetName val="conso"/>
       <sheetName val="Tables du Contenu"/>
       <sheetName val="Indications"/>
       <sheetName val="MAP"/>
@@ -360,10 +364,6 @@
       <sheetName val="EXT_CALAGE"/>
       <sheetName val="EXT_PREVISION"/>
       <sheetName val="AUI_CNA"/>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
       <sheetName val="AUI_IND"/>
       <sheetName val="AUI_ETALONNAGE"/>
       <sheetName val="AUI_RESIDUS"/>
@@ -1722,19 +1722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3737400C-E653-42E1-B07A-906DBA382808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63CCBA6-C4D0-4A37-B308-806776C307F6}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>2813111.8068729583</v>
+        <v>1268339.4477639399</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>3287367.1300997585</v>
+        <v>1181742.0247480848</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>3662740.8201511893</v>
+        <v>1255521.6920803196</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>3227953.8746803799</v>
+        <v>1341359.1348832971</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>3312469.0678267083</v>
+        <v>1418177.9615245394</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>2956003.0162836676</v>
+        <v>1456786.3016296215</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>2856163.3978679809</v>
+        <v>1412661.8168779463</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>2850467.8224011539</v>
+        <v>1448417.6911906502</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>2604093.326811797</v>
+        <v>1484911.6425653687</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>2535447.5307234181</v>
+        <v>1537487.4391951556</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>2798172.6506881271</v>
+        <v>1488682.1449741309</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>2611642.9799922295</v>
+        <v>1501662.42919933</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>2538626.8425992075</v>
+        <v>1593615.797616252</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>2634261.8727078312</v>
+        <v>1625302.9323412769</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>2829142.0365330572</v>
+        <v>1504966.1298186895</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>3051374.972308469</v>
+        <v>1449487.3038074195</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>3202960.7410026803</v>
+        <v>1420710.0361085436</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>3610021.6490008826</v>
+        <v>1491774.0410095686</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>4151259.4542214484</v>
+        <v>1839728.8443069814</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>4342123</v>
+        <v>1891618</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>4198234</v>
+        <v>1884039</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>4327768.9849505639</v>
+        <v>2035994.6198774669</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>4576163.3169878144</v>
+        <v>2151223.5797187076</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>4846140.9448465919</v>
+        <v>2213602.0023530093</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>4993665.023576268</v>
+        <v>2258851.356632086</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C23C91-B4CB-4893-B709-D9C91AF5E88D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B374BFE-8BAB-4F90-BBFC-5DAED42150E8}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>673991.94009069167</v>
+        <v>296815.1286447852</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>718269.73282074661</v>
+        <v>632956.36367052561</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>537534.72274806001</v>
+        <v>626505.23194503936</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>522163.91703414213</v>
+        <v>679955.22614140587</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>787618.51711440575</v>
+        <v>276549.71365822741</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>839360.98965265614</v>
+        <v>589740.49581118638</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>628156.32657470903</v>
+        <v>583729.82297385321</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>610194.19604593632</v>
+        <v>633530.4536139745</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>877554.0969938268</v>
+        <v>293815.53432571044</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>935204.87307117076</v>
+        <v>626559.74796782504</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>699883.44098080357</v>
+        <v>620173.81095853727</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>679870.27357329766</v>
+        <v>673083.64300185547</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>594625.20264260529</v>
+        <v>316340.56361062248</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>633689.01024709002</v>
+        <v>674594.22886792955</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>474236.670246372</v>
+        <v>667718.72135830752</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>460675.8723810612</v>
+        <v>724684.82469092519</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>820401.82962782832</v>
+        <v>321235.7434833172</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>874297.99663945602</v>
+        <v>685033.16864125268</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>654302.29027910368</v>
+        <v>678051.26679006545</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>635592.5159027878</v>
+        <v>735898.88629397925</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>759411.85557014553</v>
+        <v>326307.65537126985</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>809301.29598861211</v>
+        <v>695848.98830689269</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>605660.41958982416</v>
+        <v>688756.85093018273</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>588341.5595345482</v>
+        <v>747517.81222436635</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>720395.90765966917</v>
+        <v>316424.14867733797</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>767722.20161897468</v>
+        <v>674772.47348816507</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>574543.68733336939</v>
+        <v>667895.14929797756</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>558114.61025531346</v>
+        <v>724876.30449588026</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>687663.8361698807</v>
+        <v>333162.00182239292</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>732839.80192666303</v>
+        <v>710465.83827963448</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>548438.59033344733</v>
+        <v>703224.72503349977</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>532755.98851949605</v>
+        <v>763220.00608660234</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>628226.98533439916</v>
+        <v>334065.98837462143</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>669498.25667975214</v>
+        <v>712393.58382117108</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>501035.39567422151</v>
+        <v>705132.82286922983</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>486708.28823950031</v>
+        <v>765290.89237651567</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>611666.4646001904</v>
+        <v>334989.62702592794</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>651849.79518400761</v>
+        <v>714363.2373383143</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>487827.73784936871</v>
+        <v>707082.40155180008</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>473878.30339793669</v>
+        <v>767406.79843187612</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>756038.2212431404</v>
+        <v>324355.87035826361</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>805706.03129395295</v>
+        <v>691686.81924853066</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>602969.81531883555</v>
+        <v>684637.10296496458</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>585727.8930942748</v>
+        <v>743046.58993203379</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>748005.65525200823</v>
+        <v>366939.75338007737</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>797145.76716447505</v>
+        <v>782496.67746406433</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>596563.53228165582</v>
+        <v>774521.42129979632</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>579504.79772432055</v>
+        <v>840599.34589255904</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>662264.69511116785</v>
+        <v>395516.07430650853</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>705772.0683575297</v>
+        <v>843435.49909105152</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>528181.78986607539</v>
+        <v>834839.15056074434</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>513078.43127343233</v>
+        <v>906063.05337451329</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>750358.33004527888</v>
+        <v>403380.43606246635</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>799653.00055208697</v>
+        <v>860206.20024219714</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>598439.8817118092</v>
+        <v>851438.92365355243</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>581327.49294141249</v>
+        <v>924079.0281688089</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>760520.87391476124</v>
+        <v>381715.25164920161</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>810483.17111604044</v>
+        <v>814005.33303208067</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>606544.90474897204</v>
+        <v>805708.93863581272</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>589200.75284004875</v>
+        <v>874447.61135263159</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>845561.24187892547</v>
+        <v>379497.4362782886</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>901110.25245529122</v>
+        <v>809275.8559367751</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>674367.89772105298</v>
+        <v>801027.66467343329</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>655084.34728810389</v>
+        <v>869366.95674127678</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>887474.45769907639</v>
+        <v>371963.11756702355</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>945776.9502866437</v>
+        <v>793208.96946777613</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>707795.31354791403</v>
+        <v>785124.53293853451</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>687555.90613968635</v>
+        <v>852107.05692912615</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>955342.85605200764</v>
+        <v>455373.53176948422</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>1018103.9522169227</v>
+        <v>971081.1443360073</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>761922.99449182686</v>
+        <v>961183.82322856318</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>740135.80601509369</v>
+        <v>1043186.7613583996</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>983492.98152937263</v>
+        <v>530507.73802252766</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>1048103.395686197</v>
+        <v>1131304.3586793416</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>784373.81176979362</v>
+        <v>1119774.0323277195</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>761944.64215975988</v>
+        <v>1215307.0182907304</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>1099515.2516971482</v>
+        <v>530920.11066465639</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>1171747.7303401865</v>
+        <v>1132183.7407015141</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>876906.07383044087</v>
+        <v>1120644.4516320999</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>851830.94413222466</v>
+        <v>1216251.6970017296</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>996468.79170146713</v>
+        <v>527067.04315789125</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>1061931.64963266</v>
+        <v>1123967.0988841159</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>794722.5238365134</v>
+        <v>1112511.5543534216</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>771997.43279882998</v>
+        <v>1207424.9454818098</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>1173486.0635956496</v>
+        <v>561667.63844664965</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>1250578.0428981089</v>
+        <v>1197752.6470628874</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>935900.66634731786</v>
+        <v>1185545.0755078054</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>909138.58624129777</v>
+        <v>1286689.2865604304</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>1249206.7156522898</v>
+        <v>577434.69570488972</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>1331273.1510835534</v>
+        <v>1231375.7958340677</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>996290.82428317016</v>
+        <v>1218825.5349970728</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>967801.88757536758</v>
+        <v>1322809.0525324726</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>1255259.7542722879</v>
+        <v>600234.5949825563</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>1337723.8431077853</v>
+        <v>1279996.4352358978</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>1001118.3574372702</v>
+        <v>1266950.629733644</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>972491.37741607951</v>
+        <v>1375039.9167075262</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>1334414.932188476</v>
+        <v>612205.1135233345</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>1422079.1077799248</v>
+        <v>1305523.4894713617</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>1064247.6830038731</v>
+        <v>1292217.5106003126</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>1033815.5198808836</v>
+        <v>1402462.4294297993</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F64E89F-072F-454A-9EB2-8CFE81C43AB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3628C549-5955-4726-AF46-631CACC2F436}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>2113724.8535492849</v>
+        <v>842046.0136459457</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>2471528.2579309903</v>
+        <v>784554.00550724822</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>2752196.2126599243</v>
+        <v>833535.92818053206</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>2425737.1983872349</v>
+        <v>890523.68302801903</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>2491235.4768259497</v>
+        <v>941523.43968938245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>2222014.5977152968</v>
+        <v>967155.51173656737</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>2147633.4029307077</v>
+        <v>937861.12289595732</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>2144690.6219008272</v>
+        <v>961599.3050510356</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>1961631.4950033007</v>
+        <v>985826.92634546617</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>1912882.6883101068</v>
+        <v>1020731.3980672939</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>2111466.6228675749</v>
+        <v>988329.75939651066</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>1970377.1605129805</v>
+        <v>996946.9983983424</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>1914995.6168705798</v>
+        <v>1057994.7333110534</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>1987364.385569605</v>
+        <v>1079032.2982149946</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>2133815.6870443793</v>
+        <v>999140.91577197076</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>2303811.8620308354</v>
+        <v>962308.6393832441</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>2417541.8735219291</v>
+        <v>943204.00757087185</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>2723723.5802079216</v>
+        <v>990383.01952440781</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>3128364.7801220282</v>
+        <v>1221389.1305142292</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>3274593</v>
+        <v>1255839</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>3055286</v>
+        <v>1262501</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>3053589.4008705206</v>
+        <v>1363129.367291315</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>3314032.3314188113</v>
+        <v>1354697.4433472296</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>3509548.6461802069</v>
+        <v>1393979.2225446161</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>3616384.77345696</v>
+        <v>1422474.2544571026</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E19E848-2DF9-4D60-A713-1EDD4F2AFD62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E71A26A-B4B2-4343-851B-5264D9069891}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>699386.95332367369</v>
+        <v>426293.43411799415</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>815838.87216876808</v>
+        <v>397188.01924083667</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>910544.60749126493</v>
+        <v>421985.76389978762</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>802216.67629314505</v>
+        <v>450835.45185527805</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>821233.59100075858</v>
+        <v>476654.52183515689</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>733988.41856837063</v>
+        <v>489630.78989305423</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>708529.99493727344</v>
+        <v>474800.69398198894</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>705777.2005003267</v>
+        <v>486818.38613961462</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>642461.83180849627</v>
+        <v>499084.7162199025</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>622564.84241331136</v>
+        <v>516756.04112786177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>686706.02782055223</v>
+        <v>500352.38557762018</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>641265.81947924884</v>
+        <v>504715.4308009877</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>623631.22572862776</v>
+        <v>535621.0643051985</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>646897.48713822605</v>
+        <v>546270.6341262823</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>695326.34948867769</v>
+        <v>505825.21404671884</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>747563.11027763365</v>
+        <v>487178.66442417534</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>785418.86748075124</v>
+        <v>477506.02853767184</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>886298.06879296096</v>
+        <v>501391.02148516086</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>1022894.6740994203</v>
+        <v>618339.71379275236</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>1067530</v>
+        <v>635779</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>1142948</v>
+        <v>621538</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>1274179.5840800432</v>
+        <v>672865.25258615182</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>1262130.9855690033</v>
+        <v>796526.13637147797</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>1336592.2986663848</v>
+        <v>819622.77980839321</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>1377280.250119308</v>
+        <v>836377.10217498336</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5F00A7-9D36-4984-9221-DF9D6FE6CC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA61C335-85A8-4077-8565-29A13210E072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{33F0E47B-C075-4FA1-9696-36CE22CD5066}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1FD790D8-68D8-4B3C-B107-24EAEA4F6D41}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2" xfId="1" xr:uid="{5C4051A0-BFC6-46AC-AD74-64AE465903F5}"/>
+    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{53364C1C-CD7F-4CD1-9A97-BBBA277DDD44}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -323,6 +323,10 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="pro"/>
+      <sheetName val="ind"/>
+      <sheetName val="VA"/>
+      <sheetName val="conso"/>
       <sheetName val="Tables du Contenu"/>
       <sheetName val="Indications"/>
       <sheetName val="MAP"/>
@@ -360,10 +364,6 @@
       <sheetName val="EXT_CALAGE"/>
       <sheetName val="EXT_PREVISION"/>
       <sheetName val="AUI_CNA"/>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
       <sheetName val="AUI_IND"/>
       <sheetName val="AUI_ETALONNAGE"/>
       <sheetName val="AUI_RESIDUS"/>
@@ -1722,19 +1722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3737400C-E653-42E1-B07A-906DBA382808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4537031-C17D-45AF-B27B-6138C12F9580}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>2813111.8068729583</v>
+        <v>892498.28095767635</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>3287367.1300997585</v>
+        <v>867204.97223946173</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>3662740.8201511893</v>
+        <v>843060.09939562157</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>3227953.8746803799</v>
+        <v>807812.33257700538</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>3312469.0678267083</v>
+        <v>989963.64787321072</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>2956003.0162836676</v>
+        <v>1004220.3389177501</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>2856163.3978679809</v>
+        <v>1001475.1049139029</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>2850467.8224011539</v>
+        <v>1016119.1603356658</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>2604093.326811797</v>
+        <v>1068621.4612114637</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>2535447.5307234181</v>
+        <v>1048251.1507697842</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>2798172.6506881271</v>
+        <v>1036199.5489919075</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>2611642.9799922295</v>
+        <v>1074257.4916093561</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>2538626.8425992075</v>
+        <v>1106191.3234820557</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>2634261.8727078312</v>
+        <v>1180925.4847899291</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>2829142.0365330572</v>
+        <v>1203415.9974299127</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>3051374.972308469</v>
+        <v>1023011.1413454487</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>3202960.7410026803</v>
+        <v>1065247.2097024948</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>3610021.6490008826</v>
+        <v>1163759.4496102144</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>4151259.4542214484</v>
+        <v>1279070.7003550082</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>4342123</v>
+        <v>1343057</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>4198234</v>
+        <v>1402966</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>4327768.9849505639</v>
+        <v>1649926.9788154145</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>4576163.3169878144</v>
+        <v>1518839.6399376567</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>4846140.9448465919</v>
+        <v>1579995.5479827698</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>4993665.023576268</v>
+        <v>1700183.0408774351</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C23C91-B4CB-4893-B709-D9C91AF5E88D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE0F686-AF43-41CC-B6C8-2241FD7EE3ED}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>673991.94009069167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>718269.73282074661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>537534.72274806001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>522163.91703414213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>787618.51711440575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>839360.98965265614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>628156.32657470903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>610194.19604593632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>877554.0969938268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>935204.87307117076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>699883.44098080357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>679870.27357329766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>594625.20264260529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>633689.01024709002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>474236.670246372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>460675.8723810612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>820401.82962782832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>874297.99663945602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>654302.29027910368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>635592.5159027878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>759411.85557014553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>809301.29598861211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>605660.41958982416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>588341.5595345482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>720395.90765966917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>767722.20161897468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>574543.68733336939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>558114.61025531346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>687663.8361698807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>732839.80192666303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>548438.59033344733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>532755.98851949605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>628226.98533439916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>669498.25667975214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>501035.39567422151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>486708.28823950031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>611666.4646001904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>651849.79518400761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>487827.73784936871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>473878.30339793669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>756038.2212431404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>805706.03129395295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>602969.81531883555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>585727.8930942748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>748005.65525200823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>797145.76716447505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>596563.53228165582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>579504.79772432055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>662264.69511116785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>705772.0683575297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>528181.78986607539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>513078.43127343233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>750358.33004527888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>799653.00055208697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>598439.8817118092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>581327.49294141249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>760520.87391476124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>810483.17111604044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>606544.90474897204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>589200.75284004875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>845561.24187892547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>901110.25245529122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>674367.89772105298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>655084.34728810389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>887474.45769907639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>945776.9502866437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>707795.31354791403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>687555.90613968635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>955342.85605200764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>1018103.9522169227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>761922.99449182686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>740135.80601509369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>983492.98152937263</v>
+        <v>774049.62066820927</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>1048103.395686197</v>
+        <v>879155.68326193106</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>784373.81176979362</v>
+        <v>783313.59709996183</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>761944.64215975988</v>
+        <v>942880.04054559371</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>1099515.2516971482</v>
+        <v>962777.4721621864</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>1171747.7303401865</v>
+        <v>1144983.3045774491</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>876906.07383044087</v>
+        <v>940900.41249388293</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>851830.94413222466</v>
+        <v>951338.81076648133</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>996468.79170146713</v>
+        <v>898438.59783777187</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>1061931.64963266</v>
+        <v>1029680.2102070589</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>794722.5238365134</v>
+        <v>1165623.0114931432</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>771997.43279882998</v>
+        <v>1200017.5465738068</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>1173486.0635956496</v>
+        <v>1101567.3626145632</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>1250578.0428981089</v>
+        <v>1441398.0521946086</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>935900.66634731786</v>
+        <v>1287205.6602888315</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>909138.58624129777</v>
+        <v>1373635.2766218903</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>1249206.7156522898</v>
+        <v>1059465.1018414048</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>1331273.1510835534</v>
+        <v>1359038.3493043953</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>996290.82428317016</v>
+        <v>1522177.7063888994</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>967801.88757536758</v>
+        <v>1350365.1773913954</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>1255259.7542722879</v>
+        <v>1161130.9281515211</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>1337723.8431077853</v>
+        <v>1532582.4054490556</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>1001118.3574372702</v>
+        <v>1236146.7349534507</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>972491.37741607951</v>
+        <v>1615877.5765377402</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>1334414.932188476</v>
+        <v>1183323.0126313234</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>1422079.1077799248</v>
+        <v>1476526.3598635746</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>1064247.6830038731</v>
+        <v>2003272.8301733413</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>1033815.5198808836</v>
+        <v>2005040.9099544766</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F64E89F-072F-454A-9EB2-8CFE81C43AB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9B8AE4-DEEC-4976-BC51-382A430AAECE}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>2113724.8535492849</v>
+        <v>585669.93277889024</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>2471528.2579309903</v>
+        <v>569071.91156697238</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>2752196.2126599243</v>
+        <v>553227.91266210214</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>2425737.1983872349</v>
+        <v>530098.69914250146</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>2491235.4768259497</v>
+        <v>649628.79361317423</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>2222014.5977152968</v>
+        <v>658984.4918077417</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>2147633.4029307077</v>
+        <v>657182.40495351946</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>2144690.6219008272</v>
+        <v>666793.13595489203</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>1961631.4950033007</v>
+        <v>701245.75326644792</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>1912882.6883101068</v>
+        <v>687878.06398639991</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>2111466.6228675749</v>
+        <v>679969.54920820019</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>1970377.1605129805</v>
+        <v>704943.76149629359</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>1914995.6168705798</v>
+        <v>725898.9629565319</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>1987364.385569605</v>
+        <v>774940.78945409041</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>2133815.6870443793</v>
+        <v>789698.68640608341</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>2303811.8620308354</v>
+        <v>671314.73136563413</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>2417541.8735219291</v>
+        <v>699030.35184687143</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>2723723.5802079216</v>
+        <v>763675.3594456861</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>3128364.7801220282</v>
+        <v>839344.01652715635</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>3274593</v>
+        <v>881333</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>3055286</v>
+        <v>973967</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>3053589.4008705206</v>
+        <v>1280597.9136599381</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>3314032.3314188113</v>
+        <v>1135435.3605457353</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>3509548.6461802069</v>
+        <v>1181153.5382090169</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>3616384.77345696</v>
+        <v>1271001.8182641407</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E19E848-2DF9-4D60-A713-1EDD4F2AFD62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329647BC-FC7E-4B12-BEAB-44A0A7D0E7F0}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>699386.95332367369</v>
+        <v>306828.34817878617</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>815838.87216876808</v>
+        <v>298133.06067248934</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>910544.60749126493</v>
+        <v>289832.18673351943</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>802216.67629314505</v>
+        <v>277713.63343450398</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>821233.59100075858</v>
+        <v>340334.85426003649</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>733988.41856837063</v>
+        <v>345235.84711000836</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>708529.99493727344</v>
+        <v>344292.69996038347</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>705777.2005003267</v>
+        <v>349326.02438077383</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>642461.83180849627</v>
+        <v>367375.70794501575</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>622564.84241331136</v>
+        <v>360373.08678338432</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>686706.02782055223</v>
+        <v>356229.99978370732</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>641265.81947924884</v>
+        <v>369313.73011306248</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>623631.22572862776</v>
+        <v>380292.36052552372</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>646897.48713822605</v>
+        <v>405984.69533583865</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>695326.34948867769</v>
+        <v>413717.31102382927</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>747563.11027763365</v>
+        <v>351696.40997981455</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>785418.86748075124</v>
+        <v>366216.8578556233</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>886298.06879296096</v>
+        <v>400084.09016452834</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>1022894.6740994203</v>
+        <v>439726.68382785184</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>1067530</v>
+        <v>461724</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>1142948</v>
+        <v>428999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>1274179.5840800432</v>
+        <v>369329.06515547639</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>1262130.9855690033</v>
+        <v>383404.27939192142</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>1336592.2986663848</v>
+        <v>398842.00977375283</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>1377280.250119308</v>
+        <v>429181.22261329449</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA61C335-85A8-4077-8565-29A13210E072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D12344B9-9900-45F6-8051-CD70A2C1EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1FD790D8-68D8-4B3C-B107-24EAEA4F6D41}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F11A357F-80FD-40E9-96D1-BA1CAD5D3A88}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{53364C1C-CD7F-4CD1-9A97-BBBA277DDD44}"/>
+    <cellStyle name="Milliers [0] 2 2" xfId="1" xr:uid="{3F6663EF-AC98-4173-8FD0-DA0EA2AF538B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -323,10 +323,6 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
       <sheetName val="Tables du Contenu"/>
       <sheetName val="Indications"/>
       <sheetName val="MAP"/>
@@ -364,6 +360,10 @@
       <sheetName val="EXT_CALAGE"/>
       <sheetName val="EXT_PREVISION"/>
       <sheetName val="AUI_CNA"/>
+      <sheetName val="pro"/>
+      <sheetName val="ind"/>
+      <sheetName val="VA"/>
+      <sheetName val="conso"/>
       <sheetName val="AUI_IND"/>
       <sheetName val="AUI_ETALONNAGE"/>
       <sheetName val="AUI_RESIDUS"/>
@@ -1722,19 +1722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4537031-C17D-45AF-B27B-6138C12F9580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4179FE-C357-49CD-8ACB-CAB0043D4509}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>892498.28095767635</v>
+        <v>2473144.9109755037</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>867204.97223946173</v>
+        <v>2836878.9014296574</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>843060.09939562157</v>
+        <v>3059412.4828999103</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>807812.33257700538</v>
+        <v>3304919.3066351525</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>989963.64787321072</v>
+        <v>3305070.3692520862</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>1004220.3389177501</v>
+        <v>3320377.3360334476</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>1001475.1049139029</v>
+        <v>3405526.2932904954</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>1016119.1603356658</v>
+        <v>2973857.5030658306</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>1068621.4612114637</v>
+        <v>2735474.8480157265</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>1048251.1507697842</v>
+        <v>2670995.1591512258</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>1036199.5489919075</v>
+        <v>2767340.5635818671</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>1074257.4916093561</v>
+        <v>2775971.0996602583</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>1106191.3234820557</v>
+        <v>2750300.2281857459</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>1180925.4847899291</v>
+        <v>2877789.6414573295</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>1203415.9974299127</v>
+        <v>3007337.6802542512</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>1023011.1413454487</v>
+        <v>2333156.6920087431</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>1065247.2097024948</v>
+        <v>2364261.3998211287</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>1163759.4496102144</v>
+        <v>3057503.170954322</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>1279070.7003550082</v>
+        <v>3303419.4355624849</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>1343057</v>
+        <v>3647171</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>1402966</v>
+        <v>4039872.9999999995</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>1649926.9788154145</v>
+        <v>4027174.0153047293</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>1518839.6399376567</v>
+        <v>4294524.3560641548</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>1579995.5479827698</v>
+        <v>4241929.280900171</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>1700183.0408774351</v>
+        <v>4436333.9538010824</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE0F686-AF43-41CC-B6C8-2241FD7EE3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F64B80-6001-44BE-ADDD-8384B51286A2}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1123338.5214327185</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1272991.2875798487</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>830303.1918110298</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1039168.487487243</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1253175.6350106103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1322916.2898060239</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>926142.12684295478</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1197265.1338786411</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1498250.2709373902</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1580909.8792161713</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1093216.5334045053</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1491267.7295733567</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1694109.7517589028</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1723061.0699671546</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1245643.3363963317</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1455317.3038805143</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1882815.081682767</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1645364.4882923481</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1325809.8606717973</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1264421.6814362644</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1736075.2455820376</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1617325.9243026539</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1350110.452085464</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1443236.0473369346</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1846584.1252036071</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1792660.9605717792</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1473677.4358874091</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1191454.5679164268</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1206408.4032813346</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1424626.0911329449</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1145822.0175246021</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1170064.4588821246</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1086718.4232291684</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1265993.0941946835</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>830437.33768950449</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>640005.29977656575</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>776991.1235042616</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>961512.64879649668</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1104262.6703992069</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>890269.61420519697</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1262114.296249239</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1207418.2872541719</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>840887.38790912786</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>872957.26141847752</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1176529.3939874426</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1037899.8738303931</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1017072.7773773728</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>964921.93316926493</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>872206.75642661925</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>953684.67371103424</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>777710.76535637886</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>736667.28493355715</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>836080.68797298404</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>906664.08223530767</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>848828.57612022688</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>903533.4103587633</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1042324.5171701694</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1103730.4187633768</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>880901.3171239763</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>885334.37243010383</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>622742.82550153125</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>503017.31098175643</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>811946.74925483728</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>882523.86215223768</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>931154.5969858102</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>944951.47751272609</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>876236.35255804518</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>893043.76153538655</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1246833.2836188362</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1256280.6634562307</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1067831.674284419</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1143329.9793910398</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>774049.62066820927</v>
+        <v>1215487.805170954</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>879155.68326193106</v>
+        <v>1247763.2882745599</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>783313.59709996183</v>
+        <v>1193322.3195182083</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>942880.04054559371</v>
+        <v>1436873.3549938435</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>962777.4721621864</v>
+        <v>1420879.9228093778</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>1144983.3045774491</v>
+        <v>1376937.1775482178</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>940900.41249388293</v>
+        <v>1337911.417333286</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>951338.81076648133</v>
+        <v>1487738.8331862388</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>898438.59783777187</v>
+        <v>1514438.4598431932</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>1029680.2102070589</v>
+        <v>1615507.8456486624</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>1165623.0114931432</v>
+        <v>1510411.885019019</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>1200017.5465738068</v>
+        <v>1588605.0023830149</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>1101567.3626145632</v>
+        <v>1054753.5546776014</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>1441398.0521946086</v>
+        <v>1104769.9037301457</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>1287205.6602888315</v>
+        <v>1025411.8759773738</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>1373635.2766218903</v>
+        <v>1043261.5184932885</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>1059465.1018414048</v>
+        <v>1105002.8813298126</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>1359038.3493043953</v>
+        <v>1183087.182157279</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>1522177.7063888994</v>
+        <v>1062276.4478864067</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>1350365.1773913954</v>
+        <v>1105135.3941889068</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>1161130.9281515211</v>
+        <v>1092166.2582819413</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>1532582.4054490556</v>
+        <v>1078821.007410571</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>1236146.7349534507</v>
+        <v>1115172.1851976928</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>1615877.5765377402</v>
+        <v>1265548.1160397704</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>1183323.0126313234</v>
+        <v>1157896.7607865781</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>1476526.3598635746</v>
+        <v>1191961.6357325877</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>2003272.8301733413</v>
+        <v>1234955.1010102434</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>2005040.9099544766</v>
+        <v>1348242.6432032504</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9B8AE4-DEEC-4976-BC51-382A430AAECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A15F78-9E46-41EE-9547-10C3F832E09F}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>585669.93277889024</v>
+        <v>1093176.0120639617</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>569071.91156697238</v>
+        <v>1232943.8298973106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>553227.91266210214</v>
+        <v>1349007.2931263861</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>530098.69914250146</v>
+        <v>1424230.6506251937</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>649628.79361317423</v>
+        <v>1441812.648046874</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>658984.4918077417</v>
+        <v>1437730.6186457986</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>657182.40495351946</v>
+        <v>1468779.8269375509</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>666793.13595489203</v>
+        <v>1289471.5938254686</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>701245.75326644792</v>
+        <v>1176822.890526467</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>687878.06398639991</v>
+        <v>1122121.8536180388</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>679969.54920820019</v>
+        <v>1148693.8248845099</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>704943.76149629359</v>
+        <v>1147417.9778327791</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>725898.9629565319</v>
+        <v>1131544.2916713986</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>774940.78945409041</v>
+        <v>1129541.4459564781</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>789698.68640608341</v>
+        <v>1167786.1536948241</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>671314.73136563413</v>
+        <v>940484.45139487274</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>699030.35184687143</v>
+        <v>945079.21311835712</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>763675.3594456861</v>
+        <v>1188792.5776938333</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>839344.01652715635</v>
+        <v>1299203.7920899899</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>881333</v>
+        <v>1399820</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>973967</v>
+        <v>1424009.9999999991</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>1280597.9136599381</v>
+        <v>1528239.4490342401</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>1135435.3605457353</v>
+        <v>1667521.493519417</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>1181153.5382090169</v>
+        <v>1647099.3440524172</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>1271001.8182641407</v>
+        <v>1722584.7630709694</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329647BC-FC7E-4B12-BEAB-44A0A7D0E7F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD36FC39-DCB6-423F-96CE-E57F819A2C36}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>306828.34817878617</v>
+        <v>1379968.898911542</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>298133.06067248934</v>
+        <v>1603935.0715323468</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>289832.18673351943</v>
+        <v>1710405.1897735242</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>277713.63343450398</v>
+        <v>1880688.6560099588</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>340334.85426003649</v>
+        <v>1863257.7212052122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>345235.84711000836</v>
+        <v>1882646.717387649</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>344292.69996038347</v>
+        <v>1936746.4663529445</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>349326.02438077383</v>
+        <v>1684385.909240362</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>367375.70794501575</v>
+        <v>1558651.9574892595</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>360373.08678338432</v>
+        <v>1548873.305533187</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>356229.99978370732</v>
+        <v>1618646.7386973572</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>369313.73011306248</v>
+        <v>1628553.1218274792</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>380292.36052552372</v>
+        <v>1618755.9365143473</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>405984.69533583865</v>
+        <v>1748248.1955008514</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>413717.31102382927</v>
+        <v>1839551.5265594271</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>351696.40997981455</v>
+        <v>1392672.2406138703</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>366216.8578556233</v>
+        <v>1419182.1867027716</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>400084.09016452834</v>
+        <v>1868710.5932604887</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>439726.68382785184</v>
+        <v>2004215.643472495</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>461724</v>
+        <v>2247351</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>428999</v>
+        <v>2615863.0000000005</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>369329.06515547639</v>
+        <v>2498934.5662704892</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>383404.27939192142</v>
+        <v>2627002.8625447378</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>398842.00977375283</v>
+        <v>2594829.9368477538</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>429181.22261329449</v>
+        <v>2713749.1907301131</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D12344B9-9900-45F6-8051-CD70A2C1EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A3AAA4-D719-4BBF-8C52-95798D762893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F11A357F-80FD-40E9-96D1-BA1CAD5D3A88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9F8113E8-8B52-41D8-B7EE-3F9446A604F2}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2" xfId="1" xr:uid="{3F6663EF-AC98-4173-8FD0-DA0EA2AF538B}"/>
+    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{B4D970A3-E723-44EB-A414-3672A9665390}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -323,6 +323,10 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="pro"/>
+      <sheetName val="ind"/>
+      <sheetName val="VA"/>
+      <sheetName val="conso"/>
       <sheetName val="Tables du Contenu"/>
       <sheetName val="Indications"/>
       <sheetName val="MAP"/>
@@ -360,10 +364,6 @@
       <sheetName val="EXT_CALAGE"/>
       <sheetName val="EXT_PREVISION"/>
       <sheetName val="AUI_CNA"/>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
       <sheetName val="AUI_IND"/>
       <sheetName val="AUI_ETALONNAGE"/>
       <sheetName val="AUI_RESIDUS"/>
@@ -1722,19 +1722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4179FE-C357-49CD-8ACB-CAB0043D4509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023D4EE8-379B-42A8-B29D-892CBC7260CD}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B102" sqref="B102:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>2473144.9109755037</v>
+        <v>2858042.4441151237</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>2836878.9014296574</v>
+        <v>3234474.5079740775</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>3059412.4828999103</v>
+        <v>3565093.4883621228</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>3304919.3066351525</v>
+        <v>3529880.4330079281</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>3305070.3692520862</v>
+        <v>3419058.0036565899</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>3320377.3360334476</v>
+        <v>3483015.9777827743</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>3405526.2932904954</v>
+        <v>3447876.9166528936</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>2973857.5030658306</v>
+        <v>3260423.8878553719</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>2735474.8480157265</v>
+        <v>3437118.5208715466</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>2670995.1591512258</v>
+        <v>3592483.8895612396</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>2767340.5635818671</v>
+        <v>3664033.8556317249</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>2775971.0996602583</v>
+        <v>3770294.4123181165</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>2750300.2281857459</v>
+        <v>4019364.5799250421</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>2877789.6414573295</v>
+        <v>4142978.9348825701</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>3007337.6802542512</v>
+        <v>4498682.490473724</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>2333156.6920087431</v>
+        <v>4381460.758833277</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>2364261.3998211287</v>
+        <v>5131718.9554420924</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>3057503.170954322</v>
+        <v>5378021.9417955615</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>3303419.4355624849</v>
+        <v>5722553.4582232181</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>3647171</v>
+        <v>6097117</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>4039872.9999999995</v>
+        <v>6710446</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>4027174.0153047293</v>
+        <v>6780085.1173277302</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>4294524.3560641548</v>
+        <v>7567508.2198896352</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>4241929.280900171</v>
+        <v>7885018.8946692916</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>4436333.9538010824</v>
+        <v>7712467.9359351657</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F64B80-6001-44BE-ADDD-8384B51286A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C198FD7-BDC7-4582-9A4F-A4C2CF60F9FB}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>1123338.5214327185</v>
+        <v>936105.75982185255</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>1272991.2875798487</v>
+        <v>928314.37579718232</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>830303.1918110298</v>
+        <v>932669.06303654052</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>1039168.487487243</v>
+        <v>937023.75027589116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>1253175.6350106103</v>
+        <v>1012244.4912122109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>1322916.2898060239</v>
+        <v>1029987.4107759548</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>926142.12684295478</v>
+        <v>1066009.9648907091</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>1197265.1338786411</v>
+        <v>1117690.1755524143</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>1498250.2709373902</v>
+        <v>1122695.6884051363</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>1580909.8792161713</v>
+        <v>1164527.8223500301</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>1093216.5334045053</v>
+        <v>1185286.8803847947</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>1491267.7295733567</v>
+        <v>1185384.6609280694</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>1694109.7517589028</v>
+        <v>1142475.8593310704</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>1723061.0699671546</v>
+        <v>1138414.8840670069</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>1245643.3363963317</v>
+        <v>1150661.2880954784</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>1455317.3038805143</v>
+        <v>1180336.1719917036</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>1882815.081682767</v>
+        <v>1084249.3612124999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>1645364.4882923481</v>
+        <v>1114894.2239582008</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>1325809.8606717973</v>
+        <v>1132674.5153484996</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>1264421.6814362644</v>
+        <v>1135277.4777463179</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>1736075.2455820376</v>
+        <v>1151487.9784192315</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>1617325.9243026539</v>
+        <v>1139603.8948753451</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>1350110.452085464</v>
+        <v>1131106.8244867884</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>1443236.0473369346</v>
+        <v>1128459.7750324016</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>1846584.1252036071</v>
+        <v>1124606.6865500417</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>1792660.9605717792</v>
+        <v>1127104.6963498918</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>1473677.4358874091</v>
+        <v>1127520.6918648488</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>1191454.5679164268</v>
+        <v>1125516.2250042984</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>1206408.4032813346</v>
+        <v>1060659.6030455015</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>1424626.0911329449</v>
+        <v>1061055.2880089344</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>1145822.0175246021</v>
+        <v>1065499.9892827943</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>1170064.4588821246</v>
+        <v>1072620.7577635364</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>1086718.4232291684</v>
+        <v>1135770.117537596</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>1265993.0941946835</v>
+        <v>1134113.0043248208</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>830437.33768950449</v>
+        <v>1121631.3875612176</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>640005.29977656575</v>
+        <v>1099177.6432509285</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>776991.1235042616</v>
+        <v>1205597.8928211923</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>961512.64879649668</v>
+        <v>1177701.6191501068</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>1104262.6703992069</v>
+        <v>1158954.1335180823</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>890269.61420519697</v>
+        <v>1151427.737185688</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>1262114.296249239</v>
+        <v>1186814.5152755342</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>1207418.2872541719</v>
+        <v>1193422.6170181904</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>840887.38790912786</v>
+        <v>1200653.74433066</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>872957.26141847752</v>
+        <v>1206272.5518997707</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>1176529.3939874426</v>
+        <v>1228429.9151612595</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>1037899.8738303931</v>
+        <v>1230550.1387321956</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>1017072.7773773728</v>
+        <v>1232325.0163338482</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>964921.93316926493</v>
+        <v>1234690.7683964064</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>872206.75642661925</v>
+        <v>1300344.1974023965</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>953684.67371103424</v>
+        <v>1306926.6112458303</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>777710.76535637886</v>
+        <v>1316261.5987988391</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>736667.28493355715</v>
+        <v>1327880.6201230814</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>836080.68797298404</v>
+        <v>1337795.8748758314</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>906664.08223530767</v>
+        <v>1349740.085446263</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>848828.57612022688</v>
+        <v>1359463.9926887949</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>903533.4103587633</v>
+        <v>1365918.7108632801</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>1042324.5171701694</v>
+        <v>1474849.0195391856</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>1103730.4187633768</v>
+        <v>1473138.895730603</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>880901.3171239763</v>
+        <v>1467989.4191516854</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>885334.37243010383</v>
+        <v>1461678.0430899644</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>622742.82550153125</v>
+        <v>1417724.470969155</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>503017.31098175643</v>
+        <v>1420877.1067407792</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>811946.74925483728</v>
+        <v>1432915.5349530273</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>882523.86215223768</v>
+        <v>1452984.7709540613</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>931154.5969858102</v>
+        <v>1644827.0404468474</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>944951.47751272609</v>
+        <v>1669898.0884452055</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>876236.35255804518</v>
+        <v>1688890.5920948051</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>893043.76153538655</v>
+        <v>1701119.6272407076</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>1246833.2836188362</v>
+        <v>1737779.2511036643</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>1256280.6634562307</v>
+        <v>1747416.3848487742</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>1067831.674284419</v>
+        <v>1761462.435642438</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>1143329.9793910398</v>
+        <v>1779879.0653348616</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>1215487.805170954</v>
+        <v>1736877.0942185703</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>1247763.2882745599</v>
+        <v>1961089.3789478329</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>1193322.3195182083</v>
+        <v>1896613.4740806296</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>1436873.3549938435</v>
+        <v>1882097.3194965683</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>1420879.9228093778</v>
+        <v>2121171.2827441031</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>1376937.1775482178</v>
+        <v>2495512.1187999076</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>1337911.417333286</v>
+        <v>2455316.9204027979</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>1487738.8331862388</v>
+        <v>2447788.9241538718</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>1514438.4598431932</v>
+        <v>3301722.7553905826</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>1615507.8456486624</v>
+        <v>3566202.869179457</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>1510411.885019019</v>
+        <v>3438202.2537474823</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>1588605.0023830149</v>
+        <v>3550332.6303950218</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>1054753.5546776014</v>
+        <v>4195514.327750179</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>1104769.9037301457</v>
+        <v>4615164.8825397799</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>1025411.8759773738</v>
+        <v>4354898.6114062462</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>1043261.5184932885</v>
+        <v>4567212.970366247</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>1105002.8813298126</v>
+        <v>4566786.9895859035</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>1183087.182157279</v>
+        <v>4963362.9757220447</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>1062276.4478864067</v>
+        <v>4657293.9943095064</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>1105135.3941889068</v>
+        <v>4942615.2227526931</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>1092166.2582819413</v>
+        <v>4712152.7337034941</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>1078821.007410571</v>
+        <v>5322462.2117269132</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>1115172.1851976928</v>
+        <v>4960914.7125555109</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>1265548.1160397704</v>
+        <v>5283660.3261204222</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>1157896.7607865781</v>
+        <v>4868591.7506114114</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>1191961.6357325877</v>
+        <v>5221195.6109139081</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>1234955.1010102434</v>
+        <v>5332671.5693537202</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>1348242.6432032504</v>
+        <v>5241119.0438278206</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A15F78-9E46-41EE-9547-10C3F832E09F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CBA7BD-EDED-4EC3-836F-236A1521B96C}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B102" sqref="B102:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>1093176.0120639617</v>
+        <v>2562225.4475661786</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>1232943.8298973106</v>
+        <v>2863782.1478410503</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>1349007.2931263861</v>
+        <v>3153812.8913250049</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>1424230.6506251937</v>
+        <v>3137664.4197309664</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>1441812.648046874</v>
+        <v>3055918.5369888828</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>1437730.6186457986</v>
+        <v>3110788.6589754815</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>1468779.8269375509</v>
+        <v>3049067.8519883063</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>1289471.5938254686</v>
+        <v>2897392.4664885229</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>1176822.890526467</v>
+        <v>3070006.6968375552</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>1122121.8536180388</v>
+        <v>3192076.7142887255</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>1148693.8248845099</v>
+        <v>3252327.3959138002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>1147417.9778327791</v>
+        <v>3342581.7169570625</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>1131544.2916713986</v>
+        <v>3563176.2800124534</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>1129541.4459564781</v>
+        <v>3670218.2432412496</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>1167786.1536948241</v>
+        <v>3980843.884667458</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>940484.45139487274</v>
+        <v>3876157.4350609095</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>945079.21311835712</v>
+        <v>4527088.2063578842</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>1188792.5776938333</v>
+        <v>4733631.3963889526</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>1299203.7920899899</v>
+        <v>5027836.750738129</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>1399820</v>
+        <v>5362340</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>1424009.9999999991</v>
+        <v>5862241</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>1528239.4490342401</v>
+        <v>5894482.4807021022</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>1667521.493519417</v>
+        <v>6605721.2271206202</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>1647099.3440524172</v>
+        <v>6882878.111961104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>1722584.7630709694</v>
+        <v>6732257.3927296083</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD36FC39-DCB6-423F-96CE-E57F819A2C36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BED35A-4A85-4B7A-AB56-BB961E2E0F89}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B102" sqref="B102:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>1379968.898911542</v>
+        <v>295816.99654894491</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>1603935.0715323468</v>
+        <v>370692.36013302696</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>1710405.1897735242</v>
+        <v>411280.59703711804</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>1880688.6560099588</v>
+        <v>392216.01327696169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>1863257.7212052122</v>
+        <v>363139.46666770708</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>1882646.717387649</v>
+        <v>372227.31880729255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>1936746.4663529445</v>
+        <v>398809.06466458761</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>1684385.909240362</v>
+        <v>363031.42136684904</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>1558651.9574892595</v>
+        <v>367111.82403399161</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>1548873.305533187</v>
+        <v>400407.17527251417</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>1618646.7386973572</v>
+        <v>411706.45971792488</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>1628553.1218274792</v>
+        <v>427712.69536105386</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>1618755.9365143473</v>
+        <v>456188.29991258855</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>1748248.1955008514</v>
+        <v>472760.6916413203</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>1839551.5265594271</v>
+        <v>517838.6058062659</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>1392672.2406138703</v>
+        <v>505303.32377236773</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>1419182.1867027716</v>
+        <v>604630.74908420851</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>1868710.5932604887</v>
+        <v>644390.54540660861</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>2004215.643472495</v>
+        <v>694716.70748508919</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>2247351</v>
+        <v>734777</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>2615863.0000000005</v>
+        <v>848205</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>2498934.5662704892</v>
+        <v>885602.63662562764</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>2627002.8625447378</v>
+        <v>961786.99276901514</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>2594829.9368477538</v>
+        <v>1002140.7827081879</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>2713749.1907301131</v>
+        <v>980210.54320555739</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A3AAA4-D719-4BBF-8C52-95798D762893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD93F954-0AF3-45E2-B729-33C3ABB0A5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9F8113E8-8B52-41D8-B7EE-3F9446A604F2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{58723F72-1295-4B77-AE40-5AD31EEFE07A}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{B4D970A3-E723-44EB-A414-3672A9665390}"/>
+    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{0F5D0E6E-8CCA-4856-AD88-48EB976AB7E5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1722,19 +1722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023D4EE8-379B-42A8-B29D-892CBC7260CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C468F11-E065-48A5-A283-DEAC99BACE85}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:B113"/>
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>2858042.4441151237</v>
+        <v>337599.23039294971</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>3234474.5079740775</v>
+        <v>362951.61224775022</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>3565093.4883621228</v>
+        <v>420763.40510366077</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>3529880.4330079281</v>
+        <v>465567.04254975641</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>3419058.0036565899</v>
+        <v>453489.69997539261</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>3483015.9777827743</v>
+        <v>460677.98622973036</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>3447876.9166528936</v>
+        <v>461019.05086613767</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>3260423.8878553719</v>
+        <v>451628.46852432966</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>3437118.5208715466</v>
+        <v>443452.94885510672</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>3592483.8895612396</v>
+        <v>445530.54834986478</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>3664033.8556317249</v>
+        <v>473256.60256800201</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>3770294.4123181165</v>
+        <v>488502.65745268983</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>4019364.5799250421</v>
+        <v>566501.38070431782</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>4142978.9348825701</v>
+        <v>557991.36183137295</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>4498682.490473724</v>
+        <v>567088.49908260431</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>4381460.758833277</v>
+        <v>512928.31637944595</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>5131718.9554420924</v>
+        <v>561927.28138269507</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>5378021.9417955615</v>
+        <v>624842.41767691402</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>5722553.4582232181</v>
+        <v>670833.67550894385</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>6097117</v>
+        <v>780135</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>6710446</v>
+        <v>898015</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>6780085.1173277302</v>
+        <v>995874.9786596772</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>7567508.2198896352</v>
+        <v>1006122.1998036421</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>7885018.8946692916</v>
+        <v>1048336.1663152121</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>7712467.9359351657</v>
+        <v>1025395.0151284173</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C198FD7-BDC7-4582-9A4F-A4C2CF60F9FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC2453C-B48D-44BA-8E3B-25D8EDC7D38C}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:B113"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>936105.75982185255</v>
+        <v>413211.22011070466</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>928314.37579718232</v>
+        <v>370293.89622573956</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>932669.06303654052</v>
+        <v>351990.82376866246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>937023.75027589116</v>
+        <v>391149.4417952309</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>1012244.4912122109</v>
+        <v>410608.95664496807</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>1029987.4107759548</v>
+        <v>392913.98064049159</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>1066009.9648907091</v>
+        <v>388809.68591225473</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>1117690.1755524143</v>
+        <v>448957.85618627351</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>1122695.6884051363</v>
+        <v>471293.37803646922</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>1164527.8223500301</v>
+        <v>455317.90897936106</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>1185286.8803847947</v>
+        <v>449884.52878473717</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>1185384.6609280694</v>
+        <v>526223.30037304363</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>1142475.8593310704</v>
+        <v>532918.04767048755</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>1138414.8840670069</v>
+        <v>506558.28820240102</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>1150661.2880954784</v>
+        <v>510417.86876110855</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>1180336.1719917036</v>
+        <v>555429.83489742293</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>1084249.3612124999</v>
+        <v>506745.29963468225</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>1114894.2239582008</v>
+        <v>506267.30208682985</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>1132674.5153484996</v>
+        <v>505841.23790225614</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>1135277.4777463179</v>
+        <v>531855.68184337753</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>1151487.9784192315</v>
+        <v>492920.01441526582</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>1139603.8948753451</v>
+        <v>506027.54263660102</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>1131106.8244867884</v>
+        <v>490676.47100788995</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>1128459.7750324016</v>
+        <v>593591.38508607924</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>1124606.6865500417</v>
+        <v>493332.934580828</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>1127104.6963498918</v>
+        <v>506478.95245021739</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>1127520.6918648488</v>
+        <v>518119.30627533549</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>1125516.2250042984</v>
+        <v>566826.53600971028</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>1060659.6030455015</v>
+        <v>513432.27079214522</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>1061055.2880089344</v>
+        <v>506596.49094508</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>1065499.9892827943</v>
+        <v>495484.87585829542</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>1072620.7577635364</v>
+        <v>526779.27582395379</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>1135770.117537596</v>
+        <v>497096.65052396245</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>1134113.0043248208</v>
+        <v>485441.68499434448</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>1121631.3875612176</v>
+        <v>477981.20719741873</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>1099177.6432509285</v>
+        <v>544803.14617708966</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>1205597.8928211923</v>
+        <v>481062.31012012897</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>1177701.6191501068</v>
+        <v>497343.50856755173</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>1158954.1335180823</v>
+        <v>499218.22058495588</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>1151427.737185688</v>
+        <v>537093.68784470041</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>1186814.5152755342</v>
+        <v>506856.73993156833</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>1193422.6170181904</v>
+        <v>513126.75387143268</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>1200653.74433066</v>
+        <v>508043.02192936128</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>1206272.5518997707</v>
+        <v>612070.20760238287</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>1228429.9151612595</v>
+        <v>489048.41517508513</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>1230550.1387321956</v>
+        <v>509119.92162051989</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>1232325.0163338482</v>
+        <v>557417.65664146538</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>1234690.7683964064</v>
+        <v>653454.36834974203</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>1300344.1974023965</v>
+        <v>603515.40325159091</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>1306926.6112458303</v>
+        <v>625376.92122822965</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>1316261.5987988391</v>
+        <v>637155.73239790439</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>1327880.6201230814</v>
+        <v>695707.53624306025</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>1337795.8748758314</v>
+        <v>633290.68025018054</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>1349740.085446263</v>
+        <v>610449.66476757277</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>1359463.9926887949</v>
+        <v>621609.66835897358</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>1365918.7108632801</v>
+        <v>657922.72835501947</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>1474849.0195391856</v>
+        <v>600703.36325582722</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>1473138.895730603</v>
+        <v>610295.12165164249</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>1467989.4191516854</v>
+        <v>645334.72252770641</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>1461678.0430899644</v>
+        <v>708077.37266468722</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>1417724.470969155</v>
+        <v>598431.70010082272</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>1420877.1067407792</v>
+        <v>586764.8678945438</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>1432915.5349530273</v>
+        <v>551846.33342811931</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>1452984.7709540613</v>
+        <v>582451.85730316024</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>1644827.0404468474</v>
+        <v>589326.40187105082</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>1669898.0884452055</v>
+        <v>606429.89028324082</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>1688890.5920948051</v>
+        <v>619190.59444716328</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>1701119.6272407076</v>
+        <v>656396.54812031344</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>1737779.2511036643</v>
+        <v>648863.67060696986</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>1747416.3848487742</v>
+        <v>668568.04468012624</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>1761462.435642438</v>
+        <v>688299.2292029435</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>1779879.0653348616</v>
+        <v>758400.21436383796</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>1736877.0942185703</v>
+        <v>755186.03399985679</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>1961089.3789478329</v>
+        <v>806334.72610893392</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>1896613.4740806296</v>
+        <v>810088.30736297264</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>1882097.3194965683</v>
+        <v>884308.59401328303</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>2121171.2827441031</v>
+        <v>917904.3291761179</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>2495512.1187999076</v>
+        <v>963848.58719728806</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>2455316.9204027979</v>
+        <v>996713.74927677389</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>2447788.9241538718</v>
+        <v>1121533.3343498204</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>3301722.7553905826</v>
+        <v>1143221.9553929029</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>3566202.869179457</v>
+        <v>1155155.1343545543</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>3438202.2537474823</v>
+        <v>1175350.2343760885</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>3550332.6303950218</v>
+        <v>1290955.0599179533</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>4195514.327750179</v>
+        <v>1328485.0204159489</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>4615164.8825397799</v>
+        <v>1358206.138994155</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>4354898.6114062462</v>
+        <v>1365045.5390068183</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>4567212.970366247</v>
+        <v>1442132.2300571376</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>4566786.9895859035</v>
+        <v>1487433.3372979718</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>4963362.9757220447</v>
+        <v>1492827.7652067312</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>4657293.9943095064</v>
+        <v>1502356.260133937</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>4942615.2227526931</v>
+        <v>1599221.3944183504</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>4712152.7337034941</v>
+        <v>1673718.0049533916</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>5322462.2117269132</v>
+        <v>1654225.4405021081</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>4960914.7125555109</v>
+        <v>1632235.3734587387</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>5283660.3261204222</v>
+        <v>1714193.9940752485</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>4868591.7506114114</v>
+        <v>1709005.7404231201</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>5221195.6109139081</v>
+        <v>1738274.1056583151</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>5332671.5693537202</v>
+        <v>1746707.6879806812</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>5241119.0438278206</v>
+        <v>1813857.5273328633</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CBA7BD-EDED-4EC3-836F-236A1521B96C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892B20C0-B1AD-4D8A-8B07-3BAF73191AD9}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:B113"/>
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>2562225.4475661786</v>
+        <v>219666.52975064269</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>2863782.1478410503</v>
+        <v>226233.87278849859</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>3153812.8913250049</v>
+        <v>269487.32915009349</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>3137664.4197309664</v>
+        <v>318216.23535729747</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>3055918.5369888828</v>
+        <v>303803.44958432484</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>3110788.6589754815</v>
+        <v>310881.08989666821</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>3049067.8519883063</v>
+        <v>314273.33150890877</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>2897392.4664885229</v>
+        <v>307538.79547124112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>3070006.6968375552</v>
+        <v>298688.0028329303</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>3192076.7142887255</v>
+        <v>291757.05317639478</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>3252327.3959138002</v>
+        <v>314528.66793330689</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>3342581.7169570625</v>
+        <v>304430.68325127731</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>3563176.2800124534</v>
+        <v>385194.53497673385</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>3670218.2432412496</v>
+        <v>373728.63191100792</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>3980843.884667458</v>
+        <v>400424.119006016</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>3876157.4350609095</v>
+        <v>330343.07785173308</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>4527088.2063578842</v>
+        <v>358899.04490197846</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>4733631.3963889526</v>
+        <v>406870.96950559388</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>5027836.750738129</v>
+        <v>417347.67550894385</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>5362340</v>
+        <v>444369</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>5862241</v>
+        <v>574016.97518641525</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>5894482.4807021022</v>
+        <v>531669.58281133138</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>6605721.2271206202</v>
+        <v>522440.09323501139</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>6882878.111961104</v>
+        <v>575238.66484719608</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>6732257.3927296083</v>
+        <v>-2464541.7652549576</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BED35A-4A85-4B7A-AB56-BB961E2E0F89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B03117-6E17-46D5-BE09-223D593A545F}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:B113"/>
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>295816.99654894491</v>
+        <v>117932.70064230703</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>370692.36013302696</v>
+        <v>136717.73945925164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>411280.59703711804</v>
+        <v>151276.07595356726</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>392216.01327696169</v>
+        <v>147350.80719245897</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>363139.46666770708</v>
+        <v>149686.25039106773</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>372227.31880729255</v>
+        <v>149796.89633306218</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>398809.06466458761</v>
+        <v>146745.71935722887</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>363031.42136684904</v>
+        <v>144089.67305308857</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>367111.82403399161</v>
+        <v>144764.94602217639</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>400407.17527251417</v>
+        <v>153773.49517346997</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>411706.45971792488</v>
+        <v>158727.93463469512</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>427712.69536105386</v>
+        <v>184071.97420141255</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>456188.29991258855</v>
+        <v>181306.84572758398</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>472760.6916413203</v>
+        <v>184262.729920365</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>517838.6058062659</v>
+        <v>166664.38007658831</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>505303.32377236773</v>
+        <v>182585.23852771285</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>604630.74908420851</v>
+        <v>203028.23648071659</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>644390.54540660861</v>
+        <v>217971.44817132014</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>694716.70748508919</v>
+        <v>253486</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>734777</v>
+        <v>335766</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>848205</v>
+        <v>323998.02481358481</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>885602.63662562764</v>
+        <v>464205.39584834577</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>961786.99276901514</v>
+        <v>483682.10656863073</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>1002140.7827081879</v>
+        <v>473097.50146801601</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>980210.54320555739</v>
+        <v>3489936.780383375</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD93F954-0AF3-45E2-B729-33C3ABB0A5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C4962-5CCD-44B6-B47B-401F980A095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{58723F72-1295-4B77-AE40-5AD31EEFE07A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{58723F72-1295-4B77-AE40-5AD31EEFE07A}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_______________________r" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -64,9 +63,9 @@
     <definedName name="__123Graph_CTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_D" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_DCURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_E" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_E" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_ECURRENT" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_X" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XCAFCAC" hidden="1">[1]export!#REF!</definedName>
@@ -74,38 +73,38 @@
     <definedName name="__123Graph_XTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="_123graph_b" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="_123graph_b" hidden="1">[3]A!#REF!</definedName>
     <definedName name="_12no" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_Fill1" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1">[5]C!$P$428:$T$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1">[4]C!$P$428:$T$428</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_new1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Int" hidden="1">1</definedName>
-    <definedName name="_Regression_Out" hidden="1">[5]C!$AK$18:$AK$18</definedName>
-    <definedName name="_Regression_X" hidden="1">[5]C!$AK$11:$AU$11</definedName>
-    <definedName name="_Regression_Y" hidden="1">[5]C!$AK$10:$AU$10</definedName>
+    <definedName name="_Regression_Out" hidden="1">[4]C!$AK$18:$AK$18</definedName>
+    <definedName name="_Regression_X" hidden="1">[4]C!$AK$11:$AU$11</definedName>
+    <definedName name="_Regression_Y" hidden="1">[4]C!$AK$10:$AU$10</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="ACwvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="ACwvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="awea" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="cashplan" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="CRES" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="CRISa" hidden="1">[7]A!#REF!</definedName>
+    <definedName name="CRISa" hidden="1">[6]A!#REF!</definedName>
     <definedName name="e" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferes1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferges" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="graphe" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="graphe" hidden="1">[2]E!#REF!</definedName>
     <definedName name="kol" hidden="1">#REF!</definedName>
     <definedName name="KONAN" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="kossi" hidden="1">#REF!</definedName>
     <definedName name="new" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="nnnnnnnnnnn" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="pol" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="pol" hidden="1">[3]A!#REF!</definedName>
     <definedName name="popl" hidden="1">#REF!</definedName>
     <definedName name="PROJA" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="q" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -113,7 +112,7 @@
     <definedName name="rtre" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="Rwvu.Print." hidden="1">#N/A</definedName>
     <definedName name="s" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="Swvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="Swvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="tenou" hidden="1">#REF!</definedName>
     <definedName name="tyi" hidden="1">#REF!</definedName>
     <definedName name="wrn.Main._.Economic._.Indicators." hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -317,268 +316,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
-      <sheetName val="Tables du Contenu"/>
-      <sheetName val="Indications"/>
-      <sheetName val="MAP"/>
-      <sheetName val="Data_Eviews"/>
-      <sheetName val="Ind_rel_Prod_CST (2)"/>
-      <sheetName val="Resultats _Reg_Coef"/>
-      <sheetName val="Resultats _Reg_Filted"/>
-      <sheetName val="Resultats _Reg_Resid"/>
-      <sheetName val="Resultats_Ind_Forecast"/>
-      <sheetName val="Data Indicateurs_Trim"/>
-      <sheetName val="AGV_CNA"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Feuil2"/>
-      <sheetName val="AGV_IND"/>
-      <sheetName val="AGV_ETALONNAGE"/>
-      <sheetName val="AGV_RESIDUS"/>
-      <sheetName val="AGV_CALAGE"/>
-      <sheetName val="AVG_PREVISION"/>
-      <sheetName val="AEX_CNA"/>
-      <sheetName val="AEX_IND"/>
-      <sheetName val="AEX_ETALONNAGE"/>
-      <sheetName val="AEX_RESIDUS"/>
-      <sheetName val="AEX_CALAGE"/>
-      <sheetName val="AEX_PREVISION"/>
-      <sheetName val="ELE_CNA"/>
-      <sheetName val="ELE_CALAGE"/>
-      <sheetName val="ELE_PREVISION"/>
-      <sheetName val="SYL_CNA"/>
-      <sheetName val="SYL_CALAGE"/>
-      <sheetName val="SYL_PREVISION"/>
-      <sheetName val="EXT_CNA"/>
-      <sheetName val="EXT_IND"/>
-      <sheetName val="EXT_ETALONNAGE"/>
-      <sheetName val="EXT_RESIDUS"/>
-      <sheetName val="EXT_CALAGE"/>
-      <sheetName val="EXT_PREVISION"/>
-      <sheetName val="AUI_CNA"/>
-      <sheetName val="AUI_IND"/>
-      <sheetName val="AUI_ETALONNAGE"/>
-      <sheetName val="AUI_RESIDUS"/>
-      <sheetName val="AUI_CALAGE"/>
-      <sheetName val="AUI_PREVISION"/>
-      <sheetName val="RAF_CNA"/>
-      <sheetName val="RAF_IND"/>
-      <sheetName val="RAF_ETALONNAGE"/>
-      <sheetName val="RAF_RESIDUS"/>
-      <sheetName val="RAF_CALAGE"/>
-      <sheetName val="RAF_PREVISION"/>
-      <sheetName val="ENE_CNA"/>
-      <sheetName val="ENE_IND"/>
-      <sheetName val="ENE_ETALONNAGE"/>
-      <sheetName val="ENE_RESIDUS"/>
-      <sheetName val="ENE_CALAGE"/>
-      <sheetName val="ENE_PREVISION"/>
-      <sheetName val="IAA_CNA"/>
-      <sheetName val="IAA_IND"/>
-      <sheetName val="IAA_ETALONNAGE"/>
-      <sheetName val="IAA_RESIDUS"/>
-      <sheetName val="IAA_CALAGE"/>
-      <sheetName val="IAA_PREVISION"/>
-      <sheetName val="BFA_CNA"/>
-      <sheetName val="BFA_IND"/>
-      <sheetName val="BFA_ETALONNAGE"/>
-      <sheetName val="BFA_RESIDUS"/>
-      <sheetName val="BFA_CALAGE"/>
-      <sheetName val="BFA_PREVISION"/>
-      <sheetName val="BTP_CNA"/>
-      <sheetName val="BTP_IND"/>
-      <sheetName val="BTP_ETALONNAGE"/>
-      <sheetName val="BTP_RESIDUS"/>
-      <sheetName val="BTP_CALAGE"/>
-      <sheetName val="BTP_PREVISION"/>
-      <sheetName val="COM_CNA"/>
-      <sheetName val="COM_IND"/>
-      <sheetName val="COM_ETALONNAGE"/>
-      <sheetName val="COM_RESIDUS"/>
-      <sheetName val="COM_CALAGE"/>
-      <sheetName val="COM_PREVISION"/>
-      <sheetName val="HOT_CNA"/>
-      <sheetName val="HOT_IND"/>
-      <sheetName val="HOT_ETALONNAGE"/>
-      <sheetName val="HOT_RESIDUS"/>
-      <sheetName val="HOT_CALAGE"/>
-      <sheetName val="HOT_PREVISION"/>
-      <sheetName val="TEL_CNA"/>
-      <sheetName val="TEL_IND"/>
-      <sheetName val="TEL_ETALONNAGE"/>
-      <sheetName val="TEL_RESIDUS"/>
-      <sheetName val="TEL_CALAGE"/>
-      <sheetName val="TEL_PREVISION"/>
-      <sheetName val="TRA_CNA"/>
-      <sheetName val="TRA_IND"/>
-      <sheetName val="TRA_ETALONNAGE"/>
-      <sheetName val="TRA_RESIDUS"/>
-      <sheetName val="TRA_CALAGE"/>
-      <sheetName val="TRA_PREVISION"/>
-      <sheetName val="AUS_CNA"/>
-      <sheetName val="AUS_IND"/>
-      <sheetName val="AUS_ETALONNAGE"/>
-      <sheetName val="AUS_RESIDUS"/>
-      <sheetName val="AUS_CALAGE"/>
-      <sheetName val="AUS_PREVISION"/>
-      <sheetName val="APU_CNA"/>
-      <sheetName val="APU_IND"/>
-      <sheetName val="APU_ETALONNAGE"/>
-      <sheetName val="APU_RESIDUS"/>
-      <sheetName val="APU_CALAGE"/>
-      <sheetName val="APU_PREVISION"/>
-      <sheetName val="DTX_CNA"/>
-      <sheetName val="DTX_IND"/>
-      <sheetName val="DTX_ETALONNAGE"/>
-      <sheetName val="DTX_RESIDUS"/>
-      <sheetName val="DTX_CALAGE"/>
-      <sheetName val="DTX_PREVISION"/>
-      <sheetName val="FRANCS CST_2015_op1"/>
-      <sheetName val="FRANCS CST_2015_op2"/>
-      <sheetName val="Option"/>
-      <sheetName val="FRANCS CST_2015"/>
-      <sheetName val="FRANCS CST_2015_Croissance"/>
-      <sheetName val="FRANCS CST_2015_Contributions"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -791,7 +528,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -912,7 +649,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1212,7 +949,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1275,7 +1012,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1728,7 +1465,7 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
@@ -2783,7 +2520,7 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
@@ -2803,7 +2540,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>219666.52975064269</v>
+        <v>227905.20525118045</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2549,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>226233.87278849859</v>
+        <v>245018.91160544319</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2558,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>269487.32915009349</v>
+        <v>284045.66564440913</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2567,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>318216.23535729747</v>
+        <v>314290.96659618919</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2576,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>303803.44958432484</v>
+        <v>306138.89278293366</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2585,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>310881.08989666821</v>
+        <v>310991.7358386626</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2594,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>314273.33150890877</v>
+        <v>311222.15453307552</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2603,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>307538.79547124112</v>
+        <v>304882.74916710076</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2612,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>298688.0028329303</v>
+        <v>299363.27580201812</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2621,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>291757.05317639478</v>
+        <v>300765.60232768836</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2630,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>314528.66793330689</v>
+        <v>319483.10739453207</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2639,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>304430.68325127731</v>
+        <v>329774.72281799471</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2648,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>385194.53497673385</v>
+        <v>382429.4065029053</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2657,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>373728.63191100792</v>
+        <v>376684.51610378898</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2666,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>400424.119006016</v>
+        <v>382825.76916223927</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2675,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>330343.07785173308</v>
+        <v>346263.93630285765</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2684,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>358899.04490197846</v>
+        <v>379342.0428549822</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2693,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>406870.96950559388</v>
+        <v>421814.1811961974</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2702,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>417347.67550894385</v>
+        <v>452862.22733762371</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2711,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>444369</v>
+        <v>526649</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2720,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>574016.97518641525</v>
+        <v>562249</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2729,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>531669.58281133138</v>
+        <v>671876.95384609234</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +2738,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>522440.09323501139</v>
+        <v>541916.80395529629</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +2747,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>575238.66484719608</v>
+        <v>564654.05974658136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +2756,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>-2464541.7652549576</v>
+        <v>552297.51366040134</v>
       </c>
     </row>
   </sheetData>
@@ -3035,7 +2772,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +2790,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>117932.70064230703</v>
+        <v>109694.02514176925</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +2798,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>136717.73945925164</v>
+        <v>117932.70064230703</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +2806,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>151276.07595356726</v>
+        <v>136717.73945925164</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +2814,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>147350.80719245897</v>
+        <v>151276.07595356726</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +2822,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>149686.25039106773</v>
+        <v>147350.80719245897</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +2830,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>149796.89633306218</v>
+        <v>149686.25039106773</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +2838,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>146745.71935722887</v>
+        <v>149796.89633306218</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +2846,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>144089.67305308857</v>
+        <v>146745.71935722887</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +2854,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>144764.94602217639</v>
+        <v>144089.67305308857</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +2862,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>153773.49517346997</v>
+        <v>144764.94602217639</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +2870,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>158727.93463469512</v>
+        <v>153773.49517346997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +2878,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>184071.97420141255</v>
+        <v>158727.93463469512</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +2886,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>181306.84572758398</v>
+        <v>184071.97420141255</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +2894,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>184262.729920365</v>
+        <v>181306.84572758398</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +2902,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>166664.38007658831</v>
+        <v>184262.729920365</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +2910,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>182585.23852771285</v>
+        <v>166664.38007658831</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +2918,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>203028.23648071659</v>
+        <v>182585.23852771285</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +2926,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>217971.44817132014</v>
+        <v>203028.23648071659</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +2934,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>253486</v>
+        <v>217971.44817132014</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +2942,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>335766</v>
+        <v>253486</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +2950,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>323998.02481358481</v>
+        <v>335766</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +2958,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>464205.39584834577</v>
+        <v>323998.02481358481</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +2966,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>483682.10656863073</v>
+        <v>464205.39584834577</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +2974,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>473097.50146801601</v>
+        <v>483682.10656863073</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +2982,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>3489936.780383375</v>
+        <v>473097.50146801601</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C4962-5CCD-44B6-B47B-401F980A095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B8EB1B-CAA9-4FD8-82AD-CFA18969337B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{58723F72-1295-4B77-AE40-5AD31EEFE07A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EF96BC07-83CF-4C71-96CF-648968799654}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_______________________r" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -63,9 +64,9 @@
     <definedName name="__123Graph_CTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_D" hidden="1">[2]E!#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">[3]E!#REF!</definedName>
     <definedName name="__123Graph_DCURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_E" hidden="1">[2]E!#REF!</definedName>
+    <definedName name="__123Graph_E" hidden="1">[3]E!#REF!</definedName>
     <definedName name="__123Graph_ECURRENT" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_X" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XCAFCAC" hidden="1">[1]export!#REF!</definedName>
@@ -73,38 +74,38 @@
     <definedName name="__123Graph_XTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="_123graph_b" hidden="1">[3]A!#REF!</definedName>
+    <definedName name="_123graph_b" hidden="1">[4]A!#REF!</definedName>
     <definedName name="_12no" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_Fill1" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1">[4]C!$P$428:$T$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1">[5]C!$P$428:$T$428</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_new1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Int" hidden="1">1</definedName>
-    <definedName name="_Regression_Out" hidden="1">[4]C!$AK$18:$AK$18</definedName>
-    <definedName name="_Regression_X" hidden="1">[4]C!$AK$11:$AU$11</definedName>
-    <definedName name="_Regression_Y" hidden="1">[4]C!$AK$10:$AU$10</definedName>
+    <definedName name="_Regression_Out" hidden="1">[5]C!$AK$18:$AK$18</definedName>
+    <definedName name="_Regression_X" hidden="1">[5]C!$AK$11:$AU$11</definedName>
+    <definedName name="_Regression_Y" hidden="1">[5]C!$AK$10:$AU$10</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="ACwvu.Print." hidden="1">[5]Med!#REF!</definedName>
+    <definedName name="ACwvu.Print." hidden="1">[6]Med!#REF!</definedName>
     <definedName name="awea" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="cashplan" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="CRES" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="CRISa" hidden="1">[6]A!#REF!</definedName>
+    <definedName name="CRISa" hidden="1">[7]A!#REF!</definedName>
     <definedName name="e" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferes1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferges" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="graphe" hidden="1">[2]E!#REF!</definedName>
+    <definedName name="graphe" hidden="1">[3]E!#REF!</definedName>
     <definedName name="kol" hidden="1">#REF!</definedName>
     <definedName name="KONAN" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="kossi" hidden="1">#REF!</definedName>
     <definedName name="new" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="nnnnnnnnnnn" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="pol" hidden="1">[3]A!#REF!</definedName>
+    <definedName name="pol" hidden="1">[4]A!#REF!</definedName>
     <definedName name="popl" hidden="1">#REF!</definedName>
     <definedName name="PROJA" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="q" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -112,7 +113,7 @@
     <definedName name="rtre" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="Rwvu.Print." hidden="1">#N/A</definedName>
     <definedName name="s" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="Swvu.Print." hidden="1">[5]Med!#REF!</definedName>
+    <definedName name="Swvu.Print." hidden="1">[6]Med!#REF!</definedName>
     <definedName name="tenou" hidden="1">#REF!</definedName>
     <definedName name="tyi" hidden="1">#REF!</definedName>
     <definedName name="wrn.Main._.Economic._.Indicators." hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -240,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{0F5D0E6E-8CCA-4856-AD88-48EB976AB7E5}"/>
+    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{EF494BE7-451B-40BB-AE9B-D2C548A5C9F5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -316,6 +317,268 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="pro"/>
+      <sheetName val="ind"/>
+      <sheetName val="VA"/>
+      <sheetName val="conso"/>
+      <sheetName val="Tables du Contenu"/>
+      <sheetName val="Indications"/>
+      <sheetName val="MAP"/>
+      <sheetName val="Data_Eviews"/>
+      <sheetName val="Ind_rel_Prod_CST (2)"/>
+      <sheetName val="Resultats _Reg_Coef"/>
+      <sheetName val="Resultats _Reg_Filted"/>
+      <sheetName val="Resultats _Reg_Resid"/>
+      <sheetName val="Resultats_Ind_Forecast"/>
+      <sheetName val="Data Indicateurs_Trim"/>
+      <sheetName val="AGV_CNA"/>
+      <sheetName val="Feuil1"/>
+      <sheetName val="Feuil2"/>
+      <sheetName val="AGV_IND"/>
+      <sheetName val="AGV_ETALONNAGE"/>
+      <sheetName val="AGV_RESIDUS"/>
+      <sheetName val="AGV_CALAGE"/>
+      <sheetName val="AVG_PREVISION"/>
+      <sheetName val="AEX_CNA"/>
+      <sheetName val="AEX_IND"/>
+      <sheetName val="AEX_ETALONNAGE"/>
+      <sheetName val="AEX_RESIDUS"/>
+      <sheetName val="AEX_CALAGE"/>
+      <sheetName val="AEX_PREVISION"/>
+      <sheetName val="ELE_CNA"/>
+      <sheetName val="ELE_CALAGE"/>
+      <sheetName val="ELE_PREVISION"/>
+      <sheetName val="SYL_CNA"/>
+      <sheetName val="SYL_CALAGE"/>
+      <sheetName val="SYL_PREVISION"/>
+      <sheetName val="EXT_CNA"/>
+      <sheetName val="EXT_IND"/>
+      <sheetName val="EXT_ETALONNAGE"/>
+      <sheetName val="EXT_RESIDUS"/>
+      <sheetName val="EXT_CALAGE"/>
+      <sheetName val="EXT_PREVISION"/>
+      <sheetName val="AUI_CNA"/>
+      <sheetName val="AUI_IND"/>
+      <sheetName val="AUI_ETALONNAGE"/>
+      <sheetName val="AUI_RESIDUS"/>
+      <sheetName val="AUI_CALAGE"/>
+      <sheetName val="AUI_PREVISION"/>
+      <sheetName val="RAF_CNA"/>
+      <sheetName val="RAF_IND"/>
+      <sheetName val="RAF_ETALONNAGE"/>
+      <sheetName val="RAF_RESIDUS"/>
+      <sheetName val="RAF_CALAGE"/>
+      <sheetName val="RAF_PREVISION"/>
+      <sheetName val="ENE_CNA"/>
+      <sheetName val="ENE_IND"/>
+      <sheetName val="ENE_ETALONNAGE"/>
+      <sheetName val="ENE_RESIDUS"/>
+      <sheetName val="ENE_CALAGE"/>
+      <sheetName val="ENE_PREVISION"/>
+      <sheetName val="IAA_CNA"/>
+      <sheetName val="IAA_IND"/>
+      <sheetName val="IAA_ETALONNAGE"/>
+      <sheetName val="IAA_RESIDUS"/>
+      <sheetName val="IAA_CALAGE"/>
+      <sheetName val="IAA_PREVISION"/>
+      <sheetName val="BFA_CNA"/>
+      <sheetName val="BFA_IND"/>
+      <sheetName val="BFA_ETALONNAGE"/>
+      <sheetName val="BFA_RESIDUS"/>
+      <sheetName val="BFA_CALAGE"/>
+      <sheetName val="BFA_PREVISION"/>
+      <sheetName val="BTP_CNA"/>
+      <sheetName val="BTP_IND"/>
+      <sheetName val="BTP_ETALONNAGE"/>
+      <sheetName val="BTP_RESIDUS"/>
+      <sheetName val="BTP_CALAGE"/>
+      <sheetName val="BTP_PREVISION"/>
+      <sheetName val="COM_CNA"/>
+      <sheetName val="COM_IND"/>
+      <sheetName val="COM_ETALONNAGE"/>
+      <sheetName val="COM_RESIDUS"/>
+      <sheetName val="COM_CALAGE"/>
+      <sheetName val="COM_PREVISION"/>
+      <sheetName val="HOT_CNA"/>
+      <sheetName val="HOT_IND"/>
+      <sheetName val="HOT_ETALONNAGE"/>
+      <sheetName val="HOT_RESIDUS"/>
+      <sheetName val="HOT_CALAGE"/>
+      <sheetName val="HOT_PREVISION"/>
+      <sheetName val="TEL_CNA"/>
+      <sheetName val="TEL_IND"/>
+      <sheetName val="TEL_ETALONNAGE"/>
+      <sheetName val="TEL_RESIDUS"/>
+      <sheetName val="TEL_CALAGE"/>
+      <sheetName val="TEL_PREVISION"/>
+      <sheetName val="TRA_CNA"/>
+      <sheetName val="TRA_IND"/>
+      <sheetName val="TRA_ETALONNAGE"/>
+      <sheetName val="TRA_RESIDUS"/>
+      <sheetName val="TRA_CALAGE"/>
+      <sheetName val="TRA_PREVISION"/>
+      <sheetName val="AUS_CNA"/>
+      <sheetName val="AUS_IND"/>
+      <sheetName val="AUS_ETALONNAGE"/>
+      <sheetName val="AUS_RESIDUS"/>
+      <sheetName val="AUS_CALAGE"/>
+      <sheetName val="AUS_PREVISION"/>
+      <sheetName val="APU_CNA"/>
+      <sheetName val="APU_IND"/>
+      <sheetName val="APU_ETALONNAGE"/>
+      <sheetName val="APU_RESIDUS"/>
+      <sheetName val="APU_CALAGE"/>
+      <sheetName val="APU_PREVISION"/>
+      <sheetName val="DTX_CNA"/>
+      <sheetName val="DTX_IND"/>
+      <sheetName val="DTX_ETALONNAGE"/>
+      <sheetName val="DTX_RESIDUS"/>
+      <sheetName val="DTX_CALAGE"/>
+      <sheetName val="DTX_PREVISION"/>
+      <sheetName val="FRANCS CST_2015_op1"/>
+      <sheetName val="FRANCS CST_2015_op2"/>
+      <sheetName val="Option"/>
+      <sheetName val="FRANCS CST_2015"/>
+      <sheetName val="FRANCS CST_2015_Croissance"/>
+      <sheetName val="FRANCS CST_2015_Contributions"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+      <sheetData sheetId="85"/>
+      <sheetData sheetId="86"/>
+      <sheetData sheetId="87"/>
+      <sheetData sheetId="88"/>
+      <sheetData sheetId="89"/>
+      <sheetData sheetId="90"/>
+      <sheetData sheetId="91"/>
+      <sheetData sheetId="92"/>
+      <sheetData sheetId="93"/>
+      <sheetData sheetId="94"/>
+      <sheetData sheetId="95"/>
+      <sheetData sheetId="96"/>
+      <sheetData sheetId="97"/>
+      <sheetData sheetId="98"/>
+      <sheetData sheetId="99"/>
+      <sheetData sheetId="100"/>
+      <sheetData sheetId="101"/>
+      <sheetData sheetId="102"/>
+      <sheetData sheetId="103"/>
+      <sheetData sheetId="104"/>
+      <sheetData sheetId="105"/>
+      <sheetData sheetId="106"/>
+      <sheetData sheetId="107"/>
+      <sheetData sheetId="108"/>
+      <sheetData sheetId="109"/>
+      <sheetData sheetId="110"/>
+      <sheetData sheetId="111"/>
+      <sheetData sheetId="112"/>
+      <sheetData sheetId="113"/>
+      <sheetData sheetId="114"/>
+      <sheetData sheetId="115"/>
+      <sheetData sheetId="116"/>
+      <sheetData sheetId="117"/>
+      <sheetData sheetId="118"/>
+      <sheetData sheetId="119"/>
+      <sheetData sheetId="120"/>
+      <sheetData sheetId="121"/>
+      <sheetData sheetId="122"/>
+      <sheetData sheetId="123"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -528,7 +791,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -649,7 +912,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -949,7 +1212,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1012,7 +1275,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1459,19 +1722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C468F11-E065-48A5-A283-DEAC99BACE85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F93207-D0DE-4EB9-8943-863CC6A355BA}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>337599.23039294971</v>
+        <v>5757204.42518376</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1495,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>362951.61224775022</v>
+        <v>5474195.5655402998</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1503,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>420763.40510366077</v>
+        <v>5720925.0319296652</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1511,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>465567.04254975641</v>
+        <v>6066031.4908388853</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1519,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>453489.69997539261</v>
+        <v>5549876.1278222902</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1527,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>460677.98622973036</v>
+        <v>5347076.173052053</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1535,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>461019.05086613767</v>
+        <v>5093605.7214157283</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1543,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>451628.46852432966</v>
+        <v>4443302.1668255301</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1551,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>443452.94885510672</v>
+        <v>4859429.6174317189</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1559,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>445530.54834986478</v>
+        <v>4956218.0067407889</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1567,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>473256.60256800201</v>
+        <v>4875524.6508705746</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1575,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>488502.65745268983</v>
+        <v>4639010.5305075273</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1583,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>566501.38070431782</v>
+        <v>4646467.1623421349</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1591,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>557991.36183137295</v>
+        <v>5128224.7418563347</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1599,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>567088.49908260431</v>
+        <v>5436748.1691376297</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1607,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>512928.31637944595</v>
+        <v>5171681.0467257984</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1615,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>561927.28138269507</v>
+        <v>6140549.7870343346</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1623,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>624842.41767691402</v>
+        <v>6612581.0952871703</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1631,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>670833.67550894385</v>
+        <v>7344950.4804429114</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1639,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>780135</v>
+        <v>7477710</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1647,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>898015</v>
+        <v>7946350</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1655,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>995874.9786596772</v>
+        <v>8698557.8561877236</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1663,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>1006122.1998036421</v>
+        <v>9868150.2345123347</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1671,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>1048336.1663152121</v>
+        <v>10349411.1654146</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1679,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>1025395.0151284173</v>
+        <v>10089763.786913153</v>
       </c>
     </row>
   </sheetData>
@@ -1688,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC2453C-B48D-44BA-8E3B-25D8EDC7D38C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E264818-B9B3-4E9A-8A08-0E1B869B5857}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1713,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>413211.22011070466</v>
+        <v>110.88270484554977</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1721,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>370293.89622573956</v>
+        <v>105.89059471901635</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>351990.82376866246</v>
+        <v>102.37862506126639</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1737,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>391149.4417952309</v>
+        <v>161.63470314676968</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1745,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>410608.95664496807</v>
+        <v>105.4320059411905</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>392913.98064049159</v>
+        <v>100.6852946731629</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>388809.68591225473</v>
+        <v>97.345964104550475</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1769,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>448957.85618627351</v>
+        <v>153.68917096863854</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1777,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>471293.37803646922</v>
+        <v>110.183970363138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>455317.90897936106</v>
+        <v>105.22331833902248</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>449884.52878473717</v>
+        <v>101.73347958351262</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>526223.30037304363</v>
+        <v>160.61615168916993</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1809,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>532918.04767048755</v>
+        <v>106.9074948266841</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>506558.28820240102</v>
+        <v>111.26668320766107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1825,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>510417.86876110855</v>
+        <v>104.25016470892207</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1833,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>555429.83489742293</v>
+        <v>114.95833468701943</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1841,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>506745.29963468225</v>
+        <v>105.30576676325209</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1849,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>506267.30208682985</v>
+        <v>100.7020231156873</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1857,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>505841.23790225614</v>
+        <v>95.316850663619519</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1865,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>531855.68184337753</v>
+        <v>101.22988836644618</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1873,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>492920.01441526582</v>
+        <v>106.94101798760872</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1881,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>506027.54263660102</v>
+        <v>113.82392962208158</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1889,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>490676.47100788995</v>
+        <v>115.52119164904492</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1897,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>593591.38508607924</v>
+        <v>123.3139505822282</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>493332.934580828</v>
+        <v>110.59933179186326</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1913,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>506478.95245021739</v>
+        <v>105.93326024399906</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1921,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>518119.30627533549</v>
+        <v>104.2493379627183</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>566826.53600971028</v>
+        <v>101.67701579589966</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>513432.27079214522</v>
+        <v>97.825856096086696</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>506596.49094508</v>
+        <v>98.314238000767858</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>495484.87585829542</v>
+        <v>95.788763512241459</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1961,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>526779.27582395379</v>
+        <v>107.22650310100215</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>497096.65052396245</v>
+        <v>101.67930083228798</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>485441.68499434448</v>
+        <v>99.253415968046284</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>477981.20719741873</v>
+        <v>97.548659458502726</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>544803.14617708966</v>
+        <v>98.261401570298545</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>481062.31012012897</v>
+        <v>95.681687195208511</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2009,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>497343.50856755173</v>
+        <v>95.165746957869843</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>499218.22058495588</v>
+        <v>98.819853679257832</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>537093.68784470041</v>
+        <v>104.61479490729513</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>506856.73993156833</v>
+        <v>99.520220108478497</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>513126.75387143268</v>
+        <v>105.31882371913512</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>508043.02192936128</v>
+        <v>104.27372655674934</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>612070.20760238287</v>
+        <v>110.00490454402623</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2065,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>489048.41517508513</v>
+        <v>112.72614522310162</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>509119.92162051989</v>
+        <v>108.7480480385009</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>557417.65664146538</v>
+        <v>106.16081546096096</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2089,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>653454.36834974203</v>
+        <v>119.34123508677727</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>603515.40325159091</v>
+        <v>120.24392566268186</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2105,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>625376.92122822965</v>
+        <v>124.56077256605113</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>637155.73239790439</v>
+        <v>130.93263807996968</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2121,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>695707.53624306025</v>
+        <v>138.34139509484086</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2129,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>633290.68025018054</v>
+        <v>120.75194701463552</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2137,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>610449.66476757277</v>
+        <v>122.47173987594401</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2145,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>621609.66835897358</v>
+        <v>128.36922249203349</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2153,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>657922.72835501947</v>
+        <v>142.38697618990386</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2161,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>600703.36325582722</v>
+        <v>132.93951830170624</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2169,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>610295.12165164249</v>
+        <v>138.65758147701541</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2177,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>645334.72252770641</v>
+        <v>137.39687635305214</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2185,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>708077.37266468722</v>
+        <v>135.56264925367381</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>598431.70010082272</v>
+        <v>112.52639095921172</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2201,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>586764.8678945438</v>
+        <v>104.77728334956889</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2209,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>551846.33342811931</v>
+        <v>134.64675933439818</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2217,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>582451.85730316024</v>
+        <v>154.51450010458035</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>589326.40187105082</v>
+        <v>162.50819799876845</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>606429.89028324082</v>
+        <v>172.20904919287423</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>619190.59444716328</v>
+        <v>168.16381968438665</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>656396.54812031344</v>
+        <v>180.1102970249527</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>648863.67060696986</v>
+        <v>181.08012734230567</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2265,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>668568.04468012624</v>
+        <v>189.82519905170818</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2273,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>688299.2292029435</v>
+        <v>191.76100689195155</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2281,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>758400.21436383796</v>
+        <v>209.27917161875851</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2289,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>755186.03399985679</v>
+        <v>204.3333586717344</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2297,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>806334.72610893392</v>
+        <v>218.73567656920747</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2305,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>810088.30736297264</v>
+        <v>222.82016453809038</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2313,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>884308.59401328303</v>
+        <v>219.65215490212609</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2321,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>917904.3291761179</v>
+        <v>216.06598817818102</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2329,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>963848.58719728806</v>
+        <v>232.38700023428802</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2337,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>996713.74927677389</v>
+        <v>231.27856009403462</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>1121533.3343498204</v>
+        <v>236.01139676649876</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>1143221.9553929029</v>
+        <v>226.19306279401144</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>1155155.1343545543</v>
+        <v>225.5231197097944</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>1175350.2343760885</v>
+        <v>221.97744221277432</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>1290955.0599179533</v>
+        <v>231.53406874265573</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>1328485.0204159489</v>
+        <v>284.2916475625974</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2393,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>1358206.138994155</v>
+        <v>273.20660413206139</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>1365045.5390068183</v>
+        <v>273.02559828081331</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>1442132.2300571376</v>
+        <v>277.50920993249946</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>1487433.3372979718</v>
+        <v>284.33979607839058</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>1492827.7652067312</v>
+        <v>253.66952260104742</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>1502356.260133937</v>
+        <v>269.99171907527733</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>1599221.3944183504</v>
+        <v>268.54264500705227</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>1673718.0049533916</v>
+        <v>318.09095358390562</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>1654225.4405021081</v>
+        <v>266.83372862018734</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2465,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>1632235.3734587387</v>
+        <v>298.30351576390376</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>1714193.9940752485</v>
+        <v>289.31211298597378</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>1709005.7404231201</v>
+        <v>350.09886977583034</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>1738274.1056583151</v>
+        <v>277.36894830514603</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>1746707.6879806812</v>
+        <v>324.15937671869085</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2505,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>1813857.5273328633</v>
+        <v>308.41919309371241</v>
       </c>
     </row>
   </sheetData>
@@ -2514,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892B20C0-B1AD-4D8A-8B07-3BAF73191AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5A897-07D6-4801-8CCD-33959F874B83}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2540,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>227905.20525118045</v>
+        <v>2923643.0022970745</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>245018.91160544319</v>
+        <v>2779926.8229126702</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2558,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>284045.66564440913</v>
+        <v>2905218.8065582039</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2567,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>314290.96659618919</v>
+        <v>3080473.620908082</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>306138.89278293366</v>
+        <v>2818358.2290751208</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2585,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>310991.7358386626</v>
+        <v>2715368.6983037135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2594,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>311222.15453307552</v>
+        <v>2586653.5061203423</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2603,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>304882.74916710076</v>
+        <v>2256412.8702432956</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>299363.27580201812</v>
+        <v>2467733.7553332825</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>300765.60232768836</v>
+        <v>2516884.8238905002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>319483.10739453207</v>
+        <v>2475909.3652296141</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2639,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>329774.72281799471</v>
+        <v>2355799.6917045368</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>382429.4065029053</v>
+        <v>2359585.2712746193</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>376684.51610378898</v>
+        <v>2604231.516686731</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2666,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>382825.76916223927</v>
+        <v>2760904.5103606037</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2675,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>346263.93630285765</v>
+        <v>2626296.0894885785</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>379342.0428549822</v>
+        <v>3118309.7316730549</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>421814.1811961974</v>
+        <v>3358018.3449649359</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>452862.22733762371</v>
+        <v>3729930.7323515434</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2711,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>526649</v>
+        <v>3797350</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>562249</v>
+        <v>4327182</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2729,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>671876.95384609234</v>
+        <v>4864766.9958466217</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2738,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>541916.80395529629</v>
+        <v>5574304.3396454221</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2747,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>564654.05974658136</v>
+        <v>5846158.2161954641</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>552297.51366040134</v>
+        <v>5699489.0356132342</v>
       </c>
     </row>
   </sheetData>
@@ -2765,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B03117-6E17-46D5-BE09-223D593A545F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56B073A-A5C9-4D03-9D74-5F03332C67A4}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2790,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>109694.02514176925</v>
+        <v>2833561.4228866855</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>117932.70064230703</v>
+        <v>2694268.7426276295</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2806,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>136717.73945925164</v>
+        <v>2815706.2253714614</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>151276.07595356726</v>
+        <v>2985557.8699308033</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>147350.80719245897</v>
+        <v>2731517.8987471694</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>149686.25039106773</v>
+        <v>2631707.4747483395</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>149796.89633306218</v>
+        <v>2506952.215295386</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2846,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>146745.71935722887</v>
+        <v>2186889.2965822346</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>144089.67305308857</v>
+        <v>2391695.8620984363</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2862,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>144764.94602217639</v>
+        <v>2439333.1828502887</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2870,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>153773.49517346997</v>
+        <v>2399615.2856409606</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2878,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>158727.93463469512</v>
+        <v>2283210.8388029905</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>184071.97420141255</v>
+        <v>2286881.8910675156</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>181306.84572758398</v>
+        <v>2523993.2251696037</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>184262.729920365</v>
+        <v>2675843.658777026</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>166664.38007658831</v>
+        <v>2545384.9572372199</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>182585.23852771285</v>
+        <v>3022240.0553612798</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2926,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>203028.23648071659</v>
+        <v>3254562.7503222344</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2934,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>217971.44817132014</v>
+        <v>3615019.748091368</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>253486</v>
+        <v>3680360</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2950,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>335766</v>
+        <v>3619168</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>323998.02481358481</v>
+        <v>3833790.8603411024</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2966,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>464205.39584834577</v>
+        <v>4293845.8948669126</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>483682.10656863073</v>
+        <v>4503252.9492191356</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>473097.50146801601</v>
+        <v>4390274.7512999186</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B8EB1B-CAA9-4FD8-82AD-CFA18969337B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE97AEDD-AF4A-4D65-BF6D-8FBD97C2DE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EF96BC07-83CF-4C71-96CF-648968799654}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{13E94AF9-5B55-4126-B739-9D0F43F2A533}"/>
   </bookViews>
   <sheets>
-    <sheet name="pro" sheetId="1" r:id="rId1"/>
-    <sheet name="ind" sheetId="2" r:id="rId2"/>
-    <sheet name="VA" sheetId="3" r:id="rId3"/>
-    <sheet name="conso" sheetId="4" r:id="rId4"/>
+    <sheet name="EXT_ETALONNAGE" sheetId="1" r:id="rId1"/>
+    <sheet name="pro" sheetId="2" r:id="rId2"/>
+    <sheet name="ind" sheetId="3" r:id="rId3"/>
+    <sheet name="VA" sheetId="4" r:id="rId4"/>
+    <sheet name="conso" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_______________________r" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -45,35 +46,35 @@
     <definedName name="_____r" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="____r" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="___r" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="__123Graph_A" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_ACAFCAC" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_AEVOL" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_ATOTX" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_ATOTXVOL" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_AXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_B" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_BCAFCAC" hidden="1">[1]export!#REF!</definedName>
+    <definedName name="__123Graph_A" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_ACAFCAC" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_AEVOL" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_ATOTX" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_ATOTXVOL" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_AXM" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_B" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_BCAFCAC" hidden="1">[2]export!#REF!</definedName>
     <definedName name="__123Graph_BCURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_BEVOL" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_BTOTX" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_BTOTXVOL" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_BXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_C" hidden="1">[1]export!#REF!</definedName>
+    <definedName name="__123Graph_BEVOL" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_BTOTX" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_BTOTXVOL" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_BXM" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_C" hidden="1">[2]export!#REF!</definedName>
     <definedName name="__123Graph_CCURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_CEVOL" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_CTOTX" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_CTOTXVOL" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_CXM" hidden="1">[1]export!#REF!</definedName>
+    <definedName name="__123Graph_CEVOL" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_CTOTX" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_CTOTXVOL" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_CXM" hidden="1">[2]export!#REF!</definedName>
     <definedName name="__123Graph_D" hidden="1">[3]E!#REF!</definedName>
     <definedName name="__123Graph_DCURRENT" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_E" hidden="1">[3]E!#REF!</definedName>
     <definedName name="__123Graph_ECURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_X" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_XCAFCAC" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_XEVOL" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_XTOTX" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_XTOTXVOL" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_XXM" hidden="1">[1]export!#REF!</definedName>
+    <definedName name="__123Graph_X" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_XCAFCAC" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_XEVOL" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_XTOTX" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_XTOTXVOL" hidden="1">[2]export!#REF!</definedName>
+    <definedName name="__123Graph_XXM" hidden="1">[2]export!#REF!</definedName>
     <definedName name="_123graph_b" hidden="1">[4]A!#REF!</definedName>
     <definedName name="_12no" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
@@ -104,7 +105,7 @@
     <definedName name="KONAN" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="kossi" hidden="1">#REF!</definedName>
     <definedName name="new" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="nnnnnnnnnnn" hidden="1">[1]export!#REF!</definedName>
+    <definedName name="nnnnnnnnnnn" hidden="1">[2]export!#REF!</definedName>
     <definedName name="pol" hidden="1">[4]A!#REF!</definedName>
     <definedName name="popl" hidden="1">#REF!</definedName>
     <definedName name="PROJA" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -151,9 +152,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>ANNEE</t>
+  </si>
+  <si>
+    <t>PROD CST</t>
+  </si>
+  <si>
+    <t>IND EXTRACT
+BASE 2015</t>
+  </si>
+  <si>
+    <t>IND EXTRACT
+BASE 2015 CORR</t>
+  </si>
+  <si>
+    <t>EVOL
+PROD CST</t>
+  </si>
+  <si>
+    <t>EVOL IND EXTRACT
+BASE 2015</t>
+  </si>
+  <si>
+    <t>DECISION</t>
+  </si>
+  <si>
+    <t>CORRELATION</t>
   </si>
   <si>
     <t xml:space="preserve">PROD </t>
@@ -175,11 +201,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _C_F_A_-;\-* #,##0\ _C_F_A_-;_-* &quot;-&quot;\ _C_F_A_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _C_F_A_-;\-* #,##0.00\ _C_F_A_-;_-* &quot;-&quot;\ _C_F_A_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _C_F_A_-;\-* #,##0.000\ _C_F_A_-;_-* &quot;-&quot;\ _C_F_A_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _C_F_A_-;\-* #,##0\ _C_F_A_-;_-* &quot;-&quot;\ _C_F_A_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -195,16 +223,61 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -231,18 +304,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{EF494BE7-451B-40BB-AE9B-D2C548A5C9F5}"/>
+  <cellStyles count="4">
+    <cellStyle name="Milliers [0] 2 2" xfId="2" xr:uid="{059C5D88-F9D3-4DC8-A715-12AE0D4E568C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{D7A4CDE0-1DA9-4082-B76D-7A12BC5C3364}"/>
+    <cellStyle name="Pourcentage 2 2" xfId="3" xr:uid="{20D1BA93-AFEC-4C18-A42F-B82945C71CF4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -257,76 +361,699 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="conj prod agro"/>
-      <sheetName val="prodagro annuel"/>
-      <sheetName val="import"/>
-      <sheetName val="export"/>
-      <sheetName val="impôts taxes"/>
-      <sheetName val="imipicontre"/>
-      <sheetName val="contribution ipi(3)"/>
-      <sheetName val="contribution ipi"/>
-      <sheetName val="contribution ipi 1"/>
-      <sheetName val="contsem ipi"/>
-      <sheetName val="contsem graph ipi"/>
-      <sheetName val="juin-04 ipi"/>
-      <sheetName val="ipi 2004 (p)"/>
-      <sheetName val="contribution com1"/>
-      <sheetName val="contribution commerce"/>
-      <sheetName val="contsem graph com"/>
-      <sheetName val="Com juin 04"/>
-      <sheetName val="Com 2004"/>
-      <sheetName val="Feuil2"/>
-      <sheetName val="Feuil3"/>
-      <sheetName val="Droits Simple"/>
-      <sheetName val="penalités Droits simples"/>
-      <sheetName val="penalités Fonciers"/>
-      <sheetName val="TSE"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EXT_ETALONNAGE!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> PROD CST </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>EXT_ETALONNAGE!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EXT_ETALONNAGE!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0\ _C_F_A_-;\-* #\ ##0\ _C_F_A_-;_-* "-"\ _C_F_A_-;_-@_-</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>230285.18018438428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>243105.34926081621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>269045.19725635648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290551.3556639037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384109.7515358394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>342229.28824120818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>527699.08220858057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>792979.12212810118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>849533.74511089642</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>831172.90464198252</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1044730.8054856182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>795888.03894007369</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1015507.236872803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1216789.9373589694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1179714.3724307641</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1273809.0181742609</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1020593.4926467577</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1173499.7431788021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1134886.3423636954</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1366409</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1716615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1503976.9918504788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FB8-417F-B2FD-700419FCD445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-528054976"/>
+        <c:axId val="-528068576"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EXT_ETALONNAGE!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> IND EXTRACT
+BASE 2015 CORR </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>EXT_ETALONNAGE!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EXT_ETALONNAGE!$D$2:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0.00\ _C_F_A_-;\-* #\ ##0.00\ _C_F_A_-;_-* "-"\ _C_F_A_-;_-@_-</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>16.479408628420252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.961198399176808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.984397830137269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.661788054620303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.95895083376293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.533260115463058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.473008042292143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.325295834129363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.054030292723112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.194157943914263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.799218253060275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.60550192339214</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.36449078937504</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109.47375753498694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88.777037969127761</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95.857941731154526</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.97508490328876</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.64827837899854</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.229936958908723</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125.36512079615743</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110.9633420520659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FB8-417F-B2FD-700419FCD445}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-528064224"/>
+        <c:axId val="-529620784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-528054976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-528068576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-528068576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #\ ##0\ _C_F_A_-;\-* #\ ##0\ _C_F_A_-;_-* &quot;-&quot;\ _C_F_A_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-528054976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-528064224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-529620784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-529620784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_-* #\ ##0.00\ _C_F_A_-;\-* #\ ##0.00\ _C_F_A_-;_-* &quot;-&quot;\ _C_F_A_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-528064224"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="825" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333333"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface="Calibri"/>
+          <a:cs typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683C2D66-ABF3-4219-88AA-59846CC0A2E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
       <sheetName val="Tables du Contenu"/>
       <sheetName val="Indications"/>
       <sheetName val="MAP"/>
@@ -364,6 +1091,10 @@
       <sheetName val="EXT_CALAGE"/>
       <sheetName val="EXT_PREVISION"/>
       <sheetName val="AUI_CNA"/>
+      <sheetName val="pro"/>
+      <sheetName val="ind"/>
+      <sheetName val="VA"/>
+      <sheetName val="conso"/>
       <sheetName val="AUI_IND"/>
       <sheetName val="AUI_ETALONNAGE"/>
       <sheetName val="AUI_RESIDUS"/>
@@ -479,9 +1210,1293 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="30">
+        <row r="2">
+          <cell r="B2">
+            <v>230285.18018438428</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>243105.34926081621</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>269045.19725635648</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>290551.3556639037</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>384109.7515358394</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>342229.28824120818</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>527699.08220858057</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>792979.12212810118</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>849533.74511089642</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>831172.90464198252</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>1044730.8054856182</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>795888.03894007369</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>1015507.236872803</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>1216789.9373589694</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>1179714.3724307641</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>1273809.0181742609</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>1020593.4926467577</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>1173499.7431788021</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>1134886.3423636954</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>1366409</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>1716615</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>1503976.9918504788</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>1140812.064978573</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>1340787.9104184182</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>1424414.0250892381</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="31">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ANNEE</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Ind_Extract
+base 2015</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1996</v>
+          </cell>
+          <cell r="F2">
+            <v>16.632857726478356</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1996</v>
+          </cell>
+          <cell r="F3">
+            <v>16.895847163671931</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1996</v>
+          </cell>
+          <cell r="F4">
+            <v>15.657719099843776</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1996</v>
+          </cell>
+          <cell r="F5">
+            <v>16.731210523686951</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1997</v>
+          </cell>
+          <cell r="F6">
+            <v>19.706813516971874</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1997</v>
+          </cell>
+          <cell r="F7">
+            <v>19.10647738783948</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1997</v>
+          </cell>
+          <cell r="F8">
+            <v>19.23173748266068</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1997</v>
+          </cell>
+          <cell r="F9">
+            <v>17.799765209235204</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1998</v>
+          </cell>
+          <cell r="F10">
+            <v>21.522360162288518</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1998</v>
+          </cell>
+          <cell r="F11">
+            <v>21.77256009118398</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1998</v>
+          </cell>
+          <cell r="F12">
+            <v>22.333791475216223</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1998</v>
+          </cell>
+          <cell r="F13">
+            <v>21.368369257052013</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>1999</v>
+          </cell>
+          <cell r="F14">
+            <v>22.829873760641888</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1999</v>
+          </cell>
+          <cell r="F15">
+            <v>23.345949921612494</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1999</v>
+          </cell>
+          <cell r="F16">
+            <v>24.322179092768664</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>1999</v>
+          </cell>
+          <cell r="F17">
+            <v>24.201336531892885</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2000</v>
+          </cell>
+          <cell r="F18">
+            <v>38.15808031370269</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2000</v>
+          </cell>
+          <cell r="F19">
+            <v>39.142378845852775</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2000</v>
+          </cell>
+          <cell r="F20">
+            <v>33.14178121155372</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2000</v>
+          </cell>
+          <cell r="F21">
+            <v>33.239457274263806</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2001</v>
+          </cell>
+          <cell r="F22">
+            <v>33.27430842463064</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2001</v>
+          </cell>
+          <cell r="F23">
+            <v>33.673692991293237</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>2001</v>
+          </cell>
+          <cell r="F24">
+            <v>31.740452514169188</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>2001</v>
+          </cell>
+          <cell r="F25">
+            <v>31.444586531759164</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>2002</v>
+          </cell>
+          <cell r="F26">
+            <v>43.170369012409211</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>2002</v>
+          </cell>
+          <cell r="F27">
+            <v>50.390565064551375</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>2002</v>
+          </cell>
+          <cell r="F28">
+            <v>50.884157665945644</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>2002</v>
+          </cell>
+          <cell r="F29">
+            <v>49.44694042626233</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>2003</v>
+          </cell>
+          <cell r="F30">
+            <v>71.59985845350954</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>2003</v>
+          </cell>
+          <cell r="F31">
+            <v>76.251606815691275</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>2003</v>
+          </cell>
+          <cell r="F32">
+            <v>84.038614614581888</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>2003</v>
+          </cell>
+          <cell r="F33">
+            <v>89.41110345273475</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>2004</v>
+          </cell>
+          <cell r="F34">
+            <v>72.941688245989425</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2004</v>
+          </cell>
+          <cell r="F35">
+            <v>67.10892046335222</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>2004</v>
+          </cell>
+          <cell r="F36">
+            <v>68.749590115295263</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>2004</v>
+          </cell>
+          <cell r="F37">
+            <v>68.719193470357325</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>2005</v>
+          </cell>
+          <cell r="F38">
+            <v>34.499139597544051</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>2005</v>
+          </cell>
+          <cell r="F39">
+            <v>40.656357771777927</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>2005</v>
+          </cell>
+          <cell r="F40">
+            <v>87.910179248890259</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>2005</v>
+          </cell>
+          <cell r="F41">
+            <v>119.13010834014669</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>2006</v>
+          </cell>
+          <cell r="F42">
+            <v>97.66281429297868</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>2006</v>
+          </cell>
+          <cell r="F43">
+            <v>99.148468582994084</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>2006</v>
+          </cell>
+          <cell r="F44">
+            <v>86.917697575134483</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>2006</v>
+          </cell>
+          <cell r="F45">
+            <v>83.46789256113388</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>2007</v>
+          </cell>
+          <cell r="F46">
+            <v>70.329705840903102</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>2007</v>
+          </cell>
+          <cell r="F47">
+            <v>73.799433792889218</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>2007</v>
+          </cell>
+          <cell r="F48">
+            <v>73.133361448438848</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>2007</v>
+          </cell>
+          <cell r="F49">
+            <v>69.159506611337392</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>2008</v>
+          </cell>
+          <cell r="F50">
+            <v>93.367414744325842</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>2008</v>
+          </cell>
+          <cell r="F51">
+            <v>91.351016821611069</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>2008</v>
+          </cell>
+          <cell r="F52">
+            <v>81.622979715527833</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>2008</v>
+          </cell>
+          <cell r="F53">
+            <v>85.600390982179704</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>2009</v>
+          </cell>
+          <cell r="F54">
+            <v>88.361142563841952</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>2009</v>
+          </cell>
+          <cell r="F55">
+            <v>93.157881119312506</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>2009</v>
+          </cell>
+          <cell r="F56">
+            <v>94.65833672882313</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>2009</v>
+          </cell>
+          <cell r="F57">
+            <v>87.011044737792503</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>2010</v>
+          </cell>
+          <cell r="F58">
+            <v>92.56634114976336</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>2010</v>
+          </cell>
+          <cell r="F59">
+            <v>80.762475201429481</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>2010</v>
+          </cell>
+          <cell r="F60">
+            <v>93.599531271427836</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>2010</v>
+          </cell>
+          <cell r="F61">
+            <v>88.179804253890367</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>2011</v>
+          </cell>
+          <cell r="F62">
+            <v>85.953271590235531</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>2011</v>
+          </cell>
+          <cell r="F63">
+            <v>86.768352395231034</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>2011</v>
+          </cell>
+          <cell r="F64">
+            <v>89.926551364473198</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>2011</v>
+          </cell>
+          <cell r="F65">
+            <v>89.651115186949355</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>2012</v>
+          </cell>
+          <cell r="F66">
+            <v>76.266060248059134</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>2012</v>
+          </cell>
+          <cell r="F67">
+            <v>80.008397334366236</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>2012</v>
+          </cell>
+          <cell r="F68">
+            <v>79.472638091355961</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>2012</v>
+          </cell>
+          <cell r="F69">
+            <v>80.153243939373667</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>2013</v>
+          </cell>
+          <cell r="F70">
+            <v>81.468023768489658</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>2013</v>
+          </cell>
+          <cell r="F71">
+            <v>81.361779908025156</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>2013</v>
+          </cell>
+          <cell r="F72">
+            <v>76.955815449567964</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>2013</v>
+          </cell>
+          <cell r="F73">
+            <v>86.807494389911369</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>2014</v>
+          </cell>
+          <cell r="F74">
+            <v>74.078170109290156</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>2014</v>
+          </cell>
+          <cell r="F75">
+            <v>80.092639157363621</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>2014</v>
+          </cell>
+          <cell r="F76">
+            <v>79.893385702462737</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>2014</v>
+          </cell>
+          <cell r="F77">
+            <v>78.855552866518394</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>2015</v>
+          </cell>
+          <cell r="F78">
+            <v>87.073531156660138</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>2015</v>
+          </cell>
+          <cell r="F79">
+            <v>99.314492171686709</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>2015</v>
+          </cell>
+          <cell r="F80">
+            <v>106.68353108253686</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>2015</v>
+          </cell>
+          <cell r="F81">
+            <v>106.92844558911631</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>2016</v>
+          </cell>
+          <cell r="F82">
+            <v>119.83579407118567</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>2016</v>
+          </cell>
+          <cell r="F83">
+            <v>134.6232314313732</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>2016</v>
+          </cell>
+          <cell r="F84">
+            <v>127.28050061946477</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>2016</v>
+          </cell>
+          <cell r="F85">
+            <v>119.72095706260609</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>2017</v>
+          </cell>
+          <cell r="F86">
+            <v>116.34822012820749</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>2017</v>
+          </cell>
+          <cell r="F87">
+            <v>113.41649304447975</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>2017</v>
+          </cell>
+          <cell r="F88">
+            <v>103.79873760054156</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>2017</v>
+          </cell>
+          <cell r="F89">
+            <v>110.28991743503481</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>2018</v>
+          </cell>
+          <cell r="F90">
+            <v>105.77610678480674</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>2018</v>
+          </cell>
+          <cell r="F91">
+            <v>107.84029816591988</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>2018</v>
+          </cell>
+          <cell r="F92">
+            <v>92.210916551277649</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>2018</v>
+          </cell>
+          <cell r="F93">
+            <v>116.83385135999319</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>2019</v>
+          </cell>
+          <cell r="F94">
+            <v>114.29298017307346</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>2019</v>
+          </cell>
+          <cell r="F95">
+            <v>130.80572027030593</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>2019</v>
+          </cell>
+          <cell r="F96">
+            <v>131.4166929736387</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>2019</v>
+          </cell>
+          <cell r="F97">
+            <v>123.56925066854933</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>2020</v>
+          </cell>
+          <cell r="F98">
+            <v>119.69603088472853</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>2020</v>
+          </cell>
+          <cell r="F99">
+            <v>122.0634991864047</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>2020</v>
+          </cell>
+          <cell r="F100">
+            <v>122.43828936686023</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>2020</v>
+          </cell>
+          <cell r="F101">
+            <v>126.65755767640803</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>2021</v>
+          </cell>
+          <cell r="F102">
+            <v>109.19327748462122</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>2021</v>
+          </cell>
+          <cell r="F103">
+            <v>126.93451845680073</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>2021</v>
+          </cell>
+          <cell r="F104">
+            <v>127.95723737367362</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>2021</v>
+          </cell>
+          <cell r="F105">
+            <v>128.97995629054688</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>2022</v>
+          </cell>
+          <cell r="F106">
+            <v>128.80289933099999</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>2022</v>
+          </cell>
+          <cell r="F107">
+            <v>128.83343402700001</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>2022</v>
+          </cell>
+          <cell r="F108">
+            <v>128.828164598</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>2022</v>
+          </cell>
+          <cell r="F109">
+            <v>128.829073849</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>2023</v>
+          </cell>
+          <cell r="F110">
+            <v>128.82891689499999</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>2023</v>
+          </cell>
+          <cell r="F111">
+            <v>128.82894398799999</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>2023</v>
+          </cell>
+          <cell r="F112">
+            <v>128.828939311</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>2023</v>
+          </cell>
+          <cell r="F113">
+            <v>128.82894011900001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="32">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>PROD CST</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>IND EXTRACT
+BASE 2015 CORR</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1996</v>
+          </cell>
+          <cell r="B2">
+            <v>230285.18018438428</v>
+          </cell>
+          <cell r="D2">
+            <v>16.479408628420252</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1997</v>
+          </cell>
+          <cell r="B3">
+            <v>243105.34926081621</v>
+          </cell>
+          <cell r="D3">
+            <v>18.961198399176808</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1998</v>
+          </cell>
+          <cell r="B4">
+            <v>269045.19725635648</v>
+          </cell>
+          <cell r="D4">
+            <v>20.984397830137269</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1999</v>
+          </cell>
+          <cell r="B5">
+            <v>290551.3556639037</v>
+          </cell>
+          <cell r="D5">
+            <v>22.661788054620303</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2000</v>
+          </cell>
+          <cell r="B6">
+            <v>384109.7515358394</v>
+          </cell>
+          <cell r="D6">
+            <v>29.95895083376293</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2001</v>
+          </cell>
+          <cell r="B7">
+            <v>342229.28824120818</v>
+          </cell>
+          <cell r="D7">
+            <v>32.533260115463058</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2002</v>
+          </cell>
+          <cell r="B8">
+            <v>527699.08220858057</v>
+          </cell>
+          <cell r="D8">
+            <v>48.473008042292143</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>2003</v>
+          </cell>
+          <cell r="B9">
+            <v>792979.12212810118</v>
+          </cell>
+          <cell r="D9">
+            <v>80.325295834129363</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>2004</v>
+          </cell>
+          <cell r="B10">
+            <v>849533.74511089642</v>
+          </cell>
+          <cell r="D10">
+            <v>86.054030292723112</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2005</v>
+          </cell>
+          <cell r="B11">
+            <v>831172.90464198252</v>
+          </cell>
+          <cell r="D11">
+            <v>84.194157943914263</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>2006</v>
+          </cell>
+          <cell r="B12">
+            <v>1044730.8054856182</v>
+          </cell>
+          <cell r="D12">
+            <v>91.799218253060275</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2007</v>
+          </cell>
+          <cell r="B13">
+            <v>795888.03894007369</v>
+          </cell>
+          <cell r="D13">
+            <v>71.60550192339214</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2008</v>
+          </cell>
+          <cell r="B14">
+            <v>1015507.236872803</v>
+          </cell>
+          <cell r="D14">
+            <v>91.36449078937504</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2009</v>
+          </cell>
+          <cell r="B15">
+            <v>1216789.9373589694</v>
+          </cell>
+          <cell r="D15">
+            <v>109.47375753498694</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>2010</v>
+          </cell>
+          <cell r="B16">
+            <v>1179714.3724307641</v>
+          </cell>
+          <cell r="D16">
+            <v>88.777037969127761</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>2011</v>
+          </cell>
+          <cell r="B17">
+            <v>1273809.0181742609</v>
+          </cell>
+          <cell r="D17">
+            <v>95.857941731154526</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2012</v>
+          </cell>
+          <cell r="B18">
+            <v>1020593.4926467577</v>
+          </cell>
+          <cell r="D18">
+            <v>78.97508490328876</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2013</v>
+          </cell>
+          <cell r="B19">
+            <v>1173499.7431788021</v>
+          </cell>
+          <cell r="D19">
+            <v>81.64827837899854</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>2014</v>
+          </cell>
+          <cell r="B20">
+            <v>1134886.3423636954</v>
+          </cell>
+          <cell r="D20">
+            <v>78.229936958908723</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>2015</v>
+          </cell>
+          <cell r="B21">
+            <v>1366409</v>
+          </cell>
+          <cell r="D21">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>2016</v>
+          </cell>
+          <cell r="B22">
+            <v>1716615</v>
+          </cell>
+          <cell r="D22">
+            <v>125.36512079615743</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>2017</v>
+          </cell>
+          <cell r="B23">
+            <v>1503976.9918504788</v>
+          </cell>
+          <cell r="D23">
+            <v>110.9633420520659</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
@@ -573,6 +2588,65 @@
       <sheetData sheetId="121"/>
       <sheetData sheetId="122"/>
       <sheetData sheetId="123"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="conj prod agro"/>
+      <sheetName val="prodagro annuel"/>
+      <sheetName val="import"/>
+      <sheetName val="export"/>
+      <sheetName val="impôts taxes"/>
+      <sheetName val="imipicontre"/>
+      <sheetName val="contribution ipi(3)"/>
+      <sheetName val="contribution ipi"/>
+      <sheetName val="contribution ipi 1"/>
+      <sheetName val="contsem ipi"/>
+      <sheetName val="contsem graph ipi"/>
+      <sheetName val="juin-04 ipi"/>
+      <sheetName val="ipi 2004 (p)"/>
+      <sheetName val="contribution com1"/>
+      <sheetName val="contribution commerce"/>
+      <sheetName val="contsem graph com"/>
+      <sheetName val="Com juin 04"/>
+      <sheetName val="Com 2004"/>
+      <sheetName val="Feuil2"/>
+      <sheetName val="Feuil3"/>
+      <sheetName val="Droits Simple"/>
+      <sheetName val="penalités Droits simples"/>
+      <sheetName val="penalités Fonciers"/>
+      <sheetName val="TSE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1722,19 +3796,1515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F93207-D0DE-4EB9-8943-863CC6A355BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31FB3B6-70BE-4D87-ABC2-A86ED8B02729}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B28" sqref="B28:B29"/>
+      <selection pane="topRight" activeCell="B28" sqref="B28:B29"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28:B29"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="17.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="10.90625" style="5"/>
+    <col min="10" max="10" width="18" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" style="5" customWidth="1"/>
+    <col min="12" max="256" width="10.90625" style="5"/>
+    <col min="257" max="257" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="259" max="260" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="14.26953125" style="5" customWidth="1"/>
+    <col min="263" max="263" width="12.453125" style="5" customWidth="1"/>
+    <col min="264" max="265" width="10.90625" style="5"/>
+    <col min="266" max="266" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="268" max="512" width="10.90625" style="5"/>
+    <col min="513" max="513" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="515" max="516" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="14.26953125" style="5" customWidth="1"/>
+    <col min="519" max="519" width="12.453125" style="5" customWidth="1"/>
+    <col min="520" max="521" width="10.90625" style="5"/>
+    <col min="522" max="522" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="524" max="768" width="10.90625" style="5"/>
+    <col min="769" max="769" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="771" max="772" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="14.26953125" style="5" customWidth="1"/>
+    <col min="775" max="775" width="12.453125" style="5" customWidth="1"/>
+    <col min="776" max="777" width="10.90625" style="5"/>
+    <col min="778" max="778" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="780" max="1024" width="10.90625" style="5"/>
+    <col min="1025" max="1025" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1028" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="14.26953125" style="5" customWidth="1"/>
+    <col min="1031" max="1031" width="12.453125" style="5" customWidth="1"/>
+    <col min="1032" max="1033" width="10.90625" style="5"/>
+    <col min="1034" max="1034" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1280" width="10.90625" style="5"/>
+    <col min="1281" max="1281" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1284" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="14.26953125" style="5" customWidth="1"/>
+    <col min="1287" max="1287" width="12.453125" style="5" customWidth="1"/>
+    <col min="1288" max="1289" width="10.90625" style="5"/>
+    <col min="1290" max="1290" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1536" width="10.90625" style="5"/>
+    <col min="1537" max="1537" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1540" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="14.26953125" style="5" customWidth="1"/>
+    <col min="1543" max="1543" width="12.453125" style="5" customWidth="1"/>
+    <col min="1544" max="1545" width="10.90625" style="5"/>
+    <col min="1546" max="1546" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1792" width="10.90625" style="5"/>
+    <col min="1793" max="1793" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1796" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="14.26953125" style="5" customWidth="1"/>
+    <col min="1799" max="1799" width="12.453125" style="5" customWidth="1"/>
+    <col min="1800" max="1801" width="10.90625" style="5"/>
+    <col min="1802" max="1802" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1804" max="2048" width="10.90625" style="5"/>
+    <col min="2049" max="2049" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2052" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="14.26953125" style="5" customWidth="1"/>
+    <col min="2055" max="2055" width="12.453125" style="5" customWidth="1"/>
+    <col min="2056" max="2057" width="10.90625" style="5"/>
+    <col min="2058" max="2058" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2304" width="10.90625" style="5"/>
+    <col min="2305" max="2305" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2308" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="14.26953125" style="5" customWidth="1"/>
+    <col min="2311" max="2311" width="12.453125" style="5" customWidth="1"/>
+    <col min="2312" max="2313" width="10.90625" style="5"/>
+    <col min="2314" max="2314" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2560" width="10.90625" style="5"/>
+    <col min="2561" max="2561" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2564" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="14.26953125" style="5" customWidth="1"/>
+    <col min="2567" max="2567" width="12.453125" style="5" customWidth="1"/>
+    <col min="2568" max="2569" width="10.90625" style="5"/>
+    <col min="2570" max="2570" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2816" width="10.90625" style="5"/>
+    <col min="2817" max="2817" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2820" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="14.26953125" style="5" customWidth="1"/>
+    <col min="2823" max="2823" width="12.453125" style="5" customWidth="1"/>
+    <col min="2824" max="2825" width="10.90625" style="5"/>
+    <col min="2826" max="2826" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2828" max="3072" width="10.90625" style="5"/>
+    <col min="3073" max="3073" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3076" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="14.26953125" style="5" customWidth="1"/>
+    <col min="3079" max="3079" width="12.453125" style="5" customWidth="1"/>
+    <col min="3080" max="3081" width="10.90625" style="5"/>
+    <col min="3082" max="3082" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3328" width="10.90625" style="5"/>
+    <col min="3329" max="3329" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3332" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="14.26953125" style="5" customWidth="1"/>
+    <col min="3335" max="3335" width="12.453125" style="5" customWidth="1"/>
+    <col min="3336" max="3337" width="10.90625" style="5"/>
+    <col min="3338" max="3338" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3584" width="10.90625" style="5"/>
+    <col min="3585" max="3585" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3588" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="14.26953125" style="5" customWidth="1"/>
+    <col min="3591" max="3591" width="12.453125" style="5" customWidth="1"/>
+    <col min="3592" max="3593" width="10.90625" style="5"/>
+    <col min="3594" max="3594" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3840" width="10.90625" style="5"/>
+    <col min="3841" max="3841" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3844" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="14.26953125" style="5" customWidth="1"/>
+    <col min="3847" max="3847" width="12.453125" style="5" customWidth="1"/>
+    <col min="3848" max="3849" width="10.90625" style="5"/>
+    <col min="3850" max="3850" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3852" max="4096" width="10.90625" style="5"/>
+    <col min="4097" max="4097" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4100" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="14.26953125" style="5" customWidth="1"/>
+    <col min="4103" max="4103" width="12.453125" style="5" customWidth="1"/>
+    <col min="4104" max="4105" width="10.90625" style="5"/>
+    <col min="4106" max="4106" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4352" width="10.90625" style="5"/>
+    <col min="4353" max="4353" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4356" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="14.26953125" style="5" customWidth="1"/>
+    <col min="4359" max="4359" width="12.453125" style="5" customWidth="1"/>
+    <col min="4360" max="4361" width="10.90625" style="5"/>
+    <col min="4362" max="4362" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4608" width="10.90625" style="5"/>
+    <col min="4609" max="4609" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4612" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="14.26953125" style="5" customWidth="1"/>
+    <col min="4615" max="4615" width="12.453125" style="5" customWidth="1"/>
+    <col min="4616" max="4617" width="10.90625" style="5"/>
+    <col min="4618" max="4618" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4864" width="10.90625" style="5"/>
+    <col min="4865" max="4865" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4868" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="14.26953125" style="5" customWidth="1"/>
+    <col min="4871" max="4871" width="12.453125" style="5" customWidth="1"/>
+    <col min="4872" max="4873" width="10.90625" style="5"/>
+    <col min="4874" max="4874" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4876" max="5120" width="10.90625" style="5"/>
+    <col min="5121" max="5121" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5124" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="14.26953125" style="5" customWidth="1"/>
+    <col min="5127" max="5127" width="12.453125" style="5" customWidth="1"/>
+    <col min="5128" max="5129" width="10.90625" style="5"/>
+    <col min="5130" max="5130" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5376" width="10.90625" style="5"/>
+    <col min="5377" max="5377" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5380" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="14.26953125" style="5" customWidth="1"/>
+    <col min="5383" max="5383" width="12.453125" style="5" customWidth="1"/>
+    <col min="5384" max="5385" width="10.90625" style="5"/>
+    <col min="5386" max="5386" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5632" width="10.90625" style="5"/>
+    <col min="5633" max="5633" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5636" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="14.26953125" style="5" customWidth="1"/>
+    <col min="5639" max="5639" width="12.453125" style="5" customWidth="1"/>
+    <col min="5640" max="5641" width="10.90625" style="5"/>
+    <col min="5642" max="5642" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5888" width="10.90625" style="5"/>
+    <col min="5889" max="5889" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5892" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="14.26953125" style="5" customWidth="1"/>
+    <col min="5895" max="5895" width="12.453125" style="5" customWidth="1"/>
+    <col min="5896" max="5897" width="10.90625" style="5"/>
+    <col min="5898" max="5898" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5900" max="6144" width="10.90625" style="5"/>
+    <col min="6145" max="6145" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6148" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="14.26953125" style="5" customWidth="1"/>
+    <col min="6151" max="6151" width="12.453125" style="5" customWidth="1"/>
+    <col min="6152" max="6153" width="10.90625" style="5"/>
+    <col min="6154" max="6154" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6400" width="10.90625" style="5"/>
+    <col min="6401" max="6401" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6404" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="14.26953125" style="5" customWidth="1"/>
+    <col min="6407" max="6407" width="12.453125" style="5" customWidth="1"/>
+    <col min="6408" max="6409" width="10.90625" style="5"/>
+    <col min="6410" max="6410" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6656" width="10.90625" style="5"/>
+    <col min="6657" max="6657" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6660" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="14.26953125" style="5" customWidth="1"/>
+    <col min="6663" max="6663" width="12.453125" style="5" customWidth="1"/>
+    <col min="6664" max="6665" width="10.90625" style="5"/>
+    <col min="6666" max="6666" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6912" width="10.90625" style="5"/>
+    <col min="6913" max="6913" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6916" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="14.26953125" style="5" customWidth="1"/>
+    <col min="6919" max="6919" width="12.453125" style="5" customWidth="1"/>
+    <col min="6920" max="6921" width="10.90625" style="5"/>
+    <col min="6922" max="6922" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6924" max="7168" width="10.90625" style="5"/>
+    <col min="7169" max="7169" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7172" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="14.26953125" style="5" customWidth="1"/>
+    <col min="7175" max="7175" width="12.453125" style="5" customWidth="1"/>
+    <col min="7176" max="7177" width="10.90625" style="5"/>
+    <col min="7178" max="7178" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7424" width="10.90625" style="5"/>
+    <col min="7425" max="7425" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7428" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="14.26953125" style="5" customWidth="1"/>
+    <col min="7431" max="7431" width="12.453125" style="5" customWidth="1"/>
+    <col min="7432" max="7433" width="10.90625" style="5"/>
+    <col min="7434" max="7434" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7680" width="10.90625" style="5"/>
+    <col min="7681" max="7681" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7684" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="14.26953125" style="5" customWidth="1"/>
+    <col min="7687" max="7687" width="12.453125" style="5" customWidth="1"/>
+    <col min="7688" max="7689" width="10.90625" style="5"/>
+    <col min="7690" max="7690" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7936" width="10.90625" style="5"/>
+    <col min="7937" max="7937" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7940" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="14.26953125" style="5" customWidth="1"/>
+    <col min="7943" max="7943" width="12.453125" style="5" customWidth="1"/>
+    <col min="7944" max="7945" width="10.90625" style="5"/>
+    <col min="7946" max="7946" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7948" max="8192" width="10.90625" style="5"/>
+    <col min="8193" max="8193" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8196" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="14.26953125" style="5" customWidth="1"/>
+    <col min="8199" max="8199" width="12.453125" style="5" customWidth="1"/>
+    <col min="8200" max="8201" width="10.90625" style="5"/>
+    <col min="8202" max="8202" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8448" width="10.90625" style="5"/>
+    <col min="8449" max="8449" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8452" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="14.26953125" style="5" customWidth="1"/>
+    <col min="8455" max="8455" width="12.453125" style="5" customWidth="1"/>
+    <col min="8456" max="8457" width="10.90625" style="5"/>
+    <col min="8458" max="8458" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8704" width="10.90625" style="5"/>
+    <col min="8705" max="8705" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8708" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="14.26953125" style="5" customWidth="1"/>
+    <col min="8711" max="8711" width="12.453125" style="5" customWidth="1"/>
+    <col min="8712" max="8713" width="10.90625" style="5"/>
+    <col min="8714" max="8714" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8960" width="10.90625" style="5"/>
+    <col min="8961" max="8961" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8964" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="14.26953125" style="5" customWidth="1"/>
+    <col min="8967" max="8967" width="12.453125" style="5" customWidth="1"/>
+    <col min="8968" max="8969" width="10.90625" style="5"/>
+    <col min="8970" max="8970" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8972" max="9216" width="10.90625" style="5"/>
+    <col min="9217" max="9217" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9220" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="14.26953125" style="5" customWidth="1"/>
+    <col min="9223" max="9223" width="12.453125" style="5" customWidth="1"/>
+    <col min="9224" max="9225" width="10.90625" style="5"/>
+    <col min="9226" max="9226" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9472" width="10.90625" style="5"/>
+    <col min="9473" max="9473" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9476" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="14.26953125" style="5" customWidth="1"/>
+    <col min="9479" max="9479" width="12.453125" style="5" customWidth="1"/>
+    <col min="9480" max="9481" width="10.90625" style="5"/>
+    <col min="9482" max="9482" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9728" width="10.90625" style="5"/>
+    <col min="9729" max="9729" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9732" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="14.26953125" style="5" customWidth="1"/>
+    <col min="9735" max="9735" width="12.453125" style="5" customWidth="1"/>
+    <col min="9736" max="9737" width="10.90625" style="5"/>
+    <col min="9738" max="9738" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9984" width="10.90625" style="5"/>
+    <col min="9985" max="9985" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9988" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="14.26953125" style="5" customWidth="1"/>
+    <col min="9991" max="9991" width="12.453125" style="5" customWidth="1"/>
+    <col min="9992" max="9993" width="10.90625" style="5"/>
+    <col min="9994" max="9994" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9996" max="10240" width="10.90625" style="5"/>
+    <col min="10241" max="10241" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10244" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="14.26953125" style="5" customWidth="1"/>
+    <col min="10247" max="10247" width="12.453125" style="5" customWidth="1"/>
+    <col min="10248" max="10249" width="10.90625" style="5"/>
+    <col min="10250" max="10250" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10496" width="10.90625" style="5"/>
+    <col min="10497" max="10497" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10500" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="14.26953125" style="5" customWidth="1"/>
+    <col min="10503" max="10503" width="12.453125" style="5" customWidth="1"/>
+    <col min="10504" max="10505" width="10.90625" style="5"/>
+    <col min="10506" max="10506" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10752" width="10.90625" style="5"/>
+    <col min="10753" max="10753" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10756" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="14.26953125" style="5" customWidth="1"/>
+    <col min="10759" max="10759" width="12.453125" style="5" customWidth="1"/>
+    <col min="10760" max="10761" width="10.90625" style="5"/>
+    <col min="10762" max="10762" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10764" max="11008" width="10.90625" style="5"/>
+    <col min="11009" max="11009" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11012" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="14.26953125" style="5" customWidth="1"/>
+    <col min="11015" max="11015" width="12.453125" style="5" customWidth="1"/>
+    <col min="11016" max="11017" width="10.90625" style="5"/>
+    <col min="11018" max="11018" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11264" width="10.90625" style="5"/>
+    <col min="11265" max="11265" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11268" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="14.26953125" style="5" customWidth="1"/>
+    <col min="11271" max="11271" width="12.453125" style="5" customWidth="1"/>
+    <col min="11272" max="11273" width="10.90625" style="5"/>
+    <col min="11274" max="11274" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11520" width="10.90625" style="5"/>
+    <col min="11521" max="11521" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11524" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="14.26953125" style="5" customWidth="1"/>
+    <col min="11527" max="11527" width="12.453125" style="5" customWidth="1"/>
+    <col min="11528" max="11529" width="10.90625" style="5"/>
+    <col min="11530" max="11530" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11776" width="10.90625" style="5"/>
+    <col min="11777" max="11777" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11780" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="14.26953125" style="5" customWidth="1"/>
+    <col min="11783" max="11783" width="12.453125" style="5" customWidth="1"/>
+    <col min="11784" max="11785" width="10.90625" style="5"/>
+    <col min="11786" max="11786" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11788" max="12032" width="10.90625" style="5"/>
+    <col min="12033" max="12033" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12036" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="14.26953125" style="5" customWidth="1"/>
+    <col min="12039" max="12039" width="12.453125" style="5" customWidth="1"/>
+    <col min="12040" max="12041" width="10.90625" style="5"/>
+    <col min="12042" max="12042" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12288" width="10.90625" style="5"/>
+    <col min="12289" max="12289" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12292" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="14.26953125" style="5" customWidth="1"/>
+    <col min="12295" max="12295" width="12.453125" style="5" customWidth="1"/>
+    <col min="12296" max="12297" width="10.90625" style="5"/>
+    <col min="12298" max="12298" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12544" width="10.90625" style="5"/>
+    <col min="12545" max="12545" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12548" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="14.26953125" style="5" customWidth="1"/>
+    <col min="12551" max="12551" width="12.453125" style="5" customWidth="1"/>
+    <col min="12552" max="12553" width="10.90625" style="5"/>
+    <col min="12554" max="12554" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12800" width="10.90625" style="5"/>
+    <col min="12801" max="12801" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12804" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="14.26953125" style="5" customWidth="1"/>
+    <col min="12807" max="12807" width="12.453125" style="5" customWidth="1"/>
+    <col min="12808" max="12809" width="10.90625" style="5"/>
+    <col min="12810" max="12810" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12812" max="13056" width="10.90625" style="5"/>
+    <col min="13057" max="13057" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13060" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="14.26953125" style="5" customWidth="1"/>
+    <col min="13063" max="13063" width="12.453125" style="5" customWidth="1"/>
+    <col min="13064" max="13065" width="10.90625" style="5"/>
+    <col min="13066" max="13066" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13312" width="10.90625" style="5"/>
+    <col min="13313" max="13313" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13316" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="14.26953125" style="5" customWidth="1"/>
+    <col min="13319" max="13319" width="12.453125" style="5" customWidth="1"/>
+    <col min="13320" max="13321" width="10.90625" style="5"/>
+    <col min="13322" max="13322" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13568" width="10.90625" style="5"/>
+    <col min="13569" max="13569" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13572" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="14.26953125" style="5" customWidth="1"/>
+    <col min="13575" max="13575" width="12.453125" style="5" customWidth="1"/>
+    <col min="13576" max="13577" width="10.90625" style="5"/>
+    <col min="13578" max="13578" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13824" width="10.90625" style="5"/>
+    <col min="13825" max="13825" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13828" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="14.26953125" style="5" customWidth="1"/>
+    <col min="13831" max="13831" width="12.453125" style="5" customWidth="1"/>
+    <col min="13832" max="13833" width="10.90625" style="5"/>
+    <col min="13834" max="13834" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13836" max="14080" width="10.90625" style="5"/>
+    <col min="14081" max="14081" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14084" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="14.26953125" style="5" customWidth="1"/>
+    <col min="14087" max="14087" width="12.453125" style="5" customWidth="1"/>
+    <col min="14088" max="14089" width="10.90625" style="5"/>
+    <col min="14090" max="14090" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14336" width="10.90625" style="5"/>
+    <col min="14337" max="14337" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14340" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="14.26953125" style="5" customWidth="1"/>
+    <col min="14343" max="14343" width="12.453125" style="5" customWidth="1"/>
+    <col min="14344" max="14345" width="10.90625" style="5"/>
+    <col min="14346" max="14346" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14592" width="10.90625" style="5"/>
+    <col min="14593" max="14593" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14596" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="14.26953125" style="5" customWidth="1"/>
+    <col min="14599" max="14599" width="12.453125" style="5" customWidth="1"/>
+    <col min="14600" max="14601" width="10.90625" style="5"/>
+    <col min="14602" max="14602" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14848" width="10.90625" style="5"/>
+    <col min="14849" max="14849" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14852" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="14.26953125" style="5" customWidth="1"/>
+    <col min="14855" max="14855" width="12.453125" style="5" customWidth="1"/>
+    <col min="14856" max="14857" width="10.90625" style="5"/>
+    <col min="14858" max="14858" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14860" max="15104" width="10.90625" style="5"/>
+    <col min="15105" max="15105" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15108" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="14.26953125" style="5" customWidth="1"/>
+    <col min="15111" max="15111" width="12.453125" style="5" customWidth="1"/>
+    <col min="15112" max="15113" width="10.90625" style="5"/>
+    <col min="15114" max="15114" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15360" width="10.90625" style="5"/>
+    <col min="15361" max="15361" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15364" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="14.26953125" style="5" customWidth="1"/>
+    <col min="15367" max="15367" width="12.453125" style="5" customWidth="1"/>
+    <col min="15368" max="15369" width="10.90625" style="5"/>
+    <col min="15370" max="15370" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15616" width="10.90625" style="5"/>
+    <col min="15617" max="15617" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15620" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="14.26953125" style="5" customWidth="1"/>
+    <col min="15623" max="15623" width="12.453125" style="5" customWidth="1"/>
+    <col min="15624" max="15625" width="10.90625" style="5"/>
+    <col min="15626" max="15626" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15872" width="10.90625" style="5"/>
+    <col min="15873" max="15873" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15876" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="14.26953125" style="5" customWidth="1"/>
+    <col min="15879" max="15879" width="12.453125" style="5" customWidth="1"/>
+    <col min="15880" max="15881" width="10.90625" style="5"/>
+    <col min="15882" max="15882" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15884" max="16128" width="10.90625" style="5"/>
+    <col min="16129" max="16129" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="15.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16132" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="14.26953125" style="5" customWidth="1"/>
+    <col min="16135" max="16135" width="12.453125" style="5" customWidth="1"/>
+    <col min="16136" max="16137" width="10.90625" style="5"/>
+    <col min="16138" max="16138" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16384" width="10.90625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7">
+        <f>CORREL(B2:B23,D2:D23)</f>
+        <v>0.96072160807546791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1996</v>
+      </c>
+      <c r="B2" s="9">
+        <f>[1]EXT_CNA!B2</f>
+        <v>230285.18018438428</v>
+      </c>
+      <c r="C2" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A2,[1]EXT_IND!$F:$F)</f>
+        <v>16.479408628420252</v>
+      </c>
+      <c r="D2" s="10">
+        <f>C2</f>
+        <v>16.479408628420252</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>1997</v>
+      </c>
+      <c r="B3" s="9">
+        <f>[1]EXT_CNA!B3</f>
+        <v>243105.34926081621</v>
+      </c>
+      <c r="C3" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A3,[1]EXT_IND!$F:$F)</f>
+        <v>18.961198399176808</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D29" si="0">C3</f>
+        <v>18.961198399176808</v>
+      </c>
+      <c r="E3" s="12">
+        <f>B3/B2-1</f>
+        <v>5.5670838506268971E-2</v>
+      </c>
+      <c r="F3" s="12">
+        <f>D3/D2-1</f>
+        <v>0.1505994436278788</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f>IF(SIGN(E3)=SIGN(F3),"Acceptable","A corriger")</f>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>1998</v>
+      </c>
+      <c r="B4" s="9">
+        <f>[1]EXT_CNA!B4</f>
+        <v>269045.19725635648</v>
+      </c>
+      <c r="C4" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A4,[1]EXT_IND!$F:$F)</f>
+        <v>21.749270246435184</v>
+      </c>
+      <c r="D4" s="13">
+        <f>D3*B4/B3</f>
+        <v>20.984397830137269</v>
+      </c>
+      <c r="E4" s="12">
+        <f>B4/B3-1</f>
+        <v>0.1067020864592767</v>
+      </c>
+      <c r="F4" s="12">
+        <f>D4/D3-1</f>
+        <v>0.10670208645927648</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" ref="G4:G29" si="1">IF(SIGN(E4)=SIGN(F4),"Acceptable","A corriger")</f>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>1999</v>
+      </c>
+      <c r="B5" s="9">
+        <f>[1]EXT_CNA!B5</f>
+        <v>290551.3556639037</v>
+      </c>
+      <c r="C5" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A5,[1]EXT_IND!$F:$F)</f>
+        <v>23.674834826728983</v>
+      </c>
+      <c r="D5" s="13">
+        <f>D4*B5/B4</f>
+        <v>22.661788054620303</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" ref="E5:E26" si="2">B5/B4-1</f>
+        <v>7.9935113604928443E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" ref="F5:F29" si="3">D5/D4-1</f>
+        <v>7.9935113604928221E-2</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="9">
+        <f>[1]EXT_CNA!B6</f>
+        <v>384109.7515358394</v>
+      </c>
+      <c r="C6" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A6,[1]EXT_IND!$F:$F)</f>
+        <v>35.920424411343248</v>
+      </c>
+      <c r="D6" s="13">
+        <f>D5*B6/B5</f>
+        <v>29.95895083376293</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="2"/>
+        <v>0.32200295764635745</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="3"/>
+        <v>0.32200295764635745</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B7" s="9">
+        <f>[1]EXT_CNA!B7</f>
+        <v>342229.28824120818</v>
+      </c>
+      <c r="C7" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A7,[1]EXT_IND!$F:$F)</f>
+        <v>32.533260115463058</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>32.533260115463058</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.10903254376431404</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>8.5927884991184422E-2</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>A corriger</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B8" s="9">
+        <f>[1]EXT_CNA!B8</f>
+        <v>527699.08220858057</v>
+      </c>
+      <c r="C8" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A8,[1]EXT_IND!$F:$F)</f>
+        <v>48.473008042292143</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>48.473008042292143</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="2"/>
+        <v>0.54194600035707818</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.48995237090465826</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B9" s="9">
+        <f>[1]EXT_CNA!B9</f>
+        <v>792979.12212810118</v>
+      </c>
+      <c r="C9" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A9,[1]EXT_IND!$F:$F)</f>
+        <v>80.325295834129363</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>80.325295834129363</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="2"/>
+        <v>0.50271082301156045</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="3"/>
+        <v>0.65711390892115595</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B10" s="9">
+        <f>[1]EXT_CNA!B10</f>
+        <v>849533.74511089642</v>
+      </c>
+      <c r="C10" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A10,[1]EXT_IND!$F:$F)</f>
+        <v>69.379848073748562</v>
+      </c>
+      <c r="D10" s="13">
+        <f>D9*B10/B9</f>
+        <v>86.054030292723112</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="2"/>
+        <v>7.1319182819114868E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="3"/>
+        <v>7.1319182819114646E-2</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B11" s="9">
+        <f>[1]EXT_CNA!B11</f>
+        <v>831172.90464198252</v>
+      </c>
+      <c r="C11" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A11,[1]EXT_IND!$F:$F)</f>
+        <v>70.548946239589739</v>
+      </c>
+      <c r="D11" s="13">
+        <f>D10*B11/B10</f>
+        <v>84.194157943914263</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="2"/>
+        <v>-2.1612844191983394E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>-2.1612844191983505E-2</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B12" s="9">
+        <f>[1]EXT_CNA!B12</f>
+        <v>1044730.8054856182</v>
+      </c>
+      <c r="C12" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A12,[1]EXT_IND!$F:$F)</f>
+        <v>91.799218253060275</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>91.799218253060275</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="2"/>
+        <v>0.25693559023753676</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>9.0327648555047046E-2</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B13" s="9">
+        <f>[1]EXT_CNA!B13</f>
+        <v>795888.03894007369</v>
+      </c>
+      <c r="C13" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A13,[1]EXT_IND!$F:$F)</f>
+        <v>71.60550192339214</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>71.60550192339214</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.23818840723268986</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>-0.21997699668858506</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B14" s="9">
+        <f>[1]EXT_CNA!B14</f>
+        <v>1015507.236872803</v>
+      </c>
+      <c r="C14" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A14,[1]EXT_IND!$F:$F)</f>
+        <v>87.985450565911108</v>
+      </c>
+      <c r="D14" s="13">
+        <f>D13*B14/B13</f>
+        <v>91.36449078937504</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="2"/>
+        <v>0.27594232754798997</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>0.27594232754798997</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B15" s="9">
+        <f>[1]EXT_CNA!B15</f>
+        <v>1216789.9373589694</v>
+      </c>
+      <c r="C15" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A15,[1]EXT_IND!$F:$F)</f>
+        <v>90.79710128744253</v>
+      </c>
+      <c r="D15" s="13">
+        <f>D14*B15/B14</f>
+        <v>109.47375753498694</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="2"/>
+        <v>0.19820902616706615</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
+        <v>0.19820902616706615</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B16" s="9">
+        <f>[1]EXT_CNA!B16</f>
+        <v>1179714.3724307641</v>
+      </c>
+      <c r="C16" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A16,[1]EXT_IND!$F:$F)</f>
+        <v>88.777037969127761</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>88.777037969127761</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.0469979895360932E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="3"/>
+        <v>-0.18905644632910934</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="9">
+        <f>[1]EXT_CNA!B17</f>
+        <v>1273809.0181742609</v>
+      </c>
+      <c r="C17" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A17,[1]EXT_IND!$F:$F)</f>
+        <v>88.074822634222286</v>
+      </c>
+      <c r="D17" s="13">
+        <f>D16*B17/B16</f>
+        <v>95.857941731154526</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="2"/>
+        <v>7.9760531822306913E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>7.9760531822306913E-2</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B18" s="9">
+        <f>[1]EXT_CNA!B18</f>
+        <v>1020593.4926467577</v>
+      </c>
+      <c r="C18" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A18,[1]EXT_IND!$F:$F)</f>
+        <v>78.97508490328876</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>78.97508490328876</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.1987860989478899</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="3"/>
+        <v>-0.17612371518695691</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="9">
+        <f>[1]EXT_CNA!B19</f>
+        <v>1173499.7431788021</v>
+      </c>
+      <c r="C19" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A19,[1]EXT_IND!$F:$F)</f>
+        <v>81.64827837899854</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>81.64827837899854</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="2"/>
+        <v>0.14982091462831559</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="3"/>
+        <v>3.3848567291612452E-2</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B20" s="9">
+        <f>[1]EXT_CNA!B20</f>
+        <v>1134886.3423636954</v>
+      </c>
+      <c r="C20" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A20,[1]EXT_IND!$F:$F)</f>
+        <v>78.229936958908723</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>78.229936958908723</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.2904481692096366E-2</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="3"/>
+        <v>-4.1866668691070363E-2</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B21" s="9">
+        <f>[1]EXT_CNA!B21</f>
+        <v>1366409</v>
+      </c>
+      <c r="C21" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A21,[1]EXT_IND!$F:$F)</f>
+        <v>100</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="2"/>
+        <v>0.20400514923291668</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="3"/>
+        <v>0.27828301910208975</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="9">
+        <f>[1]EXT_CNA!B22</f>
+        <v>1716615</v>
+      </c>
+      <c r="C22" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A22,[1]EXT_IND!$F:$F)</f>
+        <v>125.36512079615743</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>125.36512079615743</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.25629661397136583</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="3"/>
+        <v>0.25365120796157425</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="9">
+        <f>[1]EXT_CNA!B23</f>
+        <v>1503976.9918504788</v>
+      </c>
+      <c r="C23" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A23,[1]EXT_IND!$F:$F)</f>
+        <v>110.9633420520659</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>110.9633420520659</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.12387052900593387</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="3"/>
+        <v>-0.11487867321173562</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="9">
+        <f>[1]EXT_CNA!B24</f>
+        <v>1140812.064978573</v>
+      </c>
+      <c r="C24" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A24,[1]EXT_IND!$F:$F)</f>
+        <v>105.66529321549936</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
+        <v>105.66529321549936</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="2"/>
+        <v>-0.24146973580032705</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="3"/>
+        <v>-4.774593787992254E-2</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="9">
+        <f>[1]EXT_CNA!B25</f>
+        <v>1340787.9104184182</v>
+      </c>
+      <c r="C25" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A25,[1]EXT_IND!$F:$F)</f>
+        <v>125.02116102139186</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>125.02116102139186</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="2"/>
+        <v>0.17529254079514067</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="3"/>
+        <v>0.18318094065586066</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="9">
+        <f>[1]EXT_CNA!B26</f>
+        <v>1424414.0250892381</v>
+      </c>
+      <c r="C26" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A26,[1]EXT_IND!$F:$F)</f>
+        <v>122.71384427860036</v>
+      </c>
+      <c r="D26" s="13">
+        <f>D25*B26/B25</f>
+        <v>132.81884018199173</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="2"/>
+        <v>6.2370874633500106E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="3"/>
+        <v>6.2370874633500106E-2</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="9">
+        <f>GEOMEAN(B24:B26)</f>
+        <v>1296393.3980384907</v>
+      </c>
+      <c r="C27" s="10">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A27,[1]EXT_IND!$F:$F)</f>
+        <v>123.2662474014106</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>123.2662474014106</v>
+      </c>
+      <c r="E27" s="12">
+        <f>B27/B26-1</f>
+        <v>-8.9875994476203647E-2</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="3"/>
+        <v>-7.192197106594167E-2</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="14">
+        <f t="shared" ref="B28:B29" si="4">GEOMEAN(B25:B27)</f>
+        <v>1352833.5934309177</v>
+      </c>
+      <c r="C28" s="15">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A28,[1]EXT_IND!$F:$F)</f>
+        <v>128.82339295125001</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="0"/>
+        <v>128.82339295125001</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" ref="E28:E29" si="5">B28/B27-1</f>
+        <v>4.3536318125211082E-2</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="3"/>
+        <v>4.5082459042846024E-2</v>
+      </c>
+      <c r="G28" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="14">
+        <f t="shared" si="4"/>
+        <v>1356872.8218943202</v>
+      </c>
+      <c r="C29" s="15">
+        <f>AVERAGEIF([1]EXT_IND!A:A,EXT_ETALONNAGE!A29,[1]EXT_IND!$F:$F)</f>
+        <v>128.82893507825</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="0"/>
+        <v>128.82893507825</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="5"/>
+        <v>2.9857541112345842E-3</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" si="3"/>
+        <v>4.3021122740238837E-5</v>
+      </c>
+      <c r="G29" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceptable</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC58F24-2692-4BE1-BE0C-A50907B40A20}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,1033 +5312,207 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1996</v>
       </c>
-      <c r="B2" s="1">
-        <v>5757204.42518376</v>
+      <c r="B2" s="9">
+        <v>230285.18018438428</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1997</v>
       </c>
-      <c r="B3" s="1">
-        <v>5474195.5655402998</v>
+      <c r="B3" s="9">
+        <v>243105.34926081621</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1998</v>
       </c>
-      <c r="B4" s="1">
-        <v>5720925.0319296652</v>
+      <c r="B4" s="9">
+        <v>269045.19725635648</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1999</v>
       </c>
-      <c r="B5" s="1">
-        <v>6066031.4908388853</v>
+      <c r="B5" s="9">
+        <v>290551.3556639037</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2000</v>
       </c>
-      <c r="B6" s="1">
-        <v>5549876.1278222902</v>
+      <c r="B6" s="9">
+        <v>384109.7515358394</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2001</v>
       </c>
-      <c r="B7" s="1">
-        <v>5347076.173052053</v>
+      <c r="B7" s="9">
+        <v>342229.28824120818</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2002</v>
       </c>
-      <c r="B8" s="1">
-        <v>5093605.7214157283</v>
+      <c r="B8" s="9">
+        <v>527699.08220858057</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2003</v>
       </c>
-      <c r="B9" s="1">
-        <v>4443302.1668255301</v>
+      <c r="B9" s="9">
+        <v>792979.12212810118</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2004</v>
       </c>
-      <c r="B10" s="1">
-        <v>4859429.6174317189</v>
+      <c r="B10" s="9">
+        <v>849533.74511089642</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2005</v>
       </c>
-      <c r="B11" s="1">
-        <v>4956218.0067407889</v>
+      <c r="B11" s="9">
+        <v>831172.90464198252</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2006</v>
       </c>
-      <c r="B12" s="1">
-        <v>4875524.6508705746</v>
+      <c r="B12" s="9">
+        <v>1044730.8054856182</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2007</v>
       </c>
-      <c r="B13" s="1">
-        <v>4639010.5305075273</v>
+      <c r="B13" s="9">
+        <v>795888.03894007369</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2008</v>
       </c>
-      <c r="B14" s="1">
-        <v>4646467.1623421349</v>
+      <c r="B14" s="9">
+        <v>1015507.236872803</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2009</v>
       </c>
-      <c r="B15" s="1">
-        <v>5128224.7418563347</v>
+      <c r="B15" s="9">
+        <v>1216789.9373589694</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2010</v>
       </c>
-      <c r="B16" s="1">
-        <v>5436748.1691376297</v>
+      <c r="B16" s="9">
+        <v>1179714.3724307641</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2011</v>
       </c>
-      <c r="B17" s="1">
-        <v>5171681.0467257984</v>
+      <c r="B17" s="9">
+        <v>1273809.0181742609</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2012</v>
       </c>
-      <c r="B18" s="1">
-        <v>6140549.7870343346</v>
+      <c r="B18" s="9">
+        <v>1020593.4926467577</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2013</v>
       </c>
-      <c r="B19" s="1">
-        <v>6612581.0952871703</v>
+      <c r="B19" s="9">
+        <v>1173499.7431788021</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2014</v>
       </c>
-      <c r="B20" s="1">
-        <v>7344950.4804429114</v>
+      <c r="B20" s="9">
+        <v>1134886.3423636954</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2015</v>
       </c>
-      <c r="B21" s="1">
-        <v>7477710</v>
+      <c r="B21" s="9">
+        <v>1366409</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2016</v>
       </c>
-      <c r="B22" s="1">
-        <v>7946350</v>
+      <c r="B22" s="9">
+        <v>1716615</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2017</v>
       </c>
-      <c r="B23" s="1">
-        <v>8698557.8561877236</v>
+      <c r="B23" s="9">
+        <v>1503976.9918504788</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2018</v>
       </c>
-      <c r="B24" s="1">
-        <v>9868150.2345123347</v>
+      <c r="B24" s="9">
+        <v>1140812.064978573</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2019</v>
       </c>
-      <c r="B25" s="1">
-        <v>10349411.1654146</v>
+      <c r="B25" s="9">
+        <v>1340787.9104184182</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2020</v>
       </c>
-      <c r="B26" s="1">
-        <v>10089763.786913153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E264818-B9B3-4E9A-8A08-0E1B869B5857}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B101"/>
-  <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>35065</v>
-      </c>
-      <c r="B2">
-        <v>110.88270484554977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>35156</v>
-      </c>
-      <c r="B3">
-        <v>105.89059471901635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>35247</v>
-      </c>
-      <c r="B4">
-        <v>102.37862506126639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>35339</v>
-      </c>
-      <c r="B5">
-        <v>161.63470314676968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>35431</v>
-      </c>
-      <c r="B6">
-        <v>105.4320059411905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>35521</v>
-      </c>
-      <c r="B7">
-        <v>100.6852946731629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>35612</v>
-      </c>
-      <c r="B8">
-        <v>97.345964104550475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>35704</v>
-      </c>
-      <c r="B9">
-        <v>153.68917096863854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>35796</v>
-      </c>
-      <c r="B10">
-        <v>110.183970363138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>35886</v>
-      </c>
-      <c r="B11">
-        <v>105.22331833902248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>35977</v>
-      </c>
-      <c r="B12">
-        <v>101.73347958351262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>36069</v>
-      </c>
-      <c r="B13">
-        <v>160.61615168916993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>36161</v>
-      </c>
-      <c r="B14">
-        <v>106.9074948266841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>36251</v>
-      </c>
-      <c r="B15">
-        <v>111.26668320766107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>36342</v>
-      </c>
-      <c r="B16">
-        <v>104.25016470892207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>36434</v>
-      </c>
-      <c r="B17">
-        <v>114.95833468701943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>36526</v>
-      </c>
-      <c r="B18">
-        <v>105.30576676325209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>36617</v>
-      </c>
-      <c r="B19">
-        <v>100.7020231156873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>36708</v>
-      </c>
-      <c r="B20">
-        <v>95.316850663619519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>36800</v>
-      </c>
-      <c r="B21">
-        <v>101.22988836644618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>36892</v>
-      </c>
-      <c r="B22">
-        <v>106.94101798760872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>36982</v>
-      </c>
-      <c r="B23">
-        <v>113.82392962208158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>37073</v>
-      </c>
-      <c r="B24">
-        <v>115.52119164904492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>37165</v>
-      </c>
-      <c r="B25">
-        <v>123.3139505822282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>37257</v>
-      </c>
-      <c r="B26">
-        <v>110.59933179186326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>37347</v>
-      </c>
-      <c r="B27">
-        <v>105.93326024399906</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>37438</v>
-      </c>
-      <c r="B28">
-        <v>104.2493379627183</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>37530</v>
-      </c>
-      <c r="B29">
-        <v>101.67701579589966</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>37622</v>
-      </c>
-      <c r="B30">
-        <v>97.825856096086696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>37712</v>
-      </c>
-      <c r="B31">
-        <v>98.314238000767858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>37803</v>
-      </c>
-      <c r="B32">
-        <v>95.788763512241459</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>37895</v>
-      </c>
-      <c r="B33">
-        <v>107.22650310100215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>37987</v>
-      </c>
-      <c r="B34">
-        <v>101.67930083228798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>38078</v>
-      </c>
-      <c r="B35">
-        <v>99.253415968046284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>38169</v>
-      </c>
-      <c r="B36">
-        <v>97.548659458502726</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>38261</v>
-      </c>
-      <c r="B37">
-        <v>98.261401570298545</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>38353</v>
-      </c>
-      <c r="B38">
-        <v>95.681687195208511</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>38443</v>
-      </c>
-      <c r="B39">
-        <v>95.165746957869843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>38534</v>
-      </c>
-      <c r="B40">
-        <v>98.819853679257832</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>38626</v>
-      </c>
-      <c r="B41">
-        <v>104.61479490729513</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>38718</v>
-      </c>
-      <c r="B42">
-        <v>99.520220108478497</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>38808</v>
-      </c>
-      <c r="B43">
-        <v>105.31882371913512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>38899</v>
-      </c>
-      <c r="B44">
-        <v>104.27372655674934</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>38991</v>
-      </c>
-      <c r="B45">
-        <v>110.00490454402623</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>39083</v>
-      </c>
-      <c r="B46">
-        <v>112.72614522310162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>39173</v>
-      </c>
-      <c r="B47">
-        <v>108.7480480385009</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>39264</v>
-      </c>
-      <c r="B48">
-        <v>106.16081546096096</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>39356</v>
-      </c>
-      <c r="B49">
-        <v>119.34123508677727</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>39448</v>
-      </c>
-      <c r="B50">
-        <v>120.24392566268186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>39539</v>
-      </c>
-      <c r="B51">
-        <v>124.56077256605113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>39630</v>
-      </c>
-      <c r="B52">
-        <v>130.93263807996968</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>39722</v>
-      </c>
-      <c r="B53">
-        <v>138.34139509484086</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>39814</v>
-      </c>
-      <c r="B54">
-        <v>120.75194701463552</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>39904</v>
-      </c>
-      <c r="B55">
-        <v>122.47173987594401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>39995</v>
-      </c>
-      <c r="B56">
-        <v>128.36922249203349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>40087</v>
-      </c>
-      <c r="B57">
-        <v>142.38697618990386</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>40179</v>
-      </c>
-      <c r="B58">
-        <v>132.93951830170624</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>40269</v>
-      </c>
-      <c r="B59">
-        <v>138.65758147701541</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>40360</v>
-      </c>
-      <c r="B60">
-        <v>137.39687635305214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>40452</v>
-      </c>
-      <c r="B61">
-        <v>135.56264925367381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>40544</v>
-      </c>
-      <c r="B62">
-        <v>112.52639095921172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>40634</v>
-      </c>
-      <c r="B63">
-        <v>104.77728334956889</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>40725</v>
-      </c>
-      <c r="B64">
-        <v>134.64675933439818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>40817</v>
-      </c>
-      <c r="B65">
-        <v>154.51450010458035</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>40909</v>
-      </c>
-      <c r="B66">
-        <v>162.50819799876845</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>41000</v>
-      </c>
-      <c r="B67">
-        <v>172.20904919287423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>41091</v>
-      </c>
-      <c r="B68">
-        <v>168.16381968438665</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>41183</v>
-      </c>
-      <c r="B69">
-        <v>180.1102970249527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>41275</v>
-      </c>
-      <c r="B70">
-        <v>181.08012734230567</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>41365</v>
-      </c>
-      <c r="B71">
-        <v>189.82519905170818</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>41456</v>
-      </c>
-      <c r="B72">
-        <v>191.76100689195155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>41548</v>
-      </c>
-      <c r="B73">
-        <v>209.27917161875851</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>41640</v>
-      </c>
-      <c r="B74">
-        <v>204.3333586717344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>41730</v>
-      </c>
-      <c r="B75">
-        <v>218.73567656920747</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>41821</v>
-      </c>
-      <c r="B76">
-        <v>222.82016453809038</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>41913</v>
-      </c>
-      <c r="B77">
-        <v>219.65215490212609</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B78">
-        <v>216.06598817818102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>42095</v>
-      </c>
-      <c r="B79">
-        <v>232.38700023428802</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>42186</v>
-      </c>
-      <c r="B80">
-        <v>231.27856009403462</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>42278</v>
-      </c>
-      <c r="B81">
-        <v>236.01139676649876</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>42370</v>
-      </c>
-      <c r="B82">
-        <v>226.19306279401144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>42461</v>
-      </c>
-      <c r="B83">
-        <v>225.5231197097944</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B84">
-        <v>221.97744221277432</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>42644</v>
-      </c>
-      <c r="B85">
-        <v>231.53406874265573</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>42736</v>
-      </c>
-      <c r="B86">
-        <v>284.2916475625974</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>42826</v>
-      </c>
-      <c r="B87">
-        <v>273.20660413206139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>42917</v>
-      </c>
-      <c r="B88">
-        <v>273.02559828081331</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>43009</v>
-      </c>
-      <c r="B89">
-        <v>277.50920993249946</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B90">
-        <v>284.33979607839058</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>43191</v>
-      </c>
-      <c r="B91">
-        <v>253.66952260104742</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>43282</v>
-      </c>
-      <c r="B92">
-        <v>269.99171907527733</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>43374</v>
-      </c>
-      <c r="B93">
-        <v>268.54264500705227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>43466</v>
-      </c>
-      <c r="B94">
-        <v>318.09095358390562</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>43556</v>
-      </c>
-      <c r="B95">
-        <v>266.83372862018734</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>43647</v>
-      </c>
-      <c r="B96">
-        <v>298.30351576390376</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>43739</v>
-      </c>
-      <c r="B97">
-        <v>289.31211298597378</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B98">
-        <v>350.09886977583034</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B99">
-        <v>277.36894830514603</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>44013</v>
-      </c>
-      <c r="B100">
-        <v>324.15937671869085</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B101">
-        <v>308.41919309371241</v>
+      <c r="B26" s="9">
+        <v>1424414.0250892381</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +5521,840 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5A897-07D6-4801-8CCD-33959F874B83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD98FE12-68E6-4D95-A0F9-8CF8F9DAFE63}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>35065</v>
+      </c>
+      <c r="B2">
+        <v>166328.57726478355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>35156</v>
+      </c>
+      <c r="B3">
+        <v>168958.4716367193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>35247</v>
+      </c>
+      <c r="B4">
+        <v>156577.19099843776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>35339</v>
+      </c>
+      <c r="B5">
+        <v>167312.10523686951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>35431</v>
+      </c>
+      <c r="B6">
+        <v>197068.13516971876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>35521</v>
+      </c>
+      <c r="B7">
+        <v>191064.77387839483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>35612</v>
+      </c>
+      <c r="B8">
+        <v>192317.37482660683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>35704</v>
+      </c>
+      <c r="B9">
+        <v>177997.65209235201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>35796</v>
+      </c>
+      <c r="B10">
+        <v>215223.60162288518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>35886</v>
+      </c>
+      <c r="B11">
+        <v>217725.60091183981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>35977</v>
+      </c>
+      <c r="B12">
+        <v>223337.91475216227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>36069</v>
+      </c>
+      <c r="B13">
+        <v>213683.69257052013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>36161</v>
+      </c>
+      <c r="B14">
+        <v>228298.73760641887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>36251</v>
+      </c>
+      <c r="B15">
+        <v>233459.49921612494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>36342</v>
+      </c>
+      <c r="B16">
+        <v>243221.79092768664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>36434</v>
+      </c>
+      <c r="B17">
+        <v>242013.36531892885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>36526</v>
+      </c>
+      <c r="B18">
+        <v>381580.80313702684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>36617</v>
+      </c>
+      <c r="B19">
+        <v>391423.78845852776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>36708</v>
+      </c>
+      <c r="B20">
+        <v>331417.81211553718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>36800</v>
+      </c>
+      <c r="B21">
+        <v>332394.57274263806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>36892</v>
+      </c>
+      <c r="B22">
+        <v>332743.08424630639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>36982</v>
+      </c>
+      <c r="B23">
+        <v>336736.92991293239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>37073</v>
+      </c>
+      <c r="B24">
+        <v>317404.52514169191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>37165</v>
+      </c>
+      <c r="B25">
+        <v>314445.86531759164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>37257</v>
+      </c>
+      <c r="B26">
+        <v>431703.6901240921</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>37347</v>
+      </c>
+      <c r="B27">
+        <v>503905.65064551373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>37438</v>
+      </c>
+      <c r="B28">
+        <v>508841.57665945642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>37530</v>
+      </c>
+      <c r="B29">
+        <v>494469.40426262328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>37622</v>
+      </c>
+      <c r="B30">
+        <v>715998.58453509538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>37712</v>
+      </c>
+      <c r="B31">
+        <v>762516.06815691281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>37803</v>
+      </c>
+      <c r="B32">
+        <v>840386.14614581876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>37895</v>
+      </c>
+      <c r="B33">
+        <v>894111.03452734754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>37987</v>
+      </c>
+      <c r="B34">
+        <v>729416.88245989429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>38078</v>
+      </c>
+      <c r="B35">
+        <v>671089.2046335222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>38169</v>
+      </c>
+      <c r="B36">
+        <v>687495.90115295257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
+        <v>38261</v>
+      </c>
+      <c r="B37">
+        <v>687191.93470357324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
+        <v>38353</v>
+      </c>
+      <c r="B38">
+        <v>344991.39597544051</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>38443</v>
+      </c>
+      <c r="B39">
+        <v>406563.57771777926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>38534</v>
+      </c>
+      <c r="B40">
+        <v>879101.79248890269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>38626</v>
+      </c>
+      <c r="B41">
+        <v>1191301.083401467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>38718</v>
+      </c>
+      <c r="B42">
+        <v>976628.1429297867</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>38808</v>
+      </c>
+      <c r="B43">
+        <v>991484.68582994095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>38899</v>
+      </c>
+      <c r="B44">
+        <v>869176.97575134493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>38991</v>
+      </c>
+      <c r="B45">
+        <v>834678.92561133881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
+        <v>39083</v>
+      </c>
+      <c r="B46">
+        <v>703297.05840903101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>39173</v>
+      </c>
+      <c r="B47">
+        <v>737994.33792889223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>39264</v>
+      </c>
+      <c r="B48">
+        <v>731333.6144843885</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>39356</v>
+      </c>
+      <c r="B49">
+        <v>691595.06611337396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
+        <v>39448</v>
+      </c>
+      <c r="B50">
+        <v>933674.14744325844</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>39539</v>
+      </c>
+      <c r="B51">
+        <v>913510.16821611056</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
+        <v>39630</v>
+      </c>
+      <c r="B52">
+        <v>816229.79715527839</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>39722</v>
+      </c>
+      <c r="B53">
+        <v>856003.90982179705</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>39814</v>
+      </c>
+      <c r="B54">
+        <v>883611.42563841958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="19">
+        <v>39904</v>
+      </c>
+      <c r="B55">
+        <v>931578.81119312509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="19">
+        <v>39995</v>
+      </c>
+      <c r="B56">
+        <v>946583.36728823127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
+        <v>40087</v>
+      </c>
+      <c r="B57">
+        <v>870110.44737792504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="19">
+        <v>40179</v>
+      </c>
+      <c r="B58">
+        <v>925663.41149763355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="19">
+        <v>40269</v>
+      </c>
+      <c r="B59">
+        <v>807624.75201429485</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="19">
+        <v>40360</v>
+      </c>
+      <c r="B60">
+        <v>935995.31271427847</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="19">
+        <v>40452</v>
+      </c>
+      <c r="B61">
+        <v>881798.04253890365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="19">
+        <v>40544</v>
+      </c>
+      <c r="B62">
+        <v>859532.71590235527</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="19">
+        <v>40634</v>
+      </c>
+      <c r="B63">
+        <v>867683.52395231032</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="19">
+        <v>40725</v>
+      </c>
+      <c r="B64">
+        <v>899265.51364473195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="19">
+        <v>40817</v>
+      </c>
+      <c r="B65">
+        <v>896511.15186949354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="19">
+        <v>40909</v>
+      </c>
+      <c r="B66">
+        <v>762660.60248059139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="19">
+        <v>41000</v>
+      </c>
+      <c r="B67">
+        <v>800083.97334366234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="19">
+        <v>41091</v>
+      </c>
+      <c r="B68">
+        <v>794726.3809135597</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="19">
+        <v>41183</v>
+      </c>
+      <c r="B69">
+        <v>801532.43939373677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="19">
+        <v>41275</v>
+      </c>
+      <c r="B70">
+        <v>814680.23768489657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="19">
+        <v>41365</v>
+      </c>
+      <c r="B71">
+        <v>813617.7990802516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="19">
+        <v>41456</v>
+      </c>
+      <c r="B72">
+        <v>769558.15449567954</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="19">
+        <v>41548</v>
+      </c>
+      <c r="B73">
+        <v>868074.94389911368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="19">
+        <v>41640</v>
+      </c>
+      <c r="B74">
+        <v>740781.70109290152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="19">
+        <v>41730</v>
+      </c>
+      <c r="B75">
+        <v>800926.39157363621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="19">
+        <v>41821</v>
+      </c>
+      <c r="B76">
+        <v>798933.85702462727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="19">
+        <v>41913</v>
+      </c>
+      <c r="B77">
+        <v>788555.52866518393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="19">
+        <v>42005</v>
+      </c>
+      <c r="B78">
+        <v>870735.31156660139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="19">
+        <v>42095</v>
+      </c>
+      <c r="B79">
+        <v>993144.92171686713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="19">
+        <v>42186</v>
+      </c>
+      <c r="B80">
+        <v>1066835.3108253686</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="19">
+        <v>42278</v>
+      </c>
+      <c r="B81">
+        <v>1069284.4558911631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="19">
+        <v>42370</v>
+      </c>
+      <c r="B82">
+        <v>1198357.9407118568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="19">
+        <v>42461</v>
+      </c>
+      <c r="B83">
+        <v>1346232.3143137321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="19">
+        <v>42552</v>
+      </c>
+      <c r="B84">
+        <v>1272805.0061946476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="19">
+        <v>42644</v>
+      </c>
+      <c r="B85">
+        <v>1197209.5706260609</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="19">
+        <v>42736</v>
+      </c>
+      <c r="B86">
+        <v>1163482.2012820749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="19">
+        <v>42826</v>
+      </c>
+      <c r="B87">
+        <v>1134164.9304447975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="19">
+        <v>42917</v>
+      </c>
+      <c r="B88">
+        <v>1037987.3760054157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="19">
+        <v>43009</v>
+      </c>
+      <c r="B89">
+        <v>1102899.1743503481</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="19">
+        <v>43101</v>
+      </c>
+      <c r="B90">
+        <v>1057761.0678480675</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="19">
+        <v>43191</v>
+      </c>
+      <c r="B91">
+        <v>1078402.9816591986</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="19">
+        <v>43282</v>
+      </c>
+      <c r="B92">
+        <v>922109.16551277647</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="19">
+        <v>43374</v>
+      </c>
+      <c r="B93">
+        <v>1168338.513599932</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="19">
+        <v>43466</v>
+      </c>
+      <c r="B94">
+        <v>1142929.8017307345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="19">
+        <v>43556</v>
+      </c>
+      <c r="B95">
+        <v>1308057.2027030592</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="19">
+        <v>43647</v>
+      </c>
+      <c r="B96">
+        <v>1314166.929736387</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="19">
+        <v>43739</v>
+      </c>
+      <c r="B97">
+        <v>1235692.5066854933</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="19">
+        <v>43831</v>
+      </c>
+      <c r="B98">
+        <v>1196960.3088472853</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="19">
+        <v>43922</v>
+      </c>
+      <c r="B99">
+        <v>1220634.991864047</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="19">
+        <v>44013</v>
+      </c>
+      <c r="B100">
+        <v>1224382.8936686022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="19">
+        <v>44105</v>
+      </c>
+      <c r="B101">
+        <v>1266575.5767640804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A33D37-FEBE-4EF4-B657-1CBA3D6B7B2D}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2794,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2803,7 +6373,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>2923643.0022970745</v>
+        <v>150863.59984176024</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +6382,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>2779926.8229126702</v>
+        <v>159263.57706952078</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +6391,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>2905218.8065582039</v>
+        <v>176256.55454828465</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +6400,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>3080473.620908082</v>
+        <v>190343.40028441345</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +6409,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>2818358.2290751208</v>
+        <v>251634.95198015761</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +6418,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>2715368.6983037135</v>
+        <v>224198.53709733783</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +6427,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>2586653.5061203423</v>
+        <v>345700.66713469336</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +6436,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>2256412.8702432956</v>
+        <v>519487.67922964494</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +6445,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>2467733.7553332825</v>
+        <v>556536.24952538603</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +6454,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>2516884.8238905002</v>
+        <v>544509.48743412318</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +6463,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>2475909.3652296141</v>
+        <v>684415.26821415196</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +6472,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>2355799.6917045368</v>
+        <v>521396.32620534021</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +6481,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>2359585.2712746193</v>
+        <v>665272.42265276774</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +6490,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>2604231.516686731</v>
+        <v>797136.25468993094</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +6499,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>2760904.5103606037</v>
+        <v>772847.31152702752</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +6508,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>2626296.0894885785</v>
+        <v>834490.62158229807</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +6517,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>3118309.7316730549</v>
+        <v>668605.48790842271</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +6526,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>3358018.3449649359</v>
+        <v>768776.33980193269</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +6535,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>3729930.7323515434</v>
+        <v>743480.13447628729</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +6544,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>3797350</v>
+        <v>895153</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +6553,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>4327182</v>
+        <v>1046000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +6562,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>4864766.9958466217</v>
+        <v>799178.40431066556</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +6571,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>5574304.3396454221</v>
+        <v>301304.96095659398</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +6580,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>5846158.2161954641</v>
+        <v>354121.47311685607</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +6589,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>5699489.0356132342</v>
+        <v>376208.33912165824</v>
       </c>
     </row>
   </sheetData>
@@ -3027,15 +6597,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56B073A-A5C9-4D03-9D74-5F03332C67A4}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5798B3E5-EC09-43DD-AB9F-7DDFD2B15880}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3045,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +6623,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>2833561.4228866855</v>
+        <v>79421.58034262406</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +6631,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>2694268.7426276295</v>
+        <v>83841.772191295444</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +6639,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>2815706.2253714614</v>
+        <v>92788.642708071828</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +6647,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>2985557.8699308033</v>
+        <v>100207.95537949025</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +6655,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>2731517.8987471694</v>
+        <v>132474.79955568179</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +6663,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>2631707.4747483395</v>
+        <v>118030.75114387034</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +6671,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>2506952.215295386</v>
+        <v>181998.41507388721</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +6679,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>2186889.2965822346</v>
+        <v>273491.44289845624</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +6687,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>2391695.8620984363</v>
+        <v>292997.49558551039</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +6695,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>2439333.1828502887</v>
+        <v>286663.4172078594</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +6703,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>2399615.2856409606</v>
+        <v>360315.53727146616</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +6711,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>2283210.8388029905</v>
+        <v>274491.71273473348</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +6719,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>2286881.8910675156</v>
+        <v>350234.81422003522</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +6727,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>2523993.2251696037</v>
+        <v>419653.68266903842</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +6735,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>2675843.658777026</v>
+        <v>406867.06090373668</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +6743,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>2545384.9572372199</v>
+        <v>439318.39659196278</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +6751,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>3022240.0553612798</v>
+        <v>351988.00473833497</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +6759,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>3254562.7503222344</v>
+        <v>404723.40337686945</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +6767,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>3615019.748091368</v>
+        <v>391406.20788740803</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +6775,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>3680360</v>
+        <v>471256</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +6783,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>3619168</v>
+        <v>670615</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +6791,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>3833790.8603411024</v>
+        <v>704798.58753981325</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +6799,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>4293845.8948669126</v>
+        <v>839507.10402197903</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +6807,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>4503252.9492191356</v>
+        <v>986666.43730156217</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +6815,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>4390274.7512999186</v>
+        <v>1048205.6859675798</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCEB035A-5B55-4F24-B622-65E52B031194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E2E574-109C-493B-AE2A-DE212006E8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F7720BA4-FA48-4863-BA12-4F2ECDF9D082}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E9EF8995-D1C6-4AF3-99DE-249BB0ECC90A}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{69D09608-DFF5-4909-9993-BE8449777855}"/>
+    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{89E9854F-AEFD-4D00-AEDB-5E889B564768}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1722,19 +1722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04313438-7068-4A21-A872-1CEADE1F49E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34836DBD-0422-477E-9288-6BD51042FCDE}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>2177088.076454516</v>
+        <v>3028696.6213632673</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>2567810.8130529216</v>
+        <v>3273601.8239796101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>1988303.522599349</v>
+        <v>3536322.1498745177</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>2469849.8921814561</v>
+        <v>3361751.4325653021</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>2473548.5959649342</v>
+        <v>3553122.3174919696</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>2348682.1188426386</v>
+        <v>3591999.7167676925</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>1880535.4255204957</v>
+        <v>3297147.2015583459</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>1603967.9752063858</v>
+        <v>3033763.8545851018</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>1509900.0629585646</v>
+        <v>3348183.3025720734</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>1593852.274622286</v>
+        <v>3425947.6561750858</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>1539984.947953685</v>
+        <v>3412867.593579961</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>1627491.0874458575</v>
+        <v>3489372.1905571036</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>1855313.5995463191</v>
+        <v>3293582.3147831326</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>1968075.5539721963</v>
+        <v>3431439.3985320223</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>1937562.8742623129</v>
+        <v>3711735.7454813719</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>1447925.5507954138</v>
+        <v>3617139.0391392587</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>1713408.5714997195</v>
+        <v>4075650.3465787941</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>1872780.1695488854</v>
+        <v>4565920.1597745055</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>2024197.3832623838</v>
+        <v>4764012.0771354465</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>2287047</v>
+        <v>4703192</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>2336188</v>
+        <v>4847703</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>2415516.6566253239</v>
+        <v>4882074.1284464085</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>2526122.0189849623</v>
+        <v>5165032.3033993607</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>2632110.7650183784</v>
+        <v>5452393.3539396049</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>2574511.2535821563</v>
+        <v>5166418.8881907323</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCA92FD-958A-4F45-949D-F89A6B3D10F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AF589A-BDAB-41C7-8672-A87671DF4622}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>413489.19559666933</v>
+        <v>699670.79552178376</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>470400.84892142564</v>
+        <v>647354.05799986003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>778201.61142732284</v>
+        <v>612780.99896056426</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>701851.96014975791</v>
+        <v>655825.32636813412</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>623494.21256565175</v>
+        <v>737881.65011925215</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>626099.11946481769</v>
+        <v>757940.66238015192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>810539.52292616444</v>
+        <v>681940.23304213362</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>728068.52490767534</v>
+        <v>759595.43208880175</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>507972.36413364322</v>
+        <v>827400.3465482546</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>482500.26872867747</v>
+        <v>860063.38071826799</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>607224.08571075113</v>
+        <v>759976.78665241238</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>561259.30619319517</v>
+        <v>843613.0228515428</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>616584.76314718928</v>
+        <v>840822.31895228114</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>618781.12605550338</v>
+        <v>878115.38618673733</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>764760.81792595191</v>
+        <v>749827.27320059587</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>681705.94285954721</v>
+        <v>785720.41148036229</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>676418.50144925714</v>
+        <v>824762.82411476399</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>691581.09604557208</v>
+        <v>853027.20948283549</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>753034.95194456703</v>
+        <v>867600.21700046002</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>564814.25740131037</v>
+        <v>758206.90324583906</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>538453.10882014642</v>
+        <v>782330.29076591053</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>670479.10522003472</v>
+        <v>896267.91784728167</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>826483.2060144376</v>
+        <v>850794.12563381926</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>514849.84533458378</v>
+        <v>810351.97528692498</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>519876.68992382934</v>
+        <v>816339.58560376859</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>526642.27077573293</v>
+        <v>805501.69538828766</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>632224.13109540427</v>
+        <v>707540.65135222918</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>363195.29465729825</v>
+        <v>518965.61597861868</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>314643.58468187408</v>
+        <v>543735.53916052356</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>402862.12370343308</v>
+        <v>531667.47230982874</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>532356.62815303018</v>
+        <v>536430.85443877522</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>491771.31458393292</v>
+        <v>572495.63944459846</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>406831.70267532597</v>
+        <v>503505.00693830429</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>381200.98001170921</v>
+        <v>537922.32139363373</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>520186.17439868656</v>
+        <v>662032.43980060739</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>331273.20268679509</v>
+        <v>534545.85808071657</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>384904.68185258372</v>
+        <v>609787.34854261565</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>427205.16331279383</v>
+        <v>592986.8435967617</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>497327.65151074994</v>
+        <v>562784.81643530983</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>421212.24154122442</v>
+        <v>533618.31013936643</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>347291.68171934405</v>
+        <v>537926.00370099372</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>399389.90411012783</v>
+        <v>548658.96180714283</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>507628.2900977722</v>
+        <v>552565.42662041157</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>417849.20021192008</v>
+        <v>591934.88118156511</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>384247.54748803633</v>
+        <v>640361.1975835989</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>402194.81202630652</v>
+        <v>588411.72586998018</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>507061.01735105185</v>
+        <v>658699.5915981459</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>473672.33275721344</v>
+        <v>568646.75989242143</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>465077.31944581133</v>
+        <v>542466.41741161817</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>473666.37230541476</v>
+        <v>514124.09238478902</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>577465.193130792</v>
+        <v>598694.68923233123</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>498342.93180177972</v>
+        <v>663020.37721375294</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>446894.89742826147</v>
+        <v>867899.62126419682</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>483912.34858680883</v>
+        <v>851188.12655503803</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>613871.09522048361</v>
+        <v>876765.13565364713</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>592313.58487072482</v>
+        <v>884359.57272253674</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>478843.82801656512</v>
+        <v>966930.81022490398</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>528823.82574548945</v>
+        <v>1019201.374594875</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>660406.27399803768</v>
+        <v>996706.18917375361</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>435786.47041663935</v>
+        <v>781654.44527532882</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>244012.88885768989</v>
+        <v>591408.85960995185</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>289627.66286910599</v>
+        <v>580786.89655719767</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>496774.34451129287</v>
+        <v>783379.07096350146</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>541783.4908653457</v>
+        <v>830283.31373213045</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>463261.11223519279</v>
+        <v>842785.14394586533</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>514557.7748138727</v>
+        <v>872370.83619518951</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>652932.6831094576</v>
+        <v>863963.52322285692</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>634240.8113208327</v>
+        <v>906176.04966184602</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>549904.40717999113</v>
+        <v>1020157.4211890965</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>633574.62089773279</v>
+        <v>1000885.0618747902</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>825855.89640463633</v>
+        <v>811581.93860865908</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>803111.82501765271</v>
+        <v>932937.66357818525</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>712515.43318206398</v>
+        <v>1024258.2843377531</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>779712.57461952139</v>
+        <v>1017745.8880120541</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>895051.60911139287</v>
+        <v>890180.51961162558</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>855922.55673974112</v>
+        <v>996745.86827503168</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>861136.4602990424</v>
+        <v>916791.07998724503</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>974229.16675269336</v>
+        <v>983518.98814131983</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>1150219.0582765213</v>
+        <v>973677.67992797715</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>1014415.3146717428</v>
+        <v>1004783.8587884611</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>979889.03249605314</v>
+        <v>1039781.4083080392</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>1021556.2153226548</v>
+        <v>1049899.9601661121</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>1331554.9903030754</v>
+        <v>971131.61115762126</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>1238068.1028300705</v>
+        <v>1059291.8263736228</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>1105474.1858093182</v>
+        <v>1174021.2760110451</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>1176839.1466706307</v>
+        <v>1166578.3102370845</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>1499209.2429791924</v>
+        <v>1090040.8385906636</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>1314933.2639614381</v>
+        <v>1161961.5336492332</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>1165783.6890707607</v>
+        <v>1239239.7474453468</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>1233999.3861137838</v>
+        <v>1184285.1581796382</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>1573552.7907735379</v>
+        <v>1092338.8112512447</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>1390366.9415390373</v>
+        <v>1285387.0542468375</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>1254871.5174689167</v>
+        <v>1311363.6644483048</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>1288252.6128015923</v>
+        <v>1362878.4809335119</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>1613970.1783435808</v>
+        <v>1228698.8059495161</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>1439466.8274332813</v>
+        <v>1265461.6720702609</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>1058543.5480696305</v>
+        <v>1326488.8555946348</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>12013.450439699442</v>
+        <v>1289393.1299960888</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>479904.86140073417</v>
+        <v>1263903.4225931147</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>719325.99147441436</v>
+        <v>1203261.8826738598</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB75165F-72EA-406B-AA7D-AA8EB961FE58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA85AA8-4CE7-4F6D-93DE-3EB8FD7F1E7D}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>605610.33734360361</v>
+        <v>1085955.7452000892</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>714323.90780057805</v>
+        <v>1178149.2651469626</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>553111.61677514133</v>
+        <v>1248205.4818203608</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>687057.50750876684</v>
+        <v>1202291.2662412543</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>688082.29144701874</v>
+        <v>1267410.3579554651</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>653358.30261759181</v>
+        <v>1266107.5740743601</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>523138.20083225286</v>
+        <v>1112526.6117365956</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>446212.1713515881</v>
+        <v>1026327.8132663032</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>420042.58747095778</v>
+        <v>1138617.9667374371</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>443399.16338535934</v>
+        <v>1161548.0703184484</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>428417.83725907234</v>
+        <v>1150056.7969069951</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>452754.4825159742</v>
+        <v>1176529.5114438133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>516134.56471641245</v>
+        <v>1114505.2608178989</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>547515.02370739356</v>
+        <v>1152723.3854724504</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>539022.98919912428</v>
+        <v>1227752.1790161366</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>402806.9833298903</v>
+        <v>1181816.7903143233</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>476661.62470511743</v>
+        <v>1338419.8661081824</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>521002.85736539983</v>
+        <v>1504365.1501083421</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>563127.5856824771</v>
+        <v>1578586.6214788076</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>636254</v>
+        <v>1558418</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>644238.00000000023</v>
+        <v>1459044</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>672573.92091732286</v>
+        <v>1681687.8829451338</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>703370.84209117061</v>
+        <v>1676032.166630696</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>732882.24058634951</v>
+        <v>1769279.6694246787</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>716844.2912876003</v>
+        <v>1676482.1078073573</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A551F06-8017-42A3-B608-805C6E435E36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3352128-447B-4B23-9BEB-717756DF6423}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>1571477.7391109124</v>
+        <v>1942740.8761631781</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>1853486.9052523435</v>
+        <v>2095452.5588326475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>1435191.9058242077</v>
+        <v>2288116.6680541569</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>1782792.3846726893</v>
+        <v>2159460.1663240478</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>1785466.3045179155</v>
+        <v>2285711.9595365045</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>1695323.8162250468</v>
+        <v>2325892.1426933324</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>1357397.2246882429</v>
+        <v>2184620.5898217503</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>1157755.8038547977</v>
+        <v>2007436.0413187987</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>1089857.4754876068</v>
+        <v>2209565.3358346364</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>1150453.1112369266</v>
+        <v>2264399.5858566375</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>1111567.1106946126</v>
+        <v>2262810.7966729659</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>1174736.6049298833</v>
+        <v>2312842.6791132903</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>1339179.0348299067</v>
+        <v>2179077.0539652337</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>1420560.5302648027</v>
+        <v>2278716.0130595719</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>1398539.8850631886</v>
+        <v>2483983.5664652353</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>1045118.5674655235</v>
+        <v>2435322.2488249354</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>1236746.9467946021</v>
+        <v>2737230.4804706117</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>1351777.3121834856</v>
+        <v>3061555.0096661635</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>1461069.7975799066</v>
+        <v>3185425.4556566388</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>1650793</v>
+        <v>3144774</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>1691949.9999999998</v>
+        <v>3388659</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>1742942.7357080011</v>
+        <v>3200386.2455012747</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>1822751.1768937916</v>
+        <v>3489000.1367686647</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>1899228.5244320289</v>
+        <v>3683113.6845149263</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>1857666.962294556</v>
+        <v>3489936.780383375</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E2E574-109C-493B-AE2A-DE212006E8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA8AB19-22C4-4600-8099-E2910558E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E9EF8995-D1C6-4AF3-99DE-249BB0ECC90A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2A9D2FCC-1497-4D80-8503-5AA130FBFC61}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{89E9854F-AEFD-4D00-AEDB-5E889B564768}"/>
+    <cellStyle name="Milliers [0] 2 2" xfId="1" xr:uid="{27B5D965-6833-4EDE-AECE-034C65A992B8}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -323,10 +323,6 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
       <sheetName val="Tables du Contenu"/>
       <sheetName val="Indications"/>
       <sheetName val="MAP"/>
@@ -375,6 +371,10 @@
       <sheetName val="RAF_RESIDUS"/>
       <sheetName val="RAF_CALAGE"/>
       <sheetName val="RAF_PREVISION"/>
+      <sheetName val="pro"/>
+      <sheetName val="ind"/>
+      <sheetName val="VA"/>
+      <sheetName val="conso"/>
       <sheetName val="ENE_CNA"/>
       <sheetName val="ENE_IND"/>
       <sheetName val="ENE_ETALONNAGE"/>
@@ -1722,14 +1722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34836DBD-0422-477E-9288-6BD51042FCDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33C751E-366F-4BE5-94AD-088AE0A7D611}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>3028696.6213632673</v>
+        <v>990321.51237977296</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>3273601.8239796101</v>
+        <v>1070415.4804183352</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>3536322.1498745177</v>
+        <v>728301.5619912335</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>3361751.4325653021</v>
+        <v>834178.08056133857</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>3553122.3174919696</v>
+        <v>1087372.5359733377</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>3591999.7167676925</v>
+        <v>762639.08575931063</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>3297147.2015583459</v>
+        <v>670980.12225690088</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>3033763.8545851018</v>
+        <v>676210.77560273965</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>3348183.3025720734</v>
+        <v>1073428.1063382323</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>3425947.6561750858</v>
+        <v>1170549.5376254548</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>3412867.593579961</v>
+        <v>1404638.3305841736</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>3489372.1905571036</v>
+        <v>1260018.8242749723</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>3293582.3147831326</v>
+        <v>1326740.5622562943</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>3431439.3985320223</v>
+        <v>1221894.191260132</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>3711735.7454813719</v>
+        <v>1070946.9989942736</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>3617139.0391392587</v>
+        <v>942444.29300389811</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>4075650.3465787941</v>
+        <v>1063111.2264746665</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>4565920.1597745055</v>
+        <v>1151682.7509259763</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>4764012.0771354465</v>
+        <v>1101630.9827816947</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>4703192</v>
+        <v>1275255</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>4847703</v>
+        <v>1098305</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>4882074.1284464085</v>
+        <v>1098305</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>5165032.3033993607</v>
+        <v>1237678.4097270947</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>5452393.3539396049</v>
+        <v>1473204.2116241555</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>5166418.8881907323</v>
+        <v>1095229.303664732</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AF589A-BDAB-41C7-8672-A87671DF4622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23064F5-2471-4F98-8C28-C8B9D39CD23A}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>699670.79552178376</v>
+        <v>1000107.9307687287</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>647354.05799986003</v>
+        <v>813274.58106468047</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>612780.99896056426</v>
+        <v>626441.23136063211</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>655825.32636813412</v>
+        <v>734511.50226787559</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>737881.65011925215</v>
+        <v>758323.59585760732</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>757940.66238015192</v>
+        <v>840750.07366821694</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>681940.23304213362</v>
+        <v>923176.55147882644</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>759595.43208880175</v>
+        <v>917681.45295811887</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>827400.3465482546</v>
+        <v>486470.23831790633</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>860063.38071826799</v>
+        <v>632751.49879112281</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>759976.78665241238</v>
+        <v>676976.06591093249</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>843613.0228515428</v>
+        <v>544302.36455150344</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>840822.31895228114</v>
+        <v>972632.43816519203</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>878115.38618673733</v>
+        <v>939661.84704094846</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>749827.27320059587</v>
+        <v>906691.25591670431</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>785720.41148036229</v>
+        <v>879215.76331316784</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>824762.82411476399</v>
+        <v>1246685.9071956915</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>853027.20948283549</v>
+        <v>1390953.0536615688</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>867600.21700046002</v>
+        <v>1050700.3497326132</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>758206.90324583906</v>
+        <v>1132360.9986755624</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>782330.29076591053</v>
+        <v>631936.32988133945</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>896267.91784728167</v>
+        <v>679560.51706080278</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>850794.12563381926</v>
+        <v>771145.49240592425</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>810351.97528692498</v>
+        <v>879215.76331316796</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>816339.58560376859</v>
+        <v>756313.3139223305</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>805501.69538828766</v>
+        <v>681115.81425892492</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>707540.65135222918</v>
+        <v>685454.13154719851</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>518965.61597861868</v>
+        <v>482999.32476110605</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>543735.53916052356</v>
+        <v>615451.03431921755</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>531667.47230982874</v>
+        <v>657580.12297797366</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>536430.85443877522</v>
+        <v>664906.92100558325</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>572495.63944459846</v>
+        <v>978127.53668589925</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>503505.00693830429</v>
+        <v>952483.74358926539</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>537922.32139363373</v>
+        <v>923176.55147882609</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>662032.43980060739</v>
+        <v>892037.65986148512</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>534545.85808071657</v>
+        <v>1089861.2066069476</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>609787.34854261565</v>
+        <v>870057.26577865588</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>592986.8435967617</v>
+        <v>1245555.6646936545</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>562784.81643530983</v>
+        <v>1077039.3100586308</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>533618.31013936643</v>
+        <v>1056890.615482704</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>537926.00370099372</v>
+        <v>1178515.4627410255</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>548658.96180714283</v>
+        <v>1182728.3716069008</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>552565.42662041157</v>
+        <v>1005969.3691908162</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>591934.88118156511</v>
+        <v>1138767.5834412426</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>640361.1975835989</v>
+        <v>920063.72033100191</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>588411.72586998018</v>
+        <v>1072679.8052997568</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>658699.5915981459</v>
+        <v>1125291.8929049054</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>568646.75989242143</v>
+        <v>884627.93483109295</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>542466.41741161817</v>
+        <v>699749.59555758315</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>514124.09238478902</v>
+        <v>1144815.3668506786</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>598694.68923233123</v>
+        <v>1105801.8391470877</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>663020.37721375294</v>
+        <v>1264249.4610423064</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>867899.62126419682</v>
+        <v>968445.68615854834</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>851188.12655503803</v>
+        <v>823633.73591681162</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>876765.13565364713</v>
+        <v>1176426.1867035949</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>884359.57272253674</v>
+        <v>945930.92577339546</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>966930.81022490398</v>
+        <v>795098.61670373112</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>1019201.374594875</v>
+        <v>916653.20835892786</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>996706.18917375361</v>
+        <v>907382.85334839148</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>781654.44527532882</v>
+        <v>963249.70343915641</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>591408.85960995185</v>
+        <v>431427.54037674918</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>580786.89655719767</v>
+        <v>369966.53573376074</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>783379.07096350146</v>
+        <v>751449.32714093931</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>830283.31373213045</v>
+        <v>746289.71330065699</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>842785.14394586533</v>
+        <v>720871.09224771557</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>872370.83619518951</v>
+        <v>1081164.9894799686</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>863963.52322285692</v>
+        <v>922290.22699134727</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>906176.04966184602</v>
+        <v>953250.14758077799</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>1020157.4211890965</v>
+        <v>683534.08508741891</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>1000885.0618747902</v>
+        <v>870506.00799628056</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>811581.93860865908</v>
+        <v>1230548.1593332535</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>932937.66357818525</v>
+        <v>1199379.9951734564</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>1024258.2843377531</v>
+        <v>681091.98031742696</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>1017745.8880120541</v>
+        <v>841382.46239189501</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>890180.51961162558</v>
+        <v>1017309.0362030774</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>996745.86827503168</v>
+        <v>926087.69392797025</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>916791.07998724503</v>
+        <v>1101113.6546200849</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>983518.98814131983</v>
+        <v>977314.11923495145</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>973677.67992797715</v>
+        <v>1095856.0032444424</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>1004783.8587884611</v>
+        <v>825716.22290052124</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>1039781.4083080392</v>
+        <v>797890.91839350585</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>1049899.9601661121</v>
+        <v>1100285.8594182963</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>971131.61115762126</v>
+        <v>1014009.6871968094</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>1059291.8263736228</v>
+        <v>929522.75785041205</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>1174021.2760110451</v>
+        <v>855870.07286193897</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>1166578.3102370845</v>
+        <v>988135.92875113327</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>1090040.8385906636</v>
+        <v>1002867.0304461966</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>1161961.5336492332</v>
+        <v>994836.19079975481</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>1239239.7474453468</v>
+        <v>1063950.9477360607</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>1184285.1581796382</v>
+        <v>1069774.433664954</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>1092338.8112512447</v>
+        <v>1117483.4168141712</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>1285387.0542468375</v>
+        <v>1071218.9649397545</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>1311363.6644483048</v>
+        <v>1220653.3189890692</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>1362878.4809335119</v>
+        <v>1333519.5802183093</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>1228698.8059495161</v>
+        <v>1315137.49670034</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>1265461.6720702609</v>
+        <v>1325900.1869863209</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>1326488.8555946348</v>
+        <v>1301124.2243798147</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>1289393.1299960888</v>
+        <v>1176888.9193337392</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>1263903.4225931147</v>
+        <v>1215265.4916465275</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>1203261.8826738598</v>
+        <v>1203895.2144892709</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA85AA8-4CE7-4F6D-93DE-3EB8FD7F1E7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE93BE36-BE7A-4696-A9D3-5A3120BAC039}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>1085955.7452000892</v>
+        <v>96430.001442501321</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>1178149.2651469626</v>
+        <v>104230.07112336531</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>1248205.4818203608</v>
+        <v>70917.791884402977</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>1202291.2662412543</v>
+        <v>81226.759467988275</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>1267410.3579554651</v>
+        <v>105880.99116181012</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>1266107.5740743601</v>
+        <v>74260.045953960042</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>1112526.6117365956</v>
+        <v>65334.432925742702</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>1026327.8132663032</v>
+        <v>65843.857966037118</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>1138617.9667374371</v>
+        <v>104519.83692439052</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>1161548.0703184484</v>
+        <v>113975.89702808461</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>1150056.7969069951</v>
+        <v>136769.92918836116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>1176529.5114438133</v>
+        <v>122687.53587061702</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>1114505.2608178989</v>
+        <v>129184.9637760038</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>1152723.3854724504</v>
+        <v>118975.96520555997</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>1227752.1790161366</v>
+        <v>104278.0749764127</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>1181816.7903143233</v>
+        <v>91765.74361954676</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>1338419.8661081824</v>
+        <v>103515.06481990661</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>1504365.1501083421</v>
+        <v>112138.81782686792</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>1578586.6214788076</v>
+        <v>107265.34712158947</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>1558418</v>
+        <v>124171</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>1459044</v>
+        <v>-100502</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>1681687.8829451338</v>
+        <v>-100502</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>1676032.166630696</v>
+        <v>513352.45551575779</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>1769279.6694246787</v>
+        <v>611041.60302850651</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>1676482.1078073573</v>
+        <v>454268.77286570461</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3352128-447B-4B23-9BEB-717756DF6423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A580A26-B049-4500-B76A-12111831ECE4}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>1942740.8761631781</v>
+        <v>893891.51093727164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>2095452.5588326475</v>
+        <v>966185.40929496987</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>2288116.6680541569</v>
+        <v>657383.77010683052</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>2159460.1663240478</v>
+        <v>752951.3210933503</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>2285711.9595365045</v>
+        <v>981491.54481152759</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>2325892.1426933324</v>
+        <v>688379.03980535059</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>2184620.5898217503</v>
+        <v>605645.68933115818</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>2007436.0413187987</v>
+        <v>610366.91763670254</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>2209565.3358346364</v>
+        <v>968908.26941384177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>2264399.5858566375</v>
+        <v>1056573.6405973702</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>2262810.7966729659</v>
+        <v>1267868.4013958124</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>2312842.6791132903</v>
+        <v>1137331.2884043553</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>2179077.0539652337</v>
+        <v>1197555.5984802905</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>2278716.0130595719</v>
+        <v>1102918.226054572</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>2483983.5664652353</v>
+        <v>966668.9240178609</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>2435322.2488249354</v>
+        <v>850678.54938435135</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>2737230.4804706117</v>
+        <v>959596.1616547599</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>3061555.0096661635</v>
+        <v>1039543.9330991084</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>3185425.4556566388</v>
+        <v>994365.63566010527</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>3144774</v>
+        <v>1151084</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>3388659</v>
+        <v>1198807</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>3200386.2455012747</v>
+        <v>1198807</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>3489000.1367686647</v>
+        <v>724325.95421133691</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>3683113.6845149263</v>
+        <v>862162.60859564901</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>3489936.780383375</v>
+        <v>640960.53079902742</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA8AB19-22C4-4600-8099-E2910558E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F0A2C2-16EE-49CE-991A-749CC7AA90A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2A9D2FCC-1497-4D80-8503-5AA130FBFC61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7390D2D0-6F47-4B81-9624-78B1E870E70C}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2" xfId="1" xr:uid="{27B5D965-6833-4EDE-AECE-034C65A992B8}"/>
+    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{BF347267-79BB-47A5-932C-D59213106B3F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -323,6 +323,10 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="pro"/>
+      <sheetName val="ind"/>
+      <sheetName val="VA"/>
+      <sheetName val="conso"/>
       <sheetName val="Tables du Contenu"/>
       <sheetName val="Indications"/>
       <sheetName val="MAP"/>
@@ -371,10 +375,6 @@
       <sheetName val="RAF_RESIDUS"/>
       <sheetName val="RAF_CALAGE"/>
       <sheetName val="RAF_PREVISION"/>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
       <sheetName val="ENE_CNA"/>
       <sheetName val="ENE_IND"/>
       <sheetName val="ENE_ETALONNAGE"/>
@@ -1722,19 +1722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33C751E-366F-4BE5-94AD-088AE0A7D611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259CC3B-57D5-4ED9-84FD-7C47B76D91ED}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>990321.51237977296</v>
+        <v>3952044.1676466661</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>1070415.4804183352</v>
+        <v>4294786.304562727</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>728301.5619912335</v>
+        <v>4826741.8672162853</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>834178.08056133857</v>
+        <v>5370030.689804974</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>1087372.5359733377</v>
+        <v>4760326.689667305</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>762639.08575931063</v>
+        <v>4813983.07266118</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>670980.12225690088</v>
+        <v>4172861.8119076509</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>676210.77560273965</v>
+        <v>3670255.1596986833</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>1073428.1063382323</v>
+        <v>3305657.1266281209</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>1170549.5376254548</v>
+        <v>2783778.3965436206</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>1404638.3305841736</v>
+        <v>2762758.9136465727</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>1260018.8242749723</v>
+        <v>2652629.3266975121</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>1326740.5622562943</v>
+        <v>2515706.0771908681</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>1221894.191260132</v>
+        <v>2688116.4137672256</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>1070946.9989942736</v>
+        <v>2801704.2516777464</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>942444.29300389811</v>
+        <v>2478083.5272700186</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>1063111.2264746665</v>
+        <v>2697868.3770878292</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>1151682.7509259763</v>
+        <v>3135121.3040956915</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>1101630.9827816947</v>
+        <v>3417985.2298765611</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>1275255</v>
+        <v>4082449</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>1098305</v>
+        <v>4453107</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>1098305</v>
+        <v>4650557.5002611959</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>1237678.4097270947</v>
+        <v>4645962.4532787791</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>1473204.2116241555</v>
+        <v>4904277.9656810788</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>1095229.303664732</v>
+        <v>4806192.4063674575</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23064F5-2471-4F98-8C28-C8B9D39CD23A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C176A0-60F9-4E7A-8441-D4442F81CA5A}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>1000107.9307687287</v>
+        <v>1125023.3425613658</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>813274.58106468047</v>
+        <v>1090226.8083544241</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>626441.23136063211</v>
+        <v>1160122.3252882136</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>734511.50226787559</v>
+        <v>1187999.8424038079</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>758323.59585760732</v>
+        <v>1195705.4459380703</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>840750.07366821694</v>
+        <v>1233814.846493572</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>923176.55147882644</v>
+        <v>1284784.2549444556</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>917681.45295811887</v>
+        <v>1244827.5131969959</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>486470.23831790633</v>
+        <v>1359857.5855413312</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>632751.49879112281</v>
+        <v>1337703.1473991002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>676976.06591093249</v>
+        <v>1379778.3788386625</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>544302.36455150344</v>
+        <v>1496034.8920433859</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>972632.43816519203</v>
+        <v>1467803.8803014997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>939661.84704094846</v>
+        <v>1395009.405350667</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>906691.25591670431</v>
+        <v>1837792.0959526207</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>879215.76331316784</v>
+        <v>1500096.9284918008</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>1246685.9071956915</v>
+        <v>1424286.577469293</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>1390953.0536615688</v>
+        <v>1482369.7913262129</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>1050700.3497326132</v>
+        <v>1365931.5856525174</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>1132360.9986755624</v>
+        <v>1224097.3359123014</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>631936.32988133945</v>
+        <v>1342546.5641681754</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>679560.51706080278</v>
+        <v>1451626.8007279362</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>771145.49240592425</v>
+        <v>1439143.7093396643</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>879215.76331316796</v>
+        <v>1325324.5208833257</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>756313.3139223305</v>
+        <v>1377534.6375781954</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>681115.81425892492</v>
+        <v>1336933.9640927704</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>685454.13154719851</v>
+        <v>1215159.1550681093</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>482999.32476110605</v>
+        <v>888719.72979071073</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>615451.03431921755</v>
+        <v>947154.22752379789</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>657580.12297797366</v>
+        <v>1053359.6610000415</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>664906.92100558325</v>
+        <v>1053601.3131438072</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>978127.53668589925</v>
+        <v>1183879.1343040287</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>952483.74358926539</v>
+        <v>886161.86016754771</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>923176.55147882609</v>
+        <v>1018336.5156854927</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>892037.65986148512</v>
+        <v>1042196.1005918888</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>1089861.2066069476</v>
+        <v>870303.40782873635</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>870057.26577865588</v>
+        <v>741955.56728148379</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>1245555.6646936545</v>
+        <v>837744.3335764159</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>1077039.3100586308</v>
+        <v>847787.94528842263</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>1056890.615482704</v>
+        <v>786903.67809874588</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>1178515.4627410255</v>
+        <v>802072.76943230117</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>1182728.3716069008</v>
+        <v>851362.72455269506</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>1005969.3691908162</v>
+        <v>786784.15724300384</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>1138767.5834412426</v>
+        <v>749900.9584384599</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>920063.72033100191</v>
+        <v>744586.93414252496</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>1072679.8052997568</v>
+        <v>796669.17300547229</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>1125291.8929049054</v>
+        <v>752916.74416807014</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>884627.93483109295</v>
+        <v>768782.60350286472</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>699749.59555758315</v>
+        <v>747866.17004148848</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>1144815.3668506786</v>
+        <v>769966.60854473023</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>1105801.8391470877</v>
+        <v>726719.77704931854</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>1264249.4610423064</v>
+        <v>660299.46205897629</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>968445.68615854834</v>
+        <v>672838.28628779622</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>823633.73591681162</v>
+        <v>788275.32869607979</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>1176426.1867035949</v>
+        <v>813109.66628122586</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>945930.92577339546</v>
+        <v>829708.63634938269</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>795098.61670373112</v>
+        <v>787505.73799767962</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>916653.20835892786</v>
+        <v>809796.20612291794</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>907382.85334839148</v>
+        <v>816430.04867302976</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>963249.70343915641</v>
+        <v>753608.94974844484</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>431427.54037674918</v>
+        <v>450602.10558270244</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>369966.53573376074</v>
+        <v>506079.1608282841</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>751449.32714093931</v>
+        <v>737443.43631750613</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>746289.71330065699</v>
+        <v>777621.5707574063</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>720871.09224771557</v>
+        <v>829651.77934912872</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>1081164.9894799686</v>
+        <v>862380.27750158904</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>922290.22699134727</v>
+        <v>811096.74753811222</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>953250.14758077799</v>
+        <v>859277.53055700765</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>683534.08508741891</v>
+        <v>869152.25503955118</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>870506.00799628056</v>
+        <v>909758.4638087136</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>1230548.1593332535</v>
+        <v>888588.54630121484</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>1199379.9951734564</v>
+        <v>908862.42610672722</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>681091.98031742696</v>
+        <v>904840.55841901805</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>841382.46239189501</v>
+        <v>911840.31930494553</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>1017309.0362030774</v>
+        <v>927880.6488524843</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>926087.69392797025</v>
+        <v>894427.61105192313</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>1101113.6546200849</v>
+        <v>988728.01557673444</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>977314.11923495145</v>
+        <v>1021501.1402318884</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>1095856.0032444424</v>
+        <v>997463.90104820009</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>825716.22290052124</v>
+        <v>992306.94314317708</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>797890.91839350585</v>
+        <v>1082714.8880196426</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>1100285.8594182963</v>
+        <v>1084952.4636289014</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>1014009.6871968094</v>
+        <v>1012434.4758852927</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>929522.75785041205</v>
+        <v>1060034.597970044</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>855870.07286193897</v>
+        <v>1099464.8402971295</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>988135.92875113327</v>
+        <v>1092538.1688911328</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>1002867.0304461966</v>
+        <v>1118404.576937367</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>994836.19079975481</v>
+        <v>1161378.2554058982</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>1063950.9477360607</v>
+        <v>1198303.8728400946</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>1069774.433664954</v>
+        <v>1218834.1314740493</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>1117483.4168141712</v>
+        <v>1206416.4205613739</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>1071218.9649397545</v>
+        <v>1272963.6485008239</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>1220653.3189890692</v>
+        <v>1288033.5216520799</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>1333519.5802183093</v>
+        <v>1304014.3781267575</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>1315137.49670034</v>
+        <v>1353567.6410657498</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>1325900.1869863209</v>
+        <v>1305826.9349690753</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>1301124.2243798147</v>
+        <v>1203341.8631967304</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>1176888.9193337392</v>
+        <v>890784.80513578327</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>1215265.4916465275</v>
+        <v>1048299.1538683418</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>1203895.2144892709</v>
+        <v>1221523.9630465698</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE93BE36-BE7A-4696-A9D3-5A3120BAC039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F55B84-16FA-46FD-A51E-2793911BAEEE}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>96430.001442501321</v>
+        <v>2642666.0993840895</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>104230.07112336531</v>
+        <v>2871852.2088712617</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>70917.791884402977</v>
+        <v>3227558.9520076038</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>81226.759467988275</v>
+        <v>3590850.0645389725</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>105880.99116181012</v>
+        <v>3183154.6143621486</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>74260.045953960042</v>
+        <v>3219032.0355198393</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>65334.432925742702</v>
+        <v>2790319.6382269263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>65843.857966037118</v>
+        <v>2454238.6598963807</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>104519.83692439052</v>
+        <v>2210438.9873198112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>113975.89702808461</v>
+        <v>1861463.2732773945</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>136769.92918836116</v>
+        <v>1847408.7957206869</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>122687.53587061702</v>
+        <v>1773766.4530909881</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>129184.9637760038</v>
+        <v>1682208.3619771891</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>118975.96520555997</v>
+        <v>1797497.7881249469</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>104278.0749764127</v>
+        <v>1873451.9697942403</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>91765.74361954676</v>
+        <v>1657051.2409536382</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>103515.06481990661</v>
+        <v>1804015.8055968112</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>112138.81782686792</v>
+        <v>2096399.0042751729</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>107265.34712158947</v>
+        <v>2285544.5056592817</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>124171</v>
+        <v>2729862</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>-100502</v>
+        <v>3024682</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>-100502</v>
+        <v>2603708.3872116972</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>513352.45551575779</v>
+        <v>2615908.245910849</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>611041.60302850651</v>
+        <v>2762835.7177630304</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>454268.77286570461</v>
+        <v>2707579.0034077698</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A580A26-B049-4500-B76A-12111831ECE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459560B8-B948-4779-97C3-C842153FC3E1}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>893891.51093727164</v>
+        <v>1309378.0682625766</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>966185.40929496987</v>
+        <v>1422934.0956914653</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>657383.77010683052</v>
+        <v>1599182.9152086813</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>752951.3210933503</v>
+        <v>1779180.6252660013</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>981491.54481152759</v>
+        <v>1577172.0753051562</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>688379.03980535059</v>
+        <v>1594951.037141341</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>605645.68933115818</v>
+        <v>1382542.1736807246</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>610366.91763670254</v>
+        <v>1216016.4998023026</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>968908.26941384177</v>
+        <v>1095218.1393083099</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>1056573.6405973702</v>
+        <v>922315.12326622615</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>1267868.4013958124</v>
+        <v>915350.11792588583</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>1137331.2884043553</v>
+        <v>878862.87360652385</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>1197555.5984802905</v>
+        <v>833497.71521367901</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>1102918.226054572</v>
+        <v>890618.62564227881</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>966668.9240178609</v>
+        <v>928252.28188350599</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>850678.54938435135</v>
+        <v>821032.28631638025</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>959596.1616547599</v>
+        <v>893852.57149101794</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>1039543.9330991084</v>
+        <v>1038722.2998205186</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>994365.63566010527</v>
+        <v>1132440.7242172793</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>1151084</v>
+        <v>1352587</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>1198807</v>
+        <v>1428424.9999999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>1198807</v>
+        <v>2046849.1130494985</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>724325.95421133691</v>
+        <v>2030054.2073679301</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>862162.60859564901</v>
+        <v>2141442.2479180484</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>640960.53079902742</v>
+        <v>2098613.4029596876</v>
       </c>
     </row>
   </sheetData>

--- a/VA_AGV.xlsx
+++ b/VA_AGV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F0A2C2-16EE-49CE-991A-749CC7AA90A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{819332EF-2913-4B70-AB05-10A667425B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7390D2D0-6F47-4B81-9624-78B1E870E70C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9B395667-8080-4DAE-89F7-B50939F0A6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="pro" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{BF347267-79BB-47A5-932C-D59213106B3F}"/>
+    <cellStyle name="Milliers [0] 2 2 2" xfId="1" xr:uid="{A1F2F8C2-6EB9-4585-9FB9-2D6A674CFDBB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1722,14 +1722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5259CC3B-57D5-4ED9-84FD-7C47B76D91ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63CCBA6-C4D0-4A37-B308-806776C307F6}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1750,7 @@
         <v>1996</v>
       </c>
       <c r="B2" s="1">
-        <v>3952044.1676466661</v>
+        <v>1268339.4477639399</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
         <v>1997</v>
       </c>
       <c r="B3" s="1">
-        <v>4294786.304562727</v>
+        <v>1181742.0247480848</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>1998</v>
       </c>
       <c r="B4" s="1">
-        <v>4826741.8672162853</v>
+        <v>1255521.6920803196</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
         <v>1999</v>
       </c>
       <c r="B5" s="1">
-        <v>5370030.689804974</v>
+        <v>1341359.1348832971</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>4760326.689667305</v>
+        <v>1418177.9615245394</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>2001</v>
       </c>
       <c r="B7" s="1">
-        <v>4813983.07266118</v>
+        <v>1456786.3016296215</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>2002</v>
       </c>
       <c r="B8" s="1">
-        <v>4172861.8119076509</v>
+        <v>1412661.8168779463</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="1">
-        <v>3670255.1596986833</v>
+        <v>1448417.6911906502</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1814,7 +1814,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1">
-        <v>3305657.1266281209</v>
+        <v>1484911.6425653687</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="1">
-        <v>2783778.3965436206</v>
+        <v>1537487.4391951556</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="1">
-        <v>2762758.9136465727</v>
+        <v>1488682.1449741309</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="1">
-        <v>2652629.3266975121</v>
+        <v>1501662.42919933</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="1">
-        <v>2515706.0771908681</v>
+        <v>1593615.797616252</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="1">
-        <v>2688116.4137672256</v>
+        <v>1625302.9323412769</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="1">
-        <v>2801704.2516777464</v>
+        <v>1504966.1298186895</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="1">
-        <v>2478083.5272700186</v>
+        <v>1449487.3038074195</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
         <v>2012</v>
       </c>
       <c r="B18" s="1">
-        <v>2697868.3770878292</v>
+        <v>1420710.0361085436</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>2013</v>
       </c>
       <c r="B19" s="1">
-        <v>3135121.3040956915</v>
+        <v>1491774.0410095686</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>2014</v>
       </c>
       <c r="B20" s="1">
-        <v>3417985.2298765611</v>
+        <v>1839728.8443069814</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1">
-        <v>4082449</v>
+        <v>1891618</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>2016</v>
       </c>
       <c r="B22" s="1">
-        <v>4453107</v>
+        <v>1884039</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1918,7 +1918,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="1">
-        <v>4650557.5002611959</v>
+        <v>2035994.6198774669</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>2018</v>
       </c>
       <c r="B24" s="1">
-        <v>4645962.4532787791</v>
+        <v>2151223.5797187076</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>2019</v>
       </c>
       <c r="B25" s="1">
-        <v>4904277.9656810788</v>
+        <v>2213602.0023530093</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>2020</v>
       </c>
       <c r="B26" s="1">
-        <v>4806192.4063674575</v>
+        <v>2258851.356632086</v>
       </c>
     </row>
   </sheetData>
@@ -1951,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C176A0-60F9-4E7A-8441-D4442F81CA5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B374BFE-8BAB-4F90-BBFC-5DAED42150E8}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>35065</v>
       </c>
       <c r="B2">
-        <v>1125023.3425613658</v>
+        <v>296815.1286447852</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>35156</v>
       </c>
       <c r="B3">
-        <v>1090226.8083544241</v>
+        <v>632956.36367052561</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>35247</v>
       </c>
       <c r="B4">
-        <v>1160122.3252882136</v>
+        <v>626505.23194503936</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>35339</v>
       </c>
       <c r="B5">
-        <v>1187999.8424038079</v>
+        <v>679955.22614140587</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>35431</v>
       </c>
       <c r="B6">
-        <v>1195705.4459380703</v>
+        <v>276549.71365822741</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>35521</v>
       </c>
       <c r="B7">
-        <v>1233814.846493572</v>
+        <v>589740.49581118638</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>35612</v>
       </c>
       <c r="B8">
-        <v>1284784.2549444556</v>
+        <v>583729.82297385321</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>35704</v>
       </c>
       <c r="B9">
-        <v>1244827.5131969959</v>
+        <v>633530.4536139745</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>35796</v>
       </c>
       <c r="B10">
-        <v>1359857.5855413312</v>
+        <v>293815.53432571044</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>35886</v>
       </c>
       <c r="B11">
-        <v>1337703.1473991002</v>
+        <v>626559.74796782504</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>35977</v>
       </c>
       <c r="B12">
-        <v>1379778.3788386625</v>
+        <v>620173.81095853727</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>36069</v>
       </c>
       <c r="B13">
-        <v>1496034.8920433859</v>
+        <v>673083.64300185547</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>36161</v>
       </c>
       <c r="B14">
-        <v>1467803.8803014997</v>
+        <v>316340.56361062248</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>36251</v>
       </c>
       <c r="B15">
-        <v>1395009.405350667</v>
+        <v>674594.22886792955</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>36342</v>
       </c>
       <c r="B16">
-        <v>1837792.0959526207</v>
+        <v>667718.72135830752</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36434</v>
       </c>
       <c r="B17">
-        <v>1500096.9284918008</v>
+        <v>724684.82469092519</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
         <v>36526</v>
       </c>
       <c r="B18">
-        <v>1424286.577469293</v>
+        <v>321235.7434833172</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>36617</v>
       </c>
       <c r="B19">
-        <v>1482369.7913262129</v>
+        <v>685033.16864125268</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>36708</v>
       </c>
       <c r="B20">
-        <v>1365931.5856525174</v>
+        <v>678051.26679006545</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>36800</v>
       </c>
       <c r="B21">
-        <v>1224097.3359123014</v>
+        <v>735898.88629397925</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>36892</v>
       </c>
       <c r="B22">
-        <v>1342546.5641681754</v>
+        <v>326307.65537126985</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>36982</v>
       </c>
       <c r="B23">
-        <v>1451626.8007279362</v>
+        <v>695848.98830689269</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>37073</v>
       </c>
       <c r="B24">
-        <v>1439143.7093396643</v>
+        <v>688756.85093018273</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2160,7 @@
         <v>37165</v>
       </c>
       <c r="B25">
-        <v>1325324.5208833257</v>
+        <v>747517.81222436635</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>37257</v>
       </c>
       <c r="B26">
-        <v>1377534.6375781954</v>
+        <v>316424.14867733797</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>37347</v>
       </c>
       <c r="B27">
-        <v>1336933.9640927704</v>
+        <v>674772.47348816507</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>37438</v>
       </c>
       <c r="B28">
-        <v>1215159.1550681093</v>
+        <v>667895.14929797756</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>37530</v>
       </c>
       <c r="B29">
-        <v>888719.72979071073</v>
+        <v>724876.30449588026</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>37622</v>
       </c>
       <c r="B30">
-        <v>947154.22752379789</v>
+        <v>333162.00182239292</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
         <v>37712</v>
       </c>
       <c r="B31">
-        <v>1053359.6610000415</v>
+        <v>710465.83827963448</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>37803</v>
       </c>
       <c r="B32">
-        <v>1053601.3131438072</v>
+        <v>703224.72503349977</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>37895</v>
       </c>
       <c r="B33">
-        <v>1183879.1343040287</v>
+        <v>763220.00608660234</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2232,7 @@
         <v>37987</v>
       </c>
       <c r="B34">
-        <v>886161.86016754771</v>
+        <v>334065.98837462143</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
         <v>38078</v>
       </c>
       <c r="B35">
-        <v>1018336.5156854927</v>
+        <v>712393.58382117108</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>38169</v>
       </c>
       <c r="B36">
-        <v>1042196.1005918888</v>
+        <v>705132.82286922983</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>38261</v>
       </c>
       <c r="B37">
-        <v>870303.40782873635</v>
+        <v>765290.89237651567</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>38353</v>
       </c>
       <c r="B38">
-        <v>741955.56728148379</v>
+        <v>334989.62702592794</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>38443</v>
       </c>
       <c r="B39">
-        <v>837744.3335764159</v>
+        <v>714363.2373383143</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>38534</v>
       </c>
       <c r="B40">
-        <v>847787.94528842263</v>
+        <v>707082.40155180008</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>38626</v>
       </c>
       <c r="B41">
-        <v>786903.67809874588</v>
+        <v>767406.79843187612</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>38718</v>
       </c>
       <c r="B42">
-        <v>802072.76943230117</v>
+        <v>324355.87035826361</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>38808</v>
       </c>
       <c r="B43">
-        <v>851362.72455269506</v>
+        <v>691686.81924853066</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>38899</v>
       </c>
       <c r="B44">
-        <v>786784.15724300384</v>
+        <v>684637.10296496458</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>38991</v>
       </c>
       <c r="B45">
-        <v>749900.9584384599</v>
+        <v>743046.58993203379</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>39083</v>
       </c>
       <c r="B46">
-        <v>744586.93414252496</v>
+        <v>366939.75338007737</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>39173</v>
       </c>
       <c r="B47">
-        <v>796669.17300547229</v>
+        <v>782496.67746406433</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>39264</v>
       </c>
       <c r="B48">
-        <v>752916.74416807014</v>
+        <v>774521.42129979632</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>39356</v>
       </c>
       <c r="B49">
-        <v>768782.60350286472</v>
+        <v>840599.34589255904</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>39448</v>
       </c>
       <c r="B50">
-        <v>747866.17004148848</v>
+        <v>395516.07430650853</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>39539</v>
       </c>
       <c r="B51">
-        <v>769966.60854473023</v>
+        <v>843435.49909105152</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>39630</v>
       </c>
       <c r="B52">
-        <v>726719.77704931854</v>
+        <v>834839.15056074434</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>39722</v>
       </c>
       <c r="B53">
-        <v>660299.46205897629</v>
+        <v>906063.05337451329</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>39814</v>
       </c>
       <c r="B54">
-        <v>672838.28628779622</v>
+        <v>403380.43606246635</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>39904</v>
       </c>
       <c r="B55">
-        <v>788275.32869607979</v>
+        <v>860206.20024219714</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>39995</v>
       </c>
       <c r="B56">
-        <v>813109.66628122586</v>
+        <v>851438.92365355243</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>40087</v>
       </c>
       <c r="B57">
-        <v>829708.63634938269</v>
+        <v>924079.0281688089</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>40179</v>
       </c>
       <c r="B58">
-        <v>787505.73799767962</v>
+        <v>381715.25164920161</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>40269</v>
       </c>
       <c r="B59">
-        <v>809796.20612291794</v>
+        <v>814005.33303208067</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>40360</v>
       </c>
       <c r="B60">
-        <v>816430.04867302976</v>
+        <v>805708.93863581272</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>40452</v>
       </c>
       <c r="B61">
-        <v>753608.94974844484</v>
+        <v>874447.61135263159</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>40544</v>
       </c>
       <c r="B62">
-        <v>450602.10558270244</v>
+        <v>379497.4362782886</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>40634</v>
       </c>
       <c r="B63">
-        <v>506079.1608282841</v>
+        <v>809275.8559367751</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>40725</v>
       </c>
       <c r="B64">
-        <v>737443.43631750613</v>
+        <v>801027.66467343329</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>40817</v>
       </c>
       <c r="B65">
-        <v>777621.5707574063</v>
+        <v>869366.95674127678</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>40909</v>
       </c>
       <c r="B66">
-        <v>829651.77934912872</v>
+        <v>371963.11756702355</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>41000</v>
       </c>
       <c r="B67">
-        <v>862380.27750158904</v>
+        <v>793208.96946777613</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>41091</v>
       </c>
       <c r="B68">
-        <v>811096.74753811222</v>
+        <v>785124.53293853451</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>41183</v>
       </c>
       <c r="B69">
-        <v>859277.53055700765</v>
+        <v>852107.05692912615</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>41275</v>
       </c>
       <c r="B70">
-        <v>869152.25503955118</v>
+        <v>455373.53176948422</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>41365</v>
       </c>
       <c r="B71">
-        <v>909758.4638087136</v>
+        <v>971081.1443360073</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>41456</v>
       </c>
       <c r="B72">
-        <v>888588.54630121484</v>
+        <v>961183.82322856318</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>41548</v>
       </c>
       <c r="B73">
-        <v>908862.42610672722</v>
+        <v>1043186.7613583996</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>41640</v>
       </c>
       <c r="B74">
-        <v>904840.55841901805</v>
+        <v>530507.73802252766</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>41730</v>
       </c>
       <c r="B75">
-        <v>911840.31930494553</v>
+        <v>1131304.3586793416</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>41821</v>
       </c>
       <c r="B76">
-        <v>927880.6488524843</v>
+        <v>1119774.0323277195</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>41913</v>
       </c>
       <c r="B77">
-        <v>894427.61105192313</v>
+        <v>1215307.0182907304</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>42005</v>
       </c>
       <c r="B78">
-        <v>988728.01557673444</v>
+        <v>530920.11066465639</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>42095</v>
       </c>
       <c r="B79">
-        <v>1021501.1402318884</v>
+        <v>1132183.7407015141</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>42186</v>
       </c>
       <c r="B80">
-        <v>997463.90104820009</v>
+        <v>1120644.4516320999</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>42278</v>
       </c>
       <c r="B81">
-        <v>992306.94314317708</v>
+        <v>1216251.6970017296</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>42370</v>
       </c>
       <c r="B82">
-        <v>1082714.8880196426</v>
+        <v>527067.04315789125</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>42461</v>
       </c>
       <c r="B83">
-        <v>1084952.4636289014</v>
+        <v>1123967.0988841159</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>42552</v>
       </c>
       <c r="B84">
-        <v>1012434.4758852927</v>
+        <v>1112511.5543534216</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>42644</v>
       </c>
       <c r="B85">
-        <v>1060034.597970044</v>
+        <v>1207424.9454818098</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>42736</v>
       </c>
       <c r="B86">
-        <v>1099464.8402971295</v>
+        <v>561667.63844664965</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>42826</v>
       </c>
       <c r="B87">
-        <v>1092538.1688911328</v>
+        <v>1197752.6470628874</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>42917</v>
       </c>
       <c r="B88">
-        <v>1118404.576937367</v>
+        <v>1185545.0755078054</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>43009</v>
       </c>
       <c r="B89">
-        <v>1161378.2554058982</v>
+        <v>1286689.2865604304</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>1198303.8728400946</v>
+        <v>577434.69570488972</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>43191</v>
       </c>
       <c r="B91">
-        <v>1218834.1314740493</v>
+        <v>1231375.7958340677</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>1206416.4205613739</v>
+        <v>1218825.5349970728</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>43374</v>
       </c>
       <c r="B93">
-        <v>1272963.6485008239</v>
+        <v>1322809.0525324726</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>43466</v>
       </c>
       <c r="B94">
-        <v>1288033.5216520799</v>
+        <v>600234.5949825563</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>43556</v>
       </c>
       <c r="B95">
-        <v>1304014.3781267575</v>
+        <v>1279996.4352358978</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>43647</v>
       </c>
       <c r="B96">
-        <v>1353567.6410657498</v>
+        <v>1266950.629733644</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>43739</v>
       </c>
       <c r="B97">
-        <v>1305826.9349690753</v>
+        <v>1375039.9167075262</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>43831</v>
       </c>
       <c r="B98">
-        <v>1203341.8631967304</v>
+        <v>612205.1135233345</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2752,7 @@
         <v>43922</v>
       </c>
       <c r="B99">
-        <v>890784.80513578327</v>
+        <v>1305523.4894713617</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>44013</v>
       </c>
       <c r="B100">
-        <v>1048299.1538683418</v>
+        <v>1292217.5106003126</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>44105</v>
       </c>
       <c r="B101">
-        <v>1221523.9630465698</v>
+        <v>1402462.4294297993</v>
       </c>
     </row>
   </sheetData>
@@ -2777,14 +2777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F55B84-16FA-46FD-A51E-2793911BAEEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3628C549-5955-4726-AF46-631CACC2F436}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B2">
         <f>pro!B2 -conso!B2</f>
-        <v>2642666.0993840895</v>
+        <v>842046.0136459457</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B3">
         <f>pro!B3 -conso!B3</f>
-        <v>2871852.2088712617</v>
+        <v>784554.00550724822</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B4">
         <f>pro!B4 -conso!B4</f>
-        <v>3227558.9520076038</v>
+        <v>833535.92818053206</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B5">
         <f>pro!B5 -conso!B5</f>
-        <v>3590850.0645389725</v>
+        <v>890523.68302801903</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B6">
         <f>pro!B6 -conso!B6</f>
-        <v>3183154.6143621486</v>
+        <v>941523.43968938245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B7">
         <f>pro!B7 -conso!B7</f>
-        <v>3219032.0355198393</v>
+        <v>967155.51173656737</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B8">
         <f>pro!B8 -conso!B8</f>
-        <v>2790319.6382269263</v>
+        <v>937861.12289595732</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B9">
         <f>pro!B9 -conso!B9</f>
-        <v>2454238.6598963807</v>
+        <v>961599.3050510356</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B10">
         <f>pro!B10 -conso!B10</f>
-        <v>2210438.9873198112</v>
+        <v>985826.92634546617</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B11">
         <f>pro!B11 -conso!B11</f>
-        <v>1861463.2732773945</v>
+        <v>1020731.3980672939</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B12">
         <f>pro!B12 -conso!B12</f>
-        <v>1847408.7957206869</v>
+        <v>988329.75939651066</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B13">
         <f>pro!B13 -conso!B13</f>
-        <v>1773766.4530909881</v>
+        <v>996946.9983983424</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B14">
         <f>pro!B14 -conso!B14</f>
-        <v>1682208.3619771891</v>
+        <v>1057994.7333110534</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B15">
         <f>pro!B15 -conso!B15</f>
-        <v>1797497.7881249469</v>
+        <v>1079032.2982149946</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B16">
         <f>pro!B16 -conso!B16</f>
-        <v>1873451.9697942403</v>
+        <v>999140.91577197076</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B17">
         <f>pro!B17 -conso!B17</f>
-        <v>1657051.2409536382</v>
+        <v>962308.6393832441</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="B18">
         <f>pro!B18 -conso!B18</f>
-        <v>1804015.8055968112</v>
+        <v>943204.00757087185</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B19">
         <f>pro!B19 -conso!B19</f>
-        <v>2096399.0042751729</v>
+        <v>990383.01952440781</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="B20">
         <f>pro!B20 -conso!B20</f>
-        <v>2285544.5056592817</v>
+        <v>1221389.1305142292</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B21">
         <f>pro!B21 -conso!B21</f>
-        <v>2729862</v>
+        <v>1255839</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B22">
         <f>pro!B22 -conso!B22</f>
-        <v>3024682</v>
+        <v>1262501</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B23">
         <f>pro!B23 -conso!B23</f>
-        <v>2603708.3872116972</v>
+        <v>1363129.367291315</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B24">
         <f>pro!B24 -conso!B24</f>
-        <v>2615908.245910849</v>
+        <v>1354697.4433472296</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B25">
         <f>pro!B25 -conso!B25</f>
-        <v>2762835.7177630304</v>
+        <v>1393979.2225446161</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B26">
         <f>pro!B26 -conso!B26</f>
-        <v>2707579.0034077698</v>
+        <v>1422474.2544571026</v>
       </c>
     </row>
   </sheetData>
@@ -3028,14 +3028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459560B8-B948-4779-97C3-C842153FC3E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E71A26A-B4B2-4343-851B-5264D9069891}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3053,7 @@
         <v>1996</v>
       </c>
       <c r="B2">
-        <v>1309378.0682625766</v>
+        <v>426293.43411799415</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
         <v>1997</v>
       </c>
       <c r="B3">
-        <v>1422934.0956914653</v>
+        <v>397188.01924083667</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>1998</v>
       </c>
       <c r="B4">
-        <v>1599182.9152086813</v>
+        <v>421985.76389978762</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
         <v>1999</v>
       </c>
       <c r="B5">
-        <v>1779180.6252660013</v>
+        <v>450835.45185527805</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>1577172.0753051562</v>
+        <v>476654.52183515689</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>2001</v>
       </c>
       <c r="B7">
-        <v>1594951.037141341</v>
+        <v>489630.78989305423</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>2002</v>
       </c>
       <c r="B8">
-        <v>1382542.1736807246</v>
+        <v>474800.69398198894</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>2003</v>
       </c>
       <c r="B9">
-        <v>1216016.4998023026</v>
+        <v>486818.38613961462</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>2004</v>
       </c>
       <c r="B10">
-        <v>1095218.1393083099</v>
+        <v>499084.7162199025</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>2005</v>
       </c>
       <c r="B11">
-        <v>922315.12326622615</v>
+        <v>516756.04112786177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>2006</v>
       </c>
       <c r="B12">
-        <v>915350.11792588583</v>
+        <v>500352.38557762018</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>2007</v>
       </c>
       <c r="B13">
-        <v>878862.87360652385</v>
+        <v>504715.4308009877</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2008</v>
       </c>
       <c r="B14">
-        <v>833497.71521367901</v>
+        <v>535621.0643051985</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>2009</v>
       </c>
       <c r="B15">
-        <v>890618.62564227881</v>
+        <v>546270.6341262823</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B16">
-        <v>928252.28188350599</v>
+        <v>505825.21404671884</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>2011</v>
       </c>
       <c r="B17">
-        <v>821032.28631638025</v>
+        <v>487178.66442417534</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>2012</v>
       </c>
       <c r="B18">
-        <v>893852.57149101794</v>
+        <v>477506.02853767184</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>2013</v>
       </c>
       <c r="B19">
-        <v>1038722.2998205186</v>
+        <v>501391.02148516086</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>2014</v>
       </c>
       <c r="B20">
-        <v>1132440.7242172793</v>
+        <v>618339.71379275236</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>2015</v>
       </c>
       <c r="B21">
-        <v>1352587</v>
+        <v>635779</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>2016</v>
       </c>
       <c r="B22">
-        <v>1428424.9999999998</v>
+        <v>621538</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>2017</v>
       </c>
       <c r="B23">
-        <v>2046849.1130494985</v>
+        <v>672865.25258615182</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
         <v>2018</v>
       </c>
       <c r="B24">
-        <v>2030054.2073679301</v>
+        <v>796526.13637147797</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>2019</v>
       </c>
       <c r="B25">
-        <v>2141442.2479180484</v>
+        <v>819622.77980839321</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>2020</v>
       </c>
       <c r="B26">
-        <v>2098613.4029596876</v>
+        <v>836377.10217498336</v>
       </c>
     </row>
   </sheetData>
